--- a/4_Daily Schedule/Daily_Schedule_2022.xlsx
+++ b/4_Daily Schedule/Daily_Schedule_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adponlineind-my.sharepoint.com/personal/gangigua_es_ad_adp_com/Documents/Documents/2022/Amar_2022/4_Daily Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2228" documentId="13_ncr:1_{37DFCD91-C40D-4851-A7FF-D1781FDB40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA3B4798-9C11-47E0-A6A4-60B5C012D247}"/>
+  <xr:revisionPtr revIDLastSave="2256" documentId="13_ncr:1_{37DFCD91-C40D-4851-A7FF-D1781FDB40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47A95407-1A77-4171-B57F-F5EAAAD1CE5E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="621">
   <si>
     <t>Date</t>
   </si>
@@ -2638,6 +2638,66 @@
   <si>
     <t>Scaler Class
 Inter friends</t>
+  </si>
+  <si>
+    <t>Scaler class - 2
+Café niloufer</t>
+  </si>
+  <si>
+    <t>Scaler AM, HW
+Scaler POD</t>
+  </si>
+  <si>
+    <t>Java AB
+Scaler class - sorting 2
+Scaler contest 1
+Guru interview
+Movie Kantara
+Hospital</t>
+  </si>
+  <si>
+    <t>Java - AB progressing
+Scaler upto date
+Contests and problem solving needs to be started</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>Contests and problem solving needs to be started
+Workout to be started
+Journal writing to be maintained</t>
+  </si>
+  <si>
+    <t>2. 2 sites for problem solving - 1 hr daily
+3. Scaler contest follow up
+Journal writing to be maintained</t>
+  </si>
+  <si>
+    <t>Nov 27 - Dec 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scaler
+Java AB 
+Focus Areas:
+1. 2 sites for problem solving - 1 hr daily
+2. Scaler contest follow up
+3. Revision Adv DSA
+Watch
+</t>
+  </si>
+  <si>
+    <t>Java AB
+Dmart
+Movie Kantara
+Scaler contest 2,3</t>
+  </si>
+  <si>
+    <t>HP - 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java AB
+</t>
   </si>
 </sst>
 </file>
@@ -4280,10 +4340,10 @@
   <dimension ref="E1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4660,47 +4720,71 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E25" s="73">
         <v>44889</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="3" t="s">
+        <v>609</v>
+      </c>
       <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="H25" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="I25" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E26" s="73">
         <v>44890</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="3" t="s">
+        <v>610</v>
+      </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="H26" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="I26" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="E27" s="73">
         <v>44891</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="3" t="s">
+        <v>611</v>
+      </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I27" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E28" s="73">
         <v>44892</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="3" t="s">
+        <v>618</v>
+      </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="H28" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="I28" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E29" s="73">
         <v>44893</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="3" t="s">
+        <v>620</v>
+      </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="9"/>
@@ -8529,8 +8613,8 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8624,14 +8708,20 @@
       <c r="B8" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="16" t="s">
+        <v>587</v>
+      </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
     </row>
@@ -8668,12 +8758,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B184FA5-A01E-46CA-B492-1B3A7AECB7A5}">
-  <dimension ref="D1:H9"/>
+  <dimension ref="D1:H10"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8821,6 +8911,23 @@
       </c>
       <c r="E9" s="40" t="s">
         <v>605</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>615</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="D10" s="41" t="s">
+        <v>616</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>

--- a/4_Daily Schedule/Daily_Schedule_2022.xlsx
+++ b/4_Daily Schedule/Daily_Schedule_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adponlineind-my.sharepoint.com/personal/gangigua_es_ad_adp_com/Documents/Documents/2022/Amar_2022/4_Daily Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2256" documentId="13_ncr:1_{37DFCD91-C40D-4851-A7FF-D1781FDB40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47A95407-1A77-4171-B57F-F5EAAAD1CE5E}"/>
+  <xr:revisionPtr revIDLastSave="2310" documentId="13_ncr:1_{37DFCD91-C40D-4851-A7FF-D1781FDB40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B84DEC7D-7FBB-4777-8B07-2633FCD32408}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="631">
   <si>
     <t>Date</t>
   </si>
@@ -220,9 +220,6 @@
     <t>Java - AB
 Scaler - Notes, HW
 Finance expenses</t>
-  </si>
-  <si>
-    <t>Go slowly but not backward</t>
   </si>
   <si>
     <t>Java - AB - Operators
@@ -663,10 +660,6 @@
   </si>
   <si>
     <t xml:space="preserve">Perspective </t>
-  </si>
-  <si>
-    <t>Rice takes 3-4 months to grow, 10 min to consume
-Better value things before you lose them</t>
   </si>
   <si>
     <t>Showup daily, Believe in compounding</t>
@@ -704,9 +697,6 @@
   </si>
   <si>
     <t>Your eyesight matters - make it count</t>
-  </si>
-  <si>
-    <t>Million things are going right around you to allow you to do whatever you want - planets, military, law n order, health</t>
   </si>
   <si>
     <t>Next 12 years - 144 months, 624 weeks</t>
@@ -1779,9 +1769,6 @@
     <t>Consume-Create - Read,watch, write</t>
   </si>
   <si>
-    <t>Proper rest - breaks every hour, sleep</t>
-  </si>
-  <si>
     <t>Don’t miss</t>
   </si>
   <si>
@@ -1792,12 +1779,6 @@
   </si>
   <si>
     <t>Action</t>
-  </si>
-  <si>
-    <t>Deal with them when you are even headed</t>
-  </si>
-  <si>
-    <t>Take a break and get back</t>
   </si>
   <si>
     <t>Cascade watching / reading</t>
@@ -1922,9 +1903,6 @@
     <t>Get reviews, data before trying</t>
   </si>
   <si>
-    <t>Gathering - knowledge,books, resources before starting a task</t>
-  </si>
-  <si>
     <t>Scaler - AM, HW
 Java AB</t>
   </si>
@@ -1946,17 +1924,8 @@
 meetings - Automation, SDE</t>
   </si>
   <si>
-    <t xml:space="preserve">How to get the task at hand done for now, </t>
-  </si>
-  <si>
-    <t>Will it be a learning for next 5-10 years ?</t>
-  </si>
-  <si>
     <t>Mind first, think &amp; respond
 Is it necessary for them or you ?</t>
-  </si>
-  <si>
-    <t>Cant get the best or simplified solution at first go, gets into complex ways or gross ways to solve</t>
   </si>
   <si>
     <t>Performance template
@@ -2604,9 +2573,6 @@
     <t>Write/Read</t>
   </si>
   <si>
-    <t>HP - isolation, long use of phone, repeating stuff or boreout</t>
-  </si>
-  <si>
     <t>Focus Areas:
 1. Weekly check hoslistically
 2. 2 sites for problem solving - 1 hr daily
@@ -2696,8 +2662,76 @@
     <t>HP - 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Java AB
-</t>
+    <t>Proper rest - breaks every hour, sleep, short walks</t>
+  </si>
+  <si>
+    <t>Million things are going right around you to allow you to do whatever you want</t>
+  </si>
+  <si>
+    <t>Rice takes 3-4 months to grow, 10 min to consume, Better value things before you lose them</t>
+  </si>
+  <si>
+    <t>Gathering - knowledge,books</t>
+  </si>
+  <si>
+    <t>Start execution, learn + apply + fail repeat</t>
+  </si>
+  <si>
+    <t>Uncertain -&gt; complex thoughts</t>
+  </si>
+  <si>
+    <t>short term thinking - pop up items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will it be a learning for next 5-10 years ?
+Plan, replan - prioritize </t>
+  </si>
+  <si>
+    <t>Go slowly but not backward - step by step, ferociously</t>
+  </si>
+  <si>
+    <t>Give Time utmost importance</t>
+  </si>
+  <si>
+    <t>Face them first with more energy</t>
+  </si>
+  <si>
+    <t>HP - isolation, long use of phone, repeating stuff or boreout,  place</t>
+  </si>
+  <si>
+    <t>Having Unwavering faith + Brutal facts of reality &gt; Dreams</t>
+  </si>
+  <si>
+    <t>Java AB
+Scaler Prob solving session
+Scaler AM</t>
+  </si>
+  <si>
+    <t>Scaler AM, HW
+Scaler class - sorting 3
+Java AB</t>
+  </si>
+  <si>
+    <t>Strengths</t>
+  </si>
+  <si>
+    <t>More of mind, energy</t>
+  </si>
+  <si>
+    <t>problem solving, driving, games</t>
+  </si>
+  <si>
+    <t>Use cases</t>
+  </si>
+  <si>
+    <t>HP, Emotion</t>
+  </si>
+  <si>
+    <t>Organized, data gathering</t>
+  </si>
+  <si>
+    <t>Java AB
+Scaler AM, HW</t>
   </si>
 </sst>
 </file>
@@ -2970,7 +3004,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3062,9 +3096,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3462,10 +3493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA509AD-6BFB-4A4B-8912-D9F90D9DDB5C}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3478,7 +3509,7 @@
     <col min="6" max="6" width="35.109375" style="6" customWidth="1"/>
     <col min="7" max="7" width="11" style="6" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="49" style="6" customWidth="1"/>
+    <col min="9" max="9" width="89.5546875" style="6" customWidth="1"/>
     <col min="10" max="10" width="54.5546875" style="6" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="6"/>
   </cols>
@@ -3488,22 +3519,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D1" s="42" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -3511,22 +3542,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D2" s="19">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H2" s="19">
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -3534,45 +3565,45 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D3" s="19">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>419</v>
+        <v>618</v>
       </c>
       <c r="H3" s="19">
         <v>2</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D4" s="19">
         <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>418</v>
+        <v>619</v>
       </c>
       <c r="H4" s="19">
         <v>3</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -3580,22 +3611,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D5" s="19">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>453</v>
+        <v>615</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>454</v>
+        <v>616</v>
       </c>
       <c r="H5" s="22">
         <v>4</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -3603,100 +3634,95 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D6" s="9">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="H6" s="19">
         <v>5</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>413</v>
+        <v>609</v>
       </c>
       <c r="D7" s="9">
         <v>6</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>456</v>
+        <v>614</v>
       </c>
       <c r="F7" s="17"/>
       <c r="H7" s="19">
         <v>6</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="22">
         <v>7</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>416</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="D8" s="19">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="F8" s="4"/>
       <c r="H8" s="19">
         <v>7</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>443</v>
-      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
       <c r="H9" s="19"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D10" s="19">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>444</v>
-      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
       <c r="H10" s="19"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="19">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>445</v>
+      <c r="D11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3707,19 +3733,19 @@
         <v>5</v>
       </c>
       <c r="D12" s="19">
-        <v>3</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>446</v>
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -3730,41 +3756,45 @@
         <v>7</v>
       </c>
       <c r="D13" s="19">
-        <v>4</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="F13" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>439</v>
+      </c>
       <c r="H13" s="19">
         <v>1</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F14" s="4"/>
+        <v>416</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>440</v>
+      </c>
       <c r="H14" s="19">
         <v>2</v>
       </c>
-      <c r="I14" s="44" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I14" s="16" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>4</v>
       </c>
@@ -3772,17 +3802,17 @@
         <v>11</v>
       </c>
       <c r="D15" s="19">
-        <v>6</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>447</v>
+        <v>4</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>414</v>
       </c>
       <c r="F15" s="4"/>
       <c r="H15" s="19">
         <v>3</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3790,13 +3820,20 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>49</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="D16" s="19">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F16" s="4"/>
       <c r="H16" s="19">
         <v>4</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -3804,7 +3841,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
+      </c>
+      <c r="D17" s="19">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>613</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="4"/>
@@ -3814,34 +3860,82 @@
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="D19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>627</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="19">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="D20" s="19">
+        <v>1</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>625</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="4"/>
+      <c r="D21" s="19">
+        <v>2</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>629</v>
+      </c>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D22" s="19">
+        <v>3</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D23" s="19"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D24" s="19"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D25" s="19"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3869,16 +3963,16 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="8:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -3886,11 +3980,11 @@
         <v>44835</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L4" s="10">
         <v>1</v>
@@ -3901,11 +3995,11 @@
         <v>44836</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L5" s="9">
         <v>2</v>
@@ -3916,11 +4010,11 @@
         <v>44837</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L6" s="9">
         <v>2</v>
@@ -3931,11 +4025,11 @@
         <v>44838</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L7" s="9">
         <v>2</v>
@@ -3946,11 +4040,11 @@
         <v>44839</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L8" s="9">
         <v>1</v>
@@ -3961,11 +4055,11 @@
         <v>44840</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L9" s="9">
         <v>1</v>
@@ -3976,13 +4070,13 @@
         <v>44841</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L10" s="9">
         <v>2</v>
@@ -3993,11 +4087,11 @@
         <v>44842</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L11" s="9">
         <v>2</v>
@@ -4008,11 +4102,11 @@
         <v>44843</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="16" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="L12" s="9">
         <v>2</v>
@@ -4023,10 +4117,10 @@
         <v>44844</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="9">
@@ -4038,10 +4132,10 @@
         <v>44845</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K14" s="17"/>
       <c r="L14" s="9">
@@ -4053,10 +4147,10 @@
         <v>44846</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K15" s="17"/>
       <c r="L15" s="9">
@@ -4068,7 +4162,7 @@
         <v>44847</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
@@ -4081,10 +4175,10 @@
         <v>44848</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="K17" s="17"/>
       <c r="L17" s="9">
@@ -4096,7 +4190,7 @@
         <v>44849</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
@@ -4105,12 +4199,12 @@
       </c>
     </row>
     <row r="19" spans="3:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C19" s="46"/>
+      <c r="C19" s="45"/>
       <c r="H19" s="8">
         <v>44850</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
@@ -4119,15 +4213,15 @@
       </c>
     </row>
     <row r="20" spans="3:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="46"/>
+      <c r="C20" s="45"/>
       <c r="H20" s="8">
         <v>44851</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="K20" s="17"/>
       <c r="L20" s="9">
@@ -4139,10 +4233,10 @@
         <v>44852</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="K21" s="17"/>
       <c r="L21" s="9">
@@ -4154,10 +4248,10 @@
         <v>44853</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="K22" s="17"/>
       <c r="L22" s="9">
@@ -4169,10 +4263,10 @@
         <v>44854</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="K23" s="17"/>
       <c r="L23" s="9">
@@ -4184,10 +4278,10 @@
         <v>44855</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="K24" s="17"/>
       <c r="L24" s="9">
@@ -4199,7 +4293,7 @@
         <v>44856</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
@@ -4212,7 +4306,7 @@
         <v>44857</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
@@ -4225,7 +4319,7 @@
         <v>44858</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
@@ -4238,7 +4332,7 @@
         <v>44859</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
@@ -4251,10 +4345,10 @@
         <v>44860</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="K29" s="17"/>
       <c r="L29" s="9">
@@ -4266,7 +4360,7 @@
         <v>44861</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
@@ -4279,7 +4373,7 @@
         <v>44862</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
@@ -4292,7 +4386,7 @@
         <v>44863</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
@@ -4305,7 +4399,7 @@
         <v>44864</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
@@ -4318,10 +4412,10 @@
         <v>44865</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="K34" s="17"/>
       <c r="L34" s="9">
@@ -4340,10 +4434,10 @@
   <dimension ref="E1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4361,121 +4455,121 @@
         <v>0</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" s="74" t="s">
-        <v>71</v>
+        <v>91</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E2" s="73">
+      <c r="E2" s="72">
         <v>44866</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="I2" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E3" s="73">
+      <c r="E3" s="72">
         <v>44867</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="I3" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E4" s="73">
+      <c r="E4" s="72">
         <v>44868</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="3" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="I4" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E5" s="73">
+      <c r="E5" s="72">
         <v>44869</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="3" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="I5" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E6" s="73">
+      <c r="E6" s="72">
         <v>44870</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="I6" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E7" s="73">
+      <c r="E7" s="72">
         <v>44871</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="I7" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E8" s="73">
+      <c r="E8" s="72">
         <v>44872</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="9">
@@ -4483,14 +4577,14 @@
       </c>
     </row>
     <row r="9" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E9" s="73">
+      <c r="E9" s="72">
         <v>44873</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="9">
@@ -4498,14 +4592,14 @@
       </c>
     </row>
     <row r="10" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E10" s="73">
+      <c r="E10" s="72">
         <v>44874</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="9">
@@ -4513,76 +4607,76 @@
       </c>
     </row>
     <row r="11" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E11" s="73">
+      <c r="E11" s="72">
         <v>44875</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="3" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="I11" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E12" s="73">
+      <c r="E12" s="72">
         <v>44876</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="I12" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E13" s="73">
+      <c r="E13" s="72">
         <v>44877</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="3" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="I13" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E14" s="73">
+      <c r="E14" s="72">
         <v>44878</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="3" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="I14" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="5:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="E15" s="73">
+      <c r="E15" s="72">
         <v>44879</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="9">
@@ -4590,45 +4684,45 @@
       </c>
     </row>
     <row r="16" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E16" s="73">
+      <c r="E16" s="72">
         <v>44880</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I16" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E17" s="73">
+      <c r="E17" s="72">
         <v>44881</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I17" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E18" s="73">
+      <c r="E18" s="72">
         <v>44882</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -4637,28 +4731,28 @@
       </c>
     </row>
     <row r="19" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E19" s="73">
+      <c r="E19" s="72">
         <v>44883</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="I19" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="5:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="E20" s="73">
+      <c r="E20" s="72">
         <v>44884</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -4667,26 +4761,26 @@
       </c>
     </row>
     <row r="21" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E21" s="73">
+      <c r="E21" s="72">
         <v>44885</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="I21" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E22" s="73">
+      <c r="E22" s="72">
         <v>44886</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -4695,11 +4789,11 @@
       </c>
     </row>
     <row r="23" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E23" s="73">
+      <c r="E23" s="72">
         <v>44887</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -4708,11 +4802,11 @@
       </c>
     </row>
     <row r="24" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E24" s="73">
+      <c r="E24" s="72">
         <v>44888</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -4721,41 +4815,41 @@
       </c>
     </row>
     <row r="25" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E25" s="73">
+      <c r="E25" s="72">
         <v>44889</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="I25" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E26" s="73">
+      <c r="E26" s="72">
         <v>44890</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="I26" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="5:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="E27" s="73">
+      <c r="E27" s="72">
         <v>44891</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -4764,48 +4858,60 @@
       </c>
     </row>
     <row r="28" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E28" s="73">
+      <c r="E28" s="72">
         <v>44892</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="I28" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E29" s="73">
+    <row r="29" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E29" s="72">
         <v>44893</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E30" s="73">
+      <c r="I29" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E30" s="72">
         <v>44894</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="3" t="s">
+        <v>623</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E31" s="73">
+      <c r="I30" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E31" s="72">
         <v>44895</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="3" t="s">
+        <v>630</v>
+      </c>
       <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="9"/>
+      <c r="H31" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31" s="9">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4847,53 +4953,53 @@
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
-      <c r="U1" s="69" t="s">
+      <c r="U1" s="68" t="s">
+        <v>497</v>
+      </c>
+      <c r="V1" s="68" t="s">
+        <v>496</v>
+      </c>
+      <c r="W1" s="68" t="s">
+        <v>498</v>
+      </c>
+      <c r="X1" s="68" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y1" s="68" t="s">
+        <v>500</v>
+      </c>
+      <c r="Z1" s="68" t="s">
         <v>507</v>
       </c>
-      <c r="V1" s="69" t="s">
-        <v>506</v>
-      </c>
-      <c r="W1" s="69" t="s">
-        <v>508</v>
-      </c>
-      <c r="X1" s="69" t="s">
-        <v>509</v>
-      </c>
-      <c r="Y1" s="69" t="s">
-        <v>510</v>
-      </c>
-      <c r="Z1" s="69" t="s">
-        <v>517</v>
-      </c>
     </row>
     <row r="2" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="G2" s="75" t="s">
+      <c r="E2" s="74"/>
+      <c r="G2" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="75"/>
+      <c r="H2" s="74"/>
       <c r="K2" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="47" t="s">
-        <v>423</v>
-      </c>
-      <c r="O2" s="47" t="s">
+      <c r="N2" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="O2" s="46" t="s">
         <v>12</v>
       </c>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="70" t="s">
-        <v>497</v>
-      </c>
-      <c r="T2" s="53">
+      <c r="S2" s="69" t="s">
+        <v>487</v>
+      </c>
+      <c r="T2" s="52">
         <v>2098748</v>
       </c>
       <c r="U2" s="4">
@@ -4908,11 +5014,11 @@
       <c r="X2" s="4">
         <v>9516</v>
       </c>
-      <c r="Y2" s="72">
+      <c r="Y2" s="71">
         <f>381809/12</f>
         <v>31817.416666666668</v>
       </c>
-      <c r="Z2" s="72">
+      <c r="Z2" s="71">
         <v>116107</v>
       </c>
     </row>
@@ -4930,13 +5036,13 @@
         <v>12</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="L3" s="4">
         <v>20000</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="O3" s="4">
         <v>24000</v>
@@ -4944,10 +5050,10 @@
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="S3" s="71" t="s">
-        <v>503</v>
+        <v>506</v>
+      </c>
+      <c r="S3" s="70" t="s">
+        <v>493</v>
       </c>
       <c r="T3" s="4">
         <v>77630</v>
@@ -4973,13 +5079,13 @@
         <v>60000</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="L4" s="4">
         <v>25000</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="O4" s="4">
         <v>8000</v>
@@ -4987,9 +5093,9 @@
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="S4" s="70" t="s">
+        <v>518</v>
+      </c>
+      <c r="S4" s="69" t="s">
         <v>41</v>
       </c>
       <c r="T4" s="4">
@@ -5017,13 +5123,13 @@
         <v>12000</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="L5" s="4">
         <v>35000</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="O5" s="4">
         <v>14000</v>
@@ -5031,10 +5137,10 @@
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="S5" s="70" t="s">
-        <v>527</v>
+        <v>518</v>
+      </c>
+      <c r="S5" s="69" t="s">
+        <v>517</v>
       </c>
       <c r="T5" s="4">
         <f>(T3*0.2)</f>
@@ -5048,10 +5154,10 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="47">
         <v>13368</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -5061,13 +5167,13 @@
         <v>8260</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="L6" s="4">
         <v>20000</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="O6" s="4">
         <v>15000</v>
@@ -5075,10 +5181,10 @@
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="S6" s="70" t="s">
-        <v>515</v>
+        <v>504</v>
+      </c>
+      <c r="S6" s="69" t="s">
+        <v>505</v>
       </c>
       <c r="T6" s="4">
         <v>33532</v>
@@ -5094,31 +5200,31 @@
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
       <c r="G7" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H7" s="4">
         <f>(699+599+1399+499+400)</f>
         <v>3596</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="L7" s="4">
         <v>10000</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="O7" s="4">
         <v>8000</v>
       </c>
       <c r="P7"/>
       <c r="Q7"/>
-      <c r="R7" s="67" t="s">
-        <v>512</v>
-      </c>
-      <c r="S7" s="70" t="s">
-        <v>530</v>
+      <c r="R7" s="66" t="s">
+        <v>502</v>
+      </c>
+      <c r="S7" s="69" t="s">
+        <v>520</v>
       </c>
       <c r="T7" s="4">
         <v>3000</v>
@@ -5137,14 +5243,14 @@
       <c r="E8" s="4">
         <v>500</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="47">
         <v>50000</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="L8" s="4">
         <v>20000</v>
@@ -5154,9 +5260,9 @@
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="S8" s="70" t="s">
+        <v>519</v>
+      </c>
+      <c r="S8" s="69" t="s">
         <v>41</v>
       </c>
       <c r="T8" s="4">
@@ -5184,20 +5290,20 @@
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="N9" s="49" t="s">
+      <c r="N9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="49">
+      <c r="O9" s="48">
         <f>SUM(O3:O8)</f>
         <v>69000</v>
       </c>
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="S9" s="70" t="s">
-        <v>511</v>
+        <v>503</v>
+      </c>
+      <c r="S9" s="69" t="s">
+        <v>501</v>
       </c>
       <c r="T9" s="4">
         <v>3764</v>
@@ -5219,10 +5325,10 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="R10" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="S10" s="70" t="s">
-        <v>505</v>
+        <v>494</v>
+      </c>
+      <c r="S10" s="69" t="s">
+        <v>495</v>
       </c>
       <c r="T10" s="4">
         <v>9316</v>
@@ -5243,17 +5349,17 @@
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="N11" s="47" t="s">
-        <v>540</v>
-      </c>
-      <c r="O11" s="47" t="s">
+      <c r="N11" s="46" t="s">
+        <v>530</v>
+      </c>
+      <c r="O11" s="46" t="s">
         <v>12</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="S11" s="68" t="s">
-        <v>499</v>
+        <v>510</v>
+      </c>
+      <c r="S11" s="67" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="4:26" x14ac:dyDescent="0.3">
@@ -5269,15 +5375,15 @@
       <c r="H12" s="4">
         <v>3000</v>
       </c>
-      <c r="K12" s="50" t="s">
+      <c r="K12" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="50">
+      <c r="L12" s="49">
         <f>SUM(L3:L11)</f>
         <v>130000</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="O12" s="4">
         <f>(250*12*12)</f>
@@ -5297,24 +5403,24 @@
       <c r="H13" s="4">
         <v>10000</v>
       </c>
-      <c r="K13" s="51" t="s">
-        <v>492</v>
-      </c>
-      <c r="L13" s="52">
+      <c r="K13" s="50" t="s">
+        <v>482</v>
+      </c>
+      <c r="L13" s="51">
         <f>SUM(H18+L12)</f>
         <v>259306</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="O13" s="4">
         <v>20000</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="S13" s="70" t="s">
-        <v>515</v>
+        <v>504</v>
+      </c>
+      <c r="S13" s="69" t="s">
+        <v>505</v>
       </c>
       <c r="T13" s="4">
         <v>33532</v>
@@ -5328,29 +5434,29 @@
         <v>5000</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" s="4">
         <v>5000</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="L14" s="53">
+        <v>486</v>
+      </c>
+      <c r="L14" s="52">
         <f>L13/0.6</f>
         <v>432176.66666666669</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="O14" s="4">
         <v>120000</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="S14" s="70" t="s">
-        <v>511</v>
+        <v>503</v>
+      </c>
+      <c r="S14" s="69" t="s">
+        <v>501</v>
       </c>
       <c r="T14" s="4">
         <v>3764</v>
@@ -5364,33 +5470,33 @@
         <v>5000</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="H15" s="4">
         <v>15000</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="K15" s="51" t="s">
-        <v>497</v>
-      </c>
-      <c r="L15" s="52">
+        <v>508</v>
+      </c>
+      <c r="K15" s="50" t="s">
+        <v>487</v>
+      </c>
+      <c r="L15" s="51">
         <f>(L14/0.88)*12</f>
         <v>5893318.1818181816</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="O15" s="4">
         <f>(18*1000)</f>
         <v>18000</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="S15" s="70" t="s">
-        <v>505</v>
+        <v>494</v>
+      </c>
+      <c r="S15" s="69" t="s">
+        <v>495</v>
       </c>
       <c r="T15" s="4">
         <v>9316</v>
@@ -5403,24 +5509,24 @@
       <c r="E16" s="4">
         <v>5000</v>
       </c>
-      <c r="G16" s="54" t="s">
+      <c r="G16" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="54">
         <f>SUM(H6:H15)</f>
         <v>164856</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="L16" s="4">
         <v>350000</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="O16" s="4">
         <f>(40*400)</f>
@@ -5434,15 +5540,15 @@
       <c r="E17" s="4">
         <v>5000</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="56">
         <f>(H16/12)</f>
         <v>13738</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="L17" s="4">
         <v>250000</v>
@@ -5457,10 +5563,10 @@
       <c r="E18" s="4">
         <v>5000</v>
       </c>
-      <c r="G18" s="58" t="s">
+      <c r="G18" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="59">
+      <c r="H18" s="58">
         <f>SUM(H17,E21)</f>
         <v>129306</v>
       </c>
@@ -5476,15 +5582,15 @@
       <c r="E19" s="4">
         <v>5000</v>
       </c>
-      <c r="K19" s="60" t="s">
-        <v>498</v>
-      </c>
-      <c r="L19" s="61">
+      <c r="K19" s="59" t="s">
+        <v>488</v>
+      </c>
+      <c r="L19" s="60">
         <f>SUM(L13+L16+L18+L17)</f>
         <v>859306</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="O19" s="4">
         <f>(50000+300000+45*500)</f>
@@ -5492,88 +5598,88 @@
       </c>
     </row>
     <row r="20" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="62">
+      <c r="E20" s="61">
         <v>5000</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="63">
+      <c r="H20" s="62">
         <v>116107</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="L20" s="72">
+        <v>486</v>
+      </c>
+      <c r="L20" s="71">
         <f>(L19/0.6)</f>
         <v>1432176.6666666667</v>
       </c>
-      <c r="N20" s="49" t="s">
+      <c r="N20" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="O20" s="49">
+      <c r="O20" s="48">
         <f>SUM(O12:O19)</f>
         <v>582500</v>
       </c>
     </row>
     <row r="21" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="56">
         <f>SUM(E4:E20)</f>
         <v>115568</v>
       </c>
-      <c r="G21" s="62" t="s">
+      <c r="G21" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="64">
+      <c r="H21" s="63">
         <v>18631</v>
       </c>
-      <c r="K21" s="60" t="s">
-        <v>497</v>
-      </c>
-      <c r="L21" s="61">
+      <c r="K21" s="59" t="s">
+        <v>487</v>
+      </c>
+      <c r="L21" s="60">
         <f>(L20/0.88)*12</f>
         <v>19529681.81818182</v>
       </c>
     </row>
     <row r="22" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G22" s="65" t="s">
+      <c r="G22" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="66">
+      <c r="H22" s="65">
         <f>SUM(H20:H21)</f>
         <v>134738</v>
       </c>
-      <c r="J22" s="48" t="s">
-        <v>500</v>
+      <c r="J22" s="47" t="s">
+        <v>490</v>
       </c>
       <c r="K22" s="43" t="s">
-        <v>501</v>
-      </c>
-      <c r="L22" s="67">
+        <v>491</v>
+      </c>
+      <c r="L22" s="66">
         <v>0.23</v>
       </c>
-      <c r="N22" s="47" t="s">
-        <v>549</v>
-      </c>
-      <c r="O22" s="47" t="s">
+      <c r="N22" s="46" t="s">
+        <v>539</v>
+      </c>
+      <c r="O22" s="46" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.3">
       <c r="K23" s="43" t="s">
-        <v>502</v>
-      </c>
-      <c r="L23" s="67">
+        <v>492</v>
+      </c>
+      <c r="L23" s="66">
         <v>0.34</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="O23" s="4">
         <f>(5000+3500+8000+3000+2500+2500+3500)</f>
@@ -5581,9 +5687,9 @@
       </c>
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="K24" s="68"/>
+      <c r="K24" s="67"/>
       <c r="N24" s="4" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="O24" s="4">
         <f>(5000+45000+21000)</f>
@@ -5592,7 +5698,7 @@
     </row>
     <row r="25" spans="4:15" x14ac:dyDescent="0.3">
       <c r="N25" s="4" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="O25" s="4">
         <f>(6000+3000+20000)</f>
@@ -5601,7 +5707,7 @@
     </row>
     <row r="26" spans="4:15" x14ac:dyDescent="0.3">
       <c r="N26" s="4" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="O26" s="4">
         <f>(10000+10000+5000+3000)</f>
@@ -5610,26 +5716,26 @@
     </row>
     <row r="27" spans="4:15" x14ac:dyDescent="0.3">
       <c r="N27" s="4" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="O27" s="4">
         <v>50000</v>
       </c>
     </row>
     <row r="28" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="N28" s="49" t="s">
+      <c r="N28" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="49">
+      <c r="O28" s="48">
         <f>SUM(O23:O27)</f>
         <v>206000</v>
       </c>
     </row>
     <row r="29" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="N29" s="49" t="s">
-        <v>553</v>
-      </c>
-      <c r="O29" s="49">
+      <c r="N29" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="O29" s="48">
         <f>(365*2+365*3*2)+2000</f>
         <v>4920</v>
       </c>
@@ -5669,73 +5775,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="76" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="F1" s="76" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="76"/>
+      <c r="I1" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="M1" s="75" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="F1" s="77" t="s">
-        <v>215</v>
-      </c>
-      <c r="G1" s="77"/>
-      <c r="I1" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="M1" s="76" t="s">
-        <v>219</v>
-      </c>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="Q1" s="77" t="s">
-        <v>236</v>
-      </c>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="Q1" s="76" t="s">
+        <v>233</v>
+      </c>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
@@ -5743,43 +5849,43 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I3" s="7">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M3" s="7">
         <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q3" s="7">
         <v>1</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
@@ -5787,43 +5893,43 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F4" s="7">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I4" s="7">
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q4" s="19">
         <v>2</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
@@ -5831,43 +5937,43 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I5" s="7">
         <v>3</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7">
         <v>3</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
@@ -5875,34 +5981,34 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F6" s="7">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q6" s="7">
         <v>4</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
@@ -5910,25 +6016,25 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F7" s="7">
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q7" s="7">
         <v>5</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
@@ -5936,23 +6042,23 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D8" s="1"/>
       <c r="F8" s="7">
         <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="7">
         <v>6</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
@@ -5960,32 +6066,32 @@
         <v>7</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Q9" s="7">
         <v>7</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="77" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
+      <c r="B10" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
       <c r="Q10" s="7">
         <v>8</v>
       </c>
       <c r="R10" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="S10" s="16" t="s">
         <v>229</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
@@ -5993,19 +6099,19 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q11" s="7">
         <v>9</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
@@ -6013,19 +6119,19 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q12" s="7">
         <v>10</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
@@ -6033,37 +6139,37 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7">
         <v>11</v>
       </c>
       <c r="R13" s="17" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -6074,57 +6180,57 @@
         <v>44566</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="7">
         <v>12</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="S14" s="17"/>
     </row>
     <row r="15" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="78" t="s">
-        <v>218</v>
-      </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="80"/>
+      <c r="B15" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
       <c r="I15" s="30">
         <v>44568</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q15" s="7">
         <v>13</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="S15" s="17"/>
     </row>
@@ -6133,28 +6239,28 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I16" s="30">
         <v>44572</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="7">
         <v>14</v>
@@ -6167,28 +6273,28 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I17" s="30">
         <v>44572</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="O17" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7">
         <v>15</v>
@@ -6201,26 +6307,26 @@
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I18" s="30">
         <v>44585</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Q18" s="7">
         <v>16</v>
@@ -6232,25 +6338,25 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I19" s="30">
         <v>44587</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Q19" s="7">
         <v>17</v>
@@ -6262,25 +6368,25 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I20" s="30">
         <v>44589</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7">
         <v>18</v>
@@ -6292,25 +6398,25 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I21" s="30">
         <v>44592</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Q21" s="7">
         <v>19</v>
@@ -6326,16 +6432,16 @@
         <v>44594</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="O22" s="1"/>
       <c r="Q22" s="7">
@@ -6345,25 +6451,25 @@
       <c r="S22" s="17"/>
     </row>
     <row r="23" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="77" t="s">
-        <v>220</v>
-      </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
+      <c r="B23" s="76" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
       <c r="I23" s="31">
         <v>44595</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O23" s="1"/>
       <c r="Q23" s="7">
@@ -6377,28 +6483,28 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I24" s="31">
         <v>44595</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="Q24" s="7">
         <v>22</v>
@@ -6411,28 +6517,28 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I25" s="31">
         <v>44603</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -6440,20 +6546,20 @@
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D26" s="1"/>
       <c r="I26" s="31">
         <v>44603</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -6463,23 +6569,23 @@
         <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D27" s="23"/>
       <c r="I27" s="31">
         <v>44611</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="O27" s="1"/>
     </row>
@@ -6488,26 +6594,26 @@
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D28" s="23"/>
       <c r="I28" s="32">
         <v>44627</v>
       </c>
       <c r="J28" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="29" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
@@ -6518,16 +6624,16 @@
         <v>44628</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="O29" s="1"/>
     </row>
@@ -6536,10 +6642,10 @@
         <v>44628</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -6550,22 +6656,22 @@
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I31" s="32">
         <v>44641</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -6575,28 +6681,28 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I32" s="32">
         <v>44645</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
@@ -6604,25 +6710,25 @@
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I33" s="32">
         <v>44646</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="O33" s="1"/>
     </row>
@@ -6631,25 +6737,25 @@
         <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I34" s="33">
         <v>44662</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O34" s="1"/>
     </row>
@@ -6658,19 +6764,19 @@
         <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I35" s="33">
         <v>44669</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -6681,19 +6787,19 @@
         <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I36" s="33">
         <v>44678</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -6704,17 +6810,17 @@
         <v>6</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D37" s="1"/>
       <c r="I37" s="34">
         <v>44697</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -6725,17 +6831,17 @@
         <v>7</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D38" s="1"/>
       <c r="I38" s="34">
         <v>44705</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -6751,10 +6857,10 @@
         <v>44705</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -6768,10 +6874,10 @@
         <v>44708</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -6782,10 +6888,10 @@
         <v>44714</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -6796,10 +6902,10 @@
         <v>44718</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -6810,10 +6916,10 @@
         <v>44719</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
@@ -6821,10 +6927,10 @@
         <v>44722</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
@@ -6832,10 +6938,10 @@
         <v>44728</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
@@ -6843,10 +6949,10 @@
         <v>44729</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
@@ -6854,10 +6960,10 @@
         <v>44734</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
@@ -6865,10 +6971,10 @@
         <v>44735</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -6876,10 +6982,10 @@
         <v>44740</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -6887,7 +6993,7 @@
         <v>44741</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K50" s="1"/>
     </row>
@@ -6896,10 +7002,10 @@
         <v>44743</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -6907,10 +7013,10 @@
         <v>44747</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -6918,7 +7024,7 @@
         <v>44756</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K53" s="1"/>
     </row>
@@ -6927,10 +7033,10 @@
         <v>44759</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -6938,10 +7044,10 @@
         <v>44762</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -6949,10 +7055,10 @@
         <v>44766</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -6960,10 +7066,10 @@
         <v>44768</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -6971,10 +7077,10 @@
         <v>44768</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -6982,10 +7088,10 @@
         <v>44782</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -6993,10 +7099,10 @@
         <v>44788</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -7004,10 +7110,10 @@
         <v>44791</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -7015,10 +7121,10 @@
         <v>44796</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -7026,10 +7132,10 @@
         <v>44797</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -7037,10 +7143,10 @@
         <v>44797</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -7048,10 +7154,10 @@
         <v>44802</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -7059,10 +7165,10 @@
         <v>44804</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -7070,10 +7176,10 @@
         <v>44804</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -7081,10 +7187,10 @@
         <v>44809</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -7092,10 +7198,10 @@
         <v>44811</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="70" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -7103,10 +7209,10 @@
         <v>44813</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -7114,10 +7220,10 @@
         <v>44820</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -7125,10 +7231,10 @@
         <v>44823</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="73" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -7136,10 +7242,10 @@
         <v>44826</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -7147,10 +7253,10 @@
         <v>44837</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="75" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -7158,10 +7264,10 @@
         <v>44839</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -7169,10 +7275,10 @@
         <v>44841</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -7180,10 +7286,10 @@
         <v>44844</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -7191,10 +7297,10 @@
         <v>44846</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -7202,10 +7308,10 @@
         <v>44848</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="80" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -7213,7 +7319,7 @@
         <v>44848</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K80" s="1"/>
     </row>
@@ -7222,10 +7328,10 @@
         <v>44851</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -7233,10 +7339,10 @@
         <v>44852</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="83" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -7244,10 +7350,10 @@
         <v>44862</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="84" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -7255,10 +7361,10 @@
         <v>44864</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="85" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
@@ -7266,10 +7372,10 @@
         <v>44864</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="86" spans="9:11" x14ac:dyDescent="0.3">
@@ -7277,10 +7383,10 @@
         <v>44870</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="87" spans="9:11" x14ac:dyDescent="0.3">
@@ -7288,10 +7394,10 @@
         <v>44875</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="88" spans="9:11" x14ac:dyDescent="0.3">
@@ -7299,10 +7405,10 @@
         <v>44878</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="89" spans="9:11" x14ac:dyDescent="0.3">
@@ -7310,10 +7416,10 @@
         <v>44878</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="90" spans="9:11" x14ac:dyDescent="0.3">
@@ -7321,10 +7427,10 @@
         <v>44879</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="91" spans="9:11" x14ac:dyDescent="0.3">
@@ -7332,10 +7438,10 @@
         <v>44880</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="92" spans="9:11" x14ac:dyDescent="0.3">
@@ -7343,10 +7449,10 @@
         <v>44888</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="93" spans="9:11" x14ac:dyDescent="0.3">
@@ -7354,10 +7460,10 @@
         <v>44890</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="94" spans="9:11" x14ac:dyDescent="0.3">
@@ -7365,10 +7471,10 @@
         <v>44892</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -7416,19 +7522,19 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="4:15" x14ac:dyDescent="0.3">
@@ -7436,19 +7542,19 @@
         <v>44566</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="4:15" x14ac:dyDescent="0.3">
@@ -7456,19 +7562,19 @@
         <v>44568</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="4:15" x14ac:dyDescent="0.3">
@@ -7476,19 +7582,19 @@
         <v>44572</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="4:15" x14ac:dyDescent="0.3">
@@ -7496,19 +7602,19 @@
         <v>44572</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="4:15" x14ac:dyDescent="0.3">
@@ -7516,17 +7622,17 @@
         <v>44585</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="4:15" x14ac:dyDescent="0.3">
@@ -7534,19 +7640,19 @@
         <v>44587</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="4:15" x14ac:dyDescent="0.3">
@@ -7554,19 +7660,19 @@
         <v>44589</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="4:15" x14ac:dyDescent="0.3">
@@ -7574,19 +7680,19 @@
         <v>44592</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O10" s="29"/>
     </row>
@@ -7595,16 +7701,16 @@
         <v>44594</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J11" s="1"/>
       <c r="O11" s="29"/>
@@ -7614,16 +7720,16 @@
         <v>44595</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -7632,19 +7738,19 @@
         <v>44595</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="4:15" x14ac:dyDescent="0.3">
@@ -7652,19 +7758,19 @@
         <v>44603</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="4:15" x14ac:dyDescent="0.3">
@@ -7672,13 +7778,13 @@
         <v>44603</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -7688,16 +7794,16 @@
         <v>44611</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="J16" s="1"/>
     </row>
@@ -7706,19 +7812,19 @@
         <v>44627</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.3">
@@ -7726,16 +7832,16 @@
         <v>44628</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="J18" s="1"/>
     </row>
@@ -7744,10 +7850,10 @@
         <v>44628</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -7758,13 +7864,13 @@
         <v>44641</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -7774,19 +7880,19 @@
         <v>44645</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.3">
@@ -7794,16 +7900,16 @@
         <v>44646</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J22" s="1"/>
     </row>
@@ -7812,16 +7918,16 @@
         <v>44662</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J23" s="1"/>
     </row>
@@ -7830,10 +7936,10 @@
         <v>44669</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -7844,10 +7950,10 @@
         <v>44678</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -7858,10 +7964,10 @@
         <v>44697</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -7872,10 +7978,10 @@
         <v>44705</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -7886,10 +7992,10 @@
         <v>44705</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -7900,10 +8006,10 @@
         <v>44708</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -7914,10 +8020,10 @@
         <v>44714</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -7928,10 +8034,10 @@
         <v>44718</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -7942,10 +8048,10 @@
         <v>44719</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.3">
@@ -7953,10 +8059,10 @@
         <v>44722</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.3">
@@ -7964,10 +8070,10 @@
         <v>44728</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.3">
@@ -7975,10 +8081,10 @@
         <v>44729</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.3">
@@ -7986,10 +8092,10 @@
         <v>44734</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.3">
@@ -7997,10 +8103,10 @@
         <v>44735</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.3">
@@ -8008,10 +8114,10 @@
         <v>44740</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.3">
@@ -8019,7 +8125,7 @@
         <v>44741</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F39" s="1"/>
     </row>
@@ -8028,10 +8134,10 @@
         <v>44743</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.3">
@@ -8039,10 +8145,10 @@
         <v>44747</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.3">
@@ -8050,7 +8156,7 @@
         <v>44756</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F42" s="1"/>
     </row>
@@ -8059,10 +8165,10 @@
         <v>44759</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.3">
@@ -8070,10 +8176,10 @@
         <v>44762</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.3">
@@ -8081,10 +8187,10 @@
         <v>44766</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.3">
@@ -8092,10 +8198,10 @@
         <v>44768</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.3">
@@ -8103,10 +8209,10 @@
         <v>44768</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.3">
@@ -8114,10 +8220,10 @@
         <v>44782</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.3">
@@ -8125,10 +8231,10 @@
         <v>44788</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.3">
@@ -8136,10 +8242,10 @@
         <v>44791</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.3">
@@ -8147,10 +8253,10 @@
         <v>44796</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.3">
@@ -8158,10 +8264,10 @@
         <v>44797</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.3">
@@ -8169,10 +8275,10 @@
         <v>44797</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.3">
@@ -8180,10 +8286,10 @@
         <v>44802</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.3">
@@ -8191,10 +8297,10 @@
         <v>44804</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.3">
@@ -8202,10 +8308,10 @@
         <v>44804</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.3">
@@ -8213,10 +8319,10 @@
         <v>44809</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.3">
@@ -8224,10 +8330,10 @@
         <v>44811</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.3">
@@ -8235,10 +8341,10 @@
         <v>44813</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.3">
@@ -8246,10 +8352,10 @@
         <v>44820</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61" spans="4:6" x14ac:dyDescent="0.3">
@@ -8257,10 +8363,10 @@
         <v>44823</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.3">
@@ -8268,10 +8374,10 @@
         <v>44826</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.3">
@@ -8279,10 +8385,10 @@
         <v>44837</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64" spans="4:6" x14ac:dyDescent="0.3">
@@ -8290,10 +8396,10 @@
         <v>44839</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.3">
@@ -8301,10 +8407,10 @@
         <v>44841</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.3">
@@ -8312,10 +8418,10 @@
         <v>44844</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="4:6" x14ac:dyDescent="0.3">
@@ -8323,10 +8429,10 @@
         <v>44846</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.3">
@@ -8334,10 +8440,10 @@
         <v>44848</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="4:6" x14ac:dyDescent="0.3">
@@ -8345,7 +8451,7 @@
         <v>44848</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F69" s="1"/>
     </row>
@@ -8354,10 +8460,10 @@
         <v>44851</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.3">
@@ -8365,10 +8471,10 @@
         <v>44852</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="4:6" x14ac:dyDescent="0.3">
@@ -8376,10 +8482,10 @@
         <v>44862</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="73" spans="4:6" x14ac:dyDescent="0.3">
@@ -8387,10 +8493,10 @@
         <v>44864</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="4:6" x14ac:dyDescent="0.3">
@@ -8398,10 +8504,10 @@
         <v>44864</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="75" spans="4:6" x14ac:dyDescent="0.3">
@@ -8409,10 +8515,10 @@
         <v>44870</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="4:6" x14ac:dyDescent="0.3">
@@ -8420,10 +8526,10 @@
         <v>44875</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="4:6" x14ac:dyDescent="0.3">
@@ -8431,10 +8537,10 @@
         <v>44878</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="4:6" x14ac:dyDescent="0.3">
@@ -8442,10 +8548,10 @@
         <v>44878</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79" spans="4:6" x14ac:dyDescent="0.3">
@@ -8453,10 +8559,10 @@
         <v>44879</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="80" spans="4:6" x14ac:dyDescent="0.3">
@@ -8464,10 +8570,10 @@
         <v>44880</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81" spans="4:6" x14ac:dyDescent="0.3">
@@ -8475,10 +8581,10 @@
         <v>44888</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82" spans="4:6" x14ac:dyDescent="0.3">
@@ -8486,10 +8592,10 @@
         <v>44890</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="83" spans="4:6" x14ac:dyDescent="0.3">
@@ -8497,10 +8603,10 @@
         <v>44892</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -8526,50 +8632,50 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C2" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>125</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>127</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -8577,21 +8683,21 @@
         <v>13</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C13" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -8633,16 +8739,16 @@
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:7" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8650,77 +8756,77 @@
         <v>2022</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>81</v>
-      </c>
       <c r="D5" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="216" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -8778,156 +8884,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="73" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>376</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>379</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="H1" s="73" t="s">
         <v>379</v>
-      </c>
-      <c r="F1" s="74" t="s">
-        <v>382</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="H1" s="74" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="2" spans="4:8" ht="331.2" x14ac:dyDescent="0.3">
       <c r="D2" s="41" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E2" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="G2" s="40" t="s">
         <v>378</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>381</v>
       </c>
       <c r="H2" s="40"/>
     </row>
     <row r="3" spans="4:8" ht="331.2" x14ac:dyDescent="0.3">
       <c r="D3" s="41" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="4:8" ht="360" x14ac:dyDescent="0.3">
       <c r="D4" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="G4" s="40" t="s">
         <v>394</v>
       </c>
-      <c r="E4" s="40" t="s">
-        <v>395</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>433</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>397</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="4:8" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="4:8" ht="266.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6" s="41" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="4:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="D7" s="41" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="4:8" ht="201.6" x14ac:dyDescent="0.3">
       <c r="D8" s="41" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="4:8" ht="144" x14ac:dyDescent="0.3">
       <c r="D9" s="41" t="s">
+        <v>593</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>594</v>
+      </c>
+      <c r="F9" s="40" t="s">
         <v>604</v>
       </c>
-      <c r="E9" s="40" t="s">
-        <v>605</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>615</v>
-      </c>
       <c r="G9" s="6" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10" spans="4:8" ht="144" x14ac:dyDescent="0.3">
       <c r="D10" s="41" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -8962,7 +9068,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -8970,7 +9076,7 @@
         <v>44774</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
@@ -9019,7 +9125,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="9"/>
     </row>
@@ -9028,10 +9134,10 @@
         <v>44779</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="10"/>
     </row>
@@ -9040,10 +9146,10 @@
         <v>44780</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="10"/>
     </row>
@@ -9052,10 +9158,10 @@
         <v>44781</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="10"/>
     </row>
@@ -9065,7 +9171,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" s="10"/>
     </row>
@@ -9075,7 +9181,7 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" s="10"/>
     </row>
@@ -9085,7 +9191,7 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="10"/>
     </row>
@@ -9095,7 +9201,7 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="9"/>
     </row>
@@ -9105,7 +9211,7 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="10"/>
     </row>
@@ -9115,7 +9221,7 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18" s="10"/>
     </row>
@@ -9125,7 +9231,7 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F19" s="10"/>
     </row>
@@ -9135,7 +9241,7 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="10"/>
     </row>
@@ -9145,7 +9251,7 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="10"/>
     </row>
@@ -9155,7 +9261,7 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F22" s="10"/>
     </row>
@@ -9165,7 +9271,7 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F23" s="10"/>
     </row>
@@ -9175,7 +9281,7 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" s="9"/>
     </row>
@@ -9185,7 +9291,7 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F25" s="9"/>
     </row>
@@ -9195,7 +9301,7 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F26" s="9"/>
     </row>
@@ -9205,7 +9311,7 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F27" s="9">
         <v>0</v>
@@ -9217,7 +9323,7 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F28" s="9">
         <v>0</v>
@@ -9229,7 +9335,7 @@
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F29" s="9">
         <v>1</v>
@@ -9241,7 +9347,7 @@
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F30" s="9">
         <v>1</v>
@@ -9253,7 +9359,7 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F31" s="9">
         <v>2</v>
@@ -9265,7 +9371,7 @@
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F32" s="9">
         <v>2</v>
@@ -9277,7 +9383,7 @@
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F33" s="9">
         <v>2</v>
@@ -9289,7 +9395,7 @@
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F34" s="9">
         <v>1</v>
@@ -9301,7 +9407,7 @@
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F35" s="9">
         <v>1</v>
@@ -9335,16 +9441,16 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="4:8" ht="72" x14ac:dyDescent="0.3">
@@ -9352,11 +9458,11 @@
         <v>44805</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H5" s="10">
         <v>1</v>
@@ -9367,11 +9473,11 @@
         <v>44806</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H6" s="9">
         <v>2</v>
@@ -9382,11 +9488,11 @@
         <v>44807</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H7" s="9">
         <v>2</v>
@@ -9397,11 +9503,11 @@
         <v>44808</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H8" s="9">
         <v>2</v>
@@ -9412,11 +9518,11 @@
         <v>44809</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H9" s="9">
         <v>1</v>
@@ -9427,11 +9533,11 @@
         <v>44810</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H10" s="9">
         <v>1</v>
@@ -9442,7 +9548,7 @@
         <v>44811</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
@@ -9455,11 +9561,11 @@
         <v>44812</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H12" s="9">
         <v>2</v>
@@ -9470,7 +9576,7 @@
         <v>44813</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
@@ -9483,11 +9589,11 @@
         <v>44814</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H14" s="9">
         <v>2</v>
@@ -9498,11 +9604,11 @@
         <v>44815</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H15" s="9">
         <v>2</v>
@@ -9513,11 +9619,11 @@
         <v>44816</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H16" s="9">
         <v>2</v>
@@ -9528,11 +9634,11 @@
         <v>44817</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H17" s="9">
         <v>2</v>
@@ -9543,11 +9649,11 @@
         <v>44818</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H18" s="9">
         <v>1</v>
@@ -9558,11 +9664,11 @@
         <v>44819</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H19" s="9">
         <v>0</v>
@@ -9573,11 +9679,11 @@
         <v>44820</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H20" s="9">
         <v>2</v>
@@ -9588,7 +9694,7 @@
         <v>44821</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="17"/>
@@ -9601,7 +9707,7 @@
         <v>44822</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="17"/>
@@ -9614,11 +9720,11 @@
         <v>44823</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H23" s="9">
         <v>1</v>
@@ -9629,11 +9735,11 @@
         <v>44824</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H24" s="9">
         <v>1</v>
@@ -9644,11 +9750,11 @@
         <v>44825</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H25" s="9">
         <v>2</v>
@@ -9659,11 +9765,11 @@
         <v>44826</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H26" s="9">
         <v>2</v>
@@ -9674,11 +9780,11 @@
         <v>44827</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H27" s="9">
         <v>1</v>
@@ -9689,11 +9795,11 @@
         <v>44828</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H28" s="9">
         <v>2</v>
@@ -9704,65 +9810,65 @@
         <v>44829</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H29" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B30" s="81" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" s="81" t="s">
-        <v>156</v>
+      <c r="B30" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="80" t="s">
+        <v>153</v>
       </c>
       <c r="D30" s="8">
         <v>44830</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H30" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
       <c r="D31" s="8">
         <v>44831</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H31" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
       <c r="D32" s="8">
         <v>44832</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="9">
@@ -9770,34 +9876,34 @@
       </c>
     </row>
     <row r="33" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
       <c r="D33" s="8">
         <v>44833</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="2:8" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
       <c r="D34" s="8">
         <v>44834</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H34" s="9">
         <v>1</v>

--- a/4_Daily Schedule/Daily_Schedule_2022.xlsx
+++ b/4_Daily Schedule/Daily_Schedule_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adponlineind-my.sharepoint.com/personal/gangigua_es_ad_adp_com/Documents/Documents/2022/Amar_2022/4_Daily Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2310" documentId="13_ncr:1_{37DFCD91-C40D-4851-A7FF-D1781FDB40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B84DEC7D-7FBB-4777-8B07-2633FCD32408}"/>
+  <xr:revisionPtr revIDLastSave="2378" documentId="13_ncr:1_{37DFCD91-C40D-4851-A7FF-D1781FDB40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64EF944D-469E-456D-B307-91F2FC93C74A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principles" sheetId="2" r:id="rId1"/>
@@ -23,11 +23,13 @@
     <sheet name="August" sheetId="1" state="hidden" r:id="rId8"/>
     <sheet name="September" sheetId="5" state="hidden" r:id="rId9"/>
     <sheet name="October" sheetId="10" state="hidden" r:id="rId10"/>
-    <sheet name="November" sheetId="12" r:id="rId11"/>
+    <sheet name="November" sheetId="12" state="hidden" r:id="rId11"/>
+    <sheet name="December" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Family_Dates!$D$2:$F$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Network!$I$13:$K$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">November!$F$1:$I$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">October!$H$3:$L$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">September!$D$4:$H$34</definedName>
   </definedNames>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="649">
   <si>
     <t>Date</t>
   </si>
@@ -2428,10 +2430,6 @@
 Newsletters</t>
   </si>
   <si>
-    <t xml:space="preserve">HP
-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2461,6 +2459,314 @@
     </r>
   </si>
   <si>
+    <t>Scaler - upto date
+Java AB - Progressing well
+Revision done
+Focus Areas:
+1. Weekly check hoslistically
+2. 2 sites for problem solving - 1 hr daily
+3. Scaler contest follow up
+Work:
+1. Complete ownership
+2. SDE,SSL functionality</t>
+  </si>
+  <si>
+    <t>Focus Areas - to start, to stop</t>
+  </si>
+  <si>
+    <t>1. Complete Java - AB
+2. 2 X 2 - 2 sites , 2 problems
+3. Revisit Scaler Problems
+Read,write,watch : Complete top 3 tasks weekly
+Work:
+1. Complete ownership
+2. SDE,SSL functionality</t>
+  </si>
+  <si>
+    <t>1. To start: Problem solving in other sites
+2. To stop: HP
+3. To maintain: morning routine</t>
+  </si>
+  <si>
+    <t>Java AB IO
+Scaler HW
+Weekly progress
+Cricket
+LinkedIn</t>
+  </si>
+  <si>
+    <t>WFN-IH integration
+SFSF regression</t>
+  </si>
+  <si>
+    <t>LinkedIn
+saying NO
+Scaler class</t>
+  </si>
+  <si>
+    <t>Scaler AM</t>
+  </si>
+  <si>
+    <t>Reopen testing
+iHUB session</t>
+  </si>
+  <si>
+    <t>Scaler HW
+Java AB
+Scaler class</t>
+  </si>
+  <si>
+    <t>Scaler AM , HW</t>
+  </si>
+  <si>
+    <t>Test evidence doc
+perf results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waking up
+</t>
+  </si>
+  <si>
+    <t>Java AB
+Scaler HW
+Scaler class
+scaler contest 1,2
+movie - sardar</t>
+  </si>
+  <si>
+    <t>java AB
+Breakfast - Panchakattu dosa
+isha - guru interview
+Satish - cradle ceremony</t>
+  </si>
+  <si>
+    <t>Write/Read</t>
+  </si>
+  <si>
+    <t>Focus Areas:
+1. Weekly check hoslistically
+2. 2 sites for problem solving - 1 hr daily
+3. Scaler contest follow up</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Nov 20 - 26</t>
+  </si>
+  <si>
+    <t>Scaler
+Java AB 
+Focus Areas:
+1. Weekly check hoslistically
+2. 2 sites for problem solving - 1 hr daily
+3. Scaler contest follow up
+Watch
+Scaler POD</t>
+  </si>
+  <si>
+    <t>Java AB</t>
+  </si>
+  <si>
+    <t>Kurnool
+Java AB</t>
+  </si>
+  <si>
+    <t>Scaler Class
+Inter friends</t>
+  </si>
+  <si>
+    <t>Scaler class - 2
+Café niloufer</t>
+  </si>
+  <si>
+    <t>Scaler AM, HW
+Scaler POD</t>
+  </si>
+  <si>
+    <t>Java AB
+Scaler class - sorting 2
+Scaler contest 1
+Guru interview
+Movie Kantara
+Hospital</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>Contests and problem solving needs to be started
+Workout to be started
+Journal writing to be maintained</t>
+  </si>
+  <si>
+    <t>2. 2 sites for problem solving - 1 hr daily
+3. Scaler contest follow up
+Journal writing to be maintained</t>
+  </si>
+  <si>
+    <t>Nov 27 - Dec 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scaler
+Java AB 
+Focus Areas:
+1. 2 sites for problem solving - 1 hr daily
+2. Scaler contest follow up
+3. Revision Adv DSA
+Watch
+</t>
+  </si>
+  <si>
+    <t>Java AB
+Dmart
+Movie Kantara
+Scaler contest 2,3</t>
+  </si>
+  <si>
+    <t>HP - 2</t>
+  </si>
+  <si>
+    <t>Proper rest - breaks every hour, sleep, short walks</t>
+  </si>
+  <si>
+    <t>Million things are going right around you to allow you to do whatever you want</t>
+  </si>
+  <si>
+    <t>Rice takes 3-4 months to grow, 10 min to consume, Better value things before you lose them</t>
+  </si>
+  <si>
+    <t>Gathering - knowledge,books</t>
+  </si>
+  <si>
+    <t>Start execution, learn + apply + fail repeat</t>
+  </si>
+  <si>
+    <t>Uncertain -&gt; complex thoughts</t>
+  </si>
+  <si>
+    <t>short term thinking - pop up items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will it be a learning for next 5-10 years ?
+Plan, replan - prioritize </t>
+  </si>
+  <si>
+    <t>Go slowly but not backward - step by step, ferociously</t>
+  </si>
+  <si>
+    <t>Give Time utmost importance</t>
+  </si>
+  <si>
+    <t>Face them first with more energy</t>
+  </si>
+  <si>
+    <t>HP - isolation, long use of phone, repeating stuff or boreout,  place</t>
+  </si>
+  <si>
+    <t>Having Unwavering faith + Brutal facts of reality &gt; Dreams</t>
+  </si>
+  <si>
+    <t>Java AB
+Scaler Prob solving session
+Scaler AM</t>
+  </si>
+  <si>
+    <t>Scaler AM, HW
+Scaler class - sorting 3
+Java AB</t>
+  </si>
+  <si>
+    <t>Strengths</t>
+  </si>
+  <si>
+    <t>More of mind, energy</t>
+  </si>
+  <si>
+    <t>problem solving, driving, games</t>
+  </si>
+  <si>
+    <t>Use cases</t>
+  </si>
+  <si>
+    <t>HP, Emotion</t>
+  </si>
+  <si>
+    <t>Organized, data gathering</t>
+  </si>
+  <si>
+    <t>Java AB
+Scaler AM, HW</t>
+  </si>
+  <si>
+    <t>Scaler class - BS 1
+Scaler AM, HW
+Java AB
+Read</t>
+  </si>
+  <si>
+    <t>Auto closure Demo
+WFN - iH testing</t>
+  </si>
+  <si>
+    <t>Waking up
+Exericise</t>
+  </si>
+  <si>
+    <t>WFN IH testing</t>
+  </si>
+  <si>
+    <t>Scaler AM, HW
+Home chores</t>
+  </si>
+  <si>
+    <t>Scaler class - BS 2
+Scaler AM, HW
+Movie - Hit2
+Read</t>
+  </si>
+  <si>
+    <t>Waking up
+Exercise
+Java AB</t>
+  </si>
+  <si>
+    <t>Scaler, AM, HW
+Scaler contest 1,2,3
+Weekly progress</t>
+  </si>
+  <si>
+    <t>Maintenance work</t>
+  </si>
+  <si>
+    <t>Dec 4 - Dec 10</t>
+  </si>
+  <si>
+    <t>Focus Areas:
+1. 2 sites for problem solving - 1 hr daily
+2. Scaler contest follow up
+3. Revision Adv DSA
+Start:
+1. Exercise
+Don’t miss:
+Waking up
+Java AB</t>
+  </si>
+  <si>
+    <t>1. WFN IH client user
+2. View comment
+3. Date Filters 
+4. File mapping error
+5. Reopen - Functional, Performance</t>
+  </si>
+  <si>
+    <t>Java - AB progressing
+Scaler upto date
+Contests and problem solving needs to be started
+20 days - 2
+10 days - 1</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2481,7 +2787,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Full-stack Developer
+Speciaized Architect
 Work-Leadership skills, Impactful work
 CTC rise, investments
 Write/Content Creation frequently
@@ -2489,249 +2795,42 @@
     </r>
   </si>
   <si>
-    <t>Scaler - upto date
-Java AB - Progressing well
-Revision done
-Focus Areas:
-1. Weekly check hoslistically
-2. 2 sites for problem solving - 1 hr daily
-3. Scaler contest follow up
-Work:
-1. Complete ownership
-2. SDE,SSL functionality</t>
-  </si>
-  <si>
-    <t>Focus Areas - to start, to stop</t>
+    <t xml:space="preserve">HP
+Social Media in limits
+</t>
   </si>
   <si>
     <t>1. Complete Java - AB
 2. 2 X 2 - 2 sites , 2 problems
-3. Revisit Scaler Problems
+3. Revisit Scaler, Java AB
 Read,write,watch : Complete top 3 tasks weekly
 Work:
 1. Complete ownership
 2. SDE,SSL functionality</t>
   </si>
   <si>
-    <t>1. To start: Problem solving in other sites
-2. To stop: HP
-3. To maintain: morning routine</t>
-  </si>
-  <si>
-    <t>Java AB IO
-Scaler HW
-Weekly progress
-Cricket
-LinkedIn</t>
-  </si>
-  <si>
-    <t>WFN-IH integration
-SFSF regression</t>
-  </si>
-  <si>
-    <t>LinkedIn
-saying NO
-Scaler class</t>
-  </si>
-  <si>
-    <t>Scaler AM</t>
-  </si>
-  <si>
-    <t>Reopen testing
-iHUB session</t>
-  </si>
-  <si>
-    <t>Scaler HW
-Java AB
-Scaler class</t>
-  </si>
-  <si>
-    <t>Scaler AM , HW</t>
-  </si>
-  <si>
-    <t>Test evidence doc
-perf results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waking up
+    <t>Java AB
+Scaler AM, HW
+Read
+Movie Love Today</t>
+  </si>
+  <si>
+    <t>WFN IH data setup
+Auto closure data
+Reopen testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exercise
 </t>
   </si>
   <si>
-    <t>Java AB
-Scaler HW
-Scaler class
-scaler contest 1,2
-movie - sardar</t>
-  </si>
-  <si>
-    <t>java AB
-Breakfast - Panchakattu dosa
-isha - guru interview
-Satish - cradle ceremony</t>
-  </si>
-  <si>
-    <t>Write/Read</t>
-  </si>
-  <si>
-    <t>Focus Areas:
-1. Weekly check hoslistically
-2. 2 sites for problem solving - 1 hr daily
-3. Scaler contest follow up</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Nov 20 - 26</t>
-  </si>
-  <si>
-    <t>Scaler
-Java AB 
-Focus Areas:
-1. Weekly check hoslistically
-2. 2 sites for problem solving - 1 hr daily
-3. Scaler contest follow up
-Watch
-Scaler POD</t>
-  </si>
-  <si>
-    <t>Java AB</t>
-  </si>
-  <si>
-    <t>Kurnool
-Java AB</t>
-  </si>
-  <si>
-    <t>Scaler Class
-Inter friends</t>
-  </si>
-  <si>
-    <t>Scaler class - 2
-Café niloufer</t>
-  </si>
-  <si>
-    <t>Scaler AM, HW
-Scaler POD</t>
-  </si>
-  <si>
-    <t>Java AB
-Scaler class - sorting 2
-Scaler contest 1
-Guru interview
-Movie Kantara
-Hospital</t>
-  </si>
-  <si>
-    <t>Java - AB progressing
-Scaler upto date
-Contests and problem solving needs to be started</t>
-  </si>
-  <si>
-    <t>Vacation</t>
-  </si>
-  <si>
-    <t>Contests and problem solving needs to be started
-Workout to be started
-Journal writing to be maintained</t>
-  </si>
-  <si>
-    <t>2. 2 sites for problem solving - 1 hr daily
-3. Scaler contest follow up
-Journal writing to be maintained</t>
-  </si>
-  <si>
-    <t>Nov 27 - Dec 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scaler
-Java AB 
-Focus Areas:
-1. 2 sites for problem solving - 1 hr daily
-2. Scaler contest follow up
-3. Revision Adv DSA
-Watch
+    <t xml:space="preserve">Java AB
+Scaler Class
 </t>
   </si>
   <si>
-    <t>Java AB
-Dmart
-Movie Kantara
-Scaler contest 2,3</t>
-  </si>
-  <si>
-    <t>HP - 2</t>
-  </si>
-  <si>
-    <t>Proper rest - breaks every hour, sleep, short walks</t>
-  </si>
-  <si>
-    <t>Million things are going right around you to allow you to do whatever you want</t>
-  </si>
-  <si>
-    <t>Rice takes 3-4 months to grow, 10 min to consume, Better value things before you lose them</t>
-  </si>
-  <si>
-    <t>Gathering - knowledge,books</t>
-  </si>
-  <si>
-    <t>Start execution, learn + apply + fail repeat</t>
-  </si>
-  <si>
-    <t>Uncertain -&gt; complex thoughts</t>
-  </si>
-  <si>
-    <t>short term thinking - pop up items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Will it be a learning for next 5-10 years ?
-Plan, replan - prioritize </t>
-  </si>
-  <si>
-    <t>Go slowly but not backward - step by step, ferociously</t>
-  </si>
-  <si>
-    <t>Give Time utmost importance</t>
-  </si>
-  <si>
-    <t>Face them first with more energy</t>
-  </si>
-  <si>
-    <t>HP - isolation, long use of phone, repeating stuff or boreout,  place</t>
-  </si>
-  <si>
-    <t>Having Unwavering faith + Brutal facts of reality &gt; Dreams</t>
-  </si>
-  <si>
-    <t>Java AB
-Scaler Prob solving session
-Scaler AM</t>
-  </si>
-  <si>
-    <t>Scaler AM, HW
-Scaler class - sorting 3
-Java AB</t>
-  </si>
-  <si>
-    <t>Strengths</t>
-  </si>
-  <si>
-    <t>More of mind, energy</t>
-  </si>
-  <si>
-    <t>problem solving, driving, games</t>
-  </si>
-  <si>
-    <t>Use cases</t>
-  </si>
-  <si>
-    <t>HP, Emotion</t>
-  </si>
-  <si>
-    <t>Organized, data gathering</t>
-  </si>
-  <si>
-    <t>Java AB
-Scaler AM, HW</t>
+    <t>Prod issue
+Reopen items</t>
   </si>
 </sst>
 </file>
@@ -3574,7 +3673,7 @@
         <v>319</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H3" s="19">
         <v>2</v>
@@ -3597,7 +3696,7 @@
         <v>359</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H4" s="19">
         <v>3</v>
@@ -3617,10 +3716,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H5" s="22">
         <v>4</v>
@@ -3657,13 +3756,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D7" s="9">
         <v>6</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F7" s="17"/>
       <c r="H7" s="19">
@@ -3684,7 +3783,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F8" s="4"/>
       <c r="H8" s="19">
@@ -3759,7 +3858,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>439</v>
@@ -3768,7 +3867,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3791,7 +3890,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3820,7 +3919,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D16" s="19">
         <v>5</v>
@@ -3847,10 +3946,10 @@
         <v>6</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="4"/>
@@ -3877,10 +3976,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>624</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -3892,16 +3991,16 @@
         <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D20" s="19">
         <v>1</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -3911,7 +4010,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F21" s="17"/>
     </row>
@@ -4433,11 +4532,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0711C60-6686-40C5-A9B5-057F5E0CC9FE}">
   <dimension ref="E1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4673,7 +4772,7 @@
         <v>44879</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>549</v>
@@ -4688,10 +4787,10 @@
         <v>44880</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>364</v>
@@ -4705,10 +4804,10 @@
         <v>44881</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>364</v>
@@ -4722,7 +4821,7 @@
         <v>44882</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -4735,13 +4834,13 @@
         <v>44883</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>587</v>
       </c>
       <c r="I19" s="9">
         <v>1</v>
@@ -4752,7 +4851,7 @@
         <v>44884</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -4765,11 +4864,11 @@
         <v>44885</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I21" s="9">
         <v>2</v>
@@ -4780,7 +4879,7 @@
         <v>44886</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -4793,7 +4892,7 @@
         <v>44887</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -4806,7 +4905,7 @@
         <v>44888</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -4819,11 +4918,11 @@
         <v>44889</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I25" s="9">
         <v>2</v>
@@ -4834,11 +4933,11 @@
         <v>44890</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I26" s="9">
         <v>1</v>
@@ -4849,7 +4948,7 @@
         <v>44891</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -4862,11 +4961,11 @@
         <v>44892</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I28" s="9">
         <v>2</v>
@@ -4877,7 +4976,7 @@
         <v>44893</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -4890,7 +4989,7 @@
         <v>44894</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -4903,7 +5002,7 @@
         <v>44895</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4" t="s">
@@ -4912,6 +5011,367 @@
       <c r="I31" s="9">
         <v>2</v>
       </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="F1:I31" xr:uid="{B0711C60-6686-40C5-A9B5-057F5E0CC9FE}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5A071E-9330-4862-B422-922D31A2128F}">
+  <dimension ref="E1:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E2" s="72">
+        <v>44896</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>628</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="I2" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E3" s="72">
+        <v>44897</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>631</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E4" s="72">
+        <v>44898</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E5" s="72">
+        <v>44899</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="I5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E6" s="72">
+        <v>44900</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>644</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="I6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E7" s="72">
+        <v>44901</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E8" s="72">
+        <v>44902</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E9" s="72">
+        <v>44903</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E10" s="72">
+        <v>44904</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E11" s="72">
+        <v>44905</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E12" s="72">
+        <v>44906</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E13" s="72">
+        <v>44907</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E14" s="72">
+        <v>44908</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E15" s="72">
+        <v>44909</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E16" s="72">
+        <v>44910</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E17" s="72">
+        <v>44911</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E18" s="72">
+        <v>44912</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E19" s="72">
+        <v>44913</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E20" s="72">
+        <v>44914</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E21" s="72">
+        <v>44915</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E22" s="72">
+        <v>44916</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E23" s="72">
+        <v>44917</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E24" s="72">
+        <v>44918</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E25" s="72">
+        <v>44919</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E26" s="72">
+        <v>44920</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E27" s="72">
+        <v>44921</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E28" s="72">
+        <v>44922</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E29" s="72">
+        <v>44923</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E30" s="72">
+        <v>44924</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E31" s="72">
+        <v>44925</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E32" s="72">
+        <v>44926</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8719,8 +9179,8 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8739,13 +9199,13 @@
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:7" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
-        <v>574</v>
+        <v>641</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>572</v>
+        <v>642</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>142</v>
@@ -8762,7 +9222,7 @@
         <v>144</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8801,10 +9261,10 @@
         <v>398</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="144" x14ac:dyDescent="0.3">
@@ -8812,13 +9272,13 @@
         <v>77</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>601</v>
+        <v>640</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.3">
@@ -8826,7 +9286,7 @@
         <v>78</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>577</v>
+        <v>643</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -8864,12 +9324,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B184FA5-A01E-46CA-B492-1B3A7AECB7A5}">
-  <dimension ref="D1:H10"/>
+  <dimension ref="D1:H11"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9002,38 +9462,58 @@
         <v>571</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G8" s="40" t="s">
         <v>570</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="9" spans="4:8" ht="144" x14ac:dyDescent="0.3">
       <c r="D9" s="41" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="D10" s="41" t="s">
         <v>602</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" ht="144" x14ac:dyDescent="0.3">
-      <c r="D10" s="41" t="s">
-        <v>605</v>
-      </c>
       <c r="E10" s="40" t="s">
-        <v>606</v>
+        <v>603</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>638</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="D11" s="41" t="s">
+        <v>637</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>603</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>639</v>
       </c>
     </row>
   </sheetData>

--- a/4_Daily Schedule/Daily_Schedule_2022.xlsx
+++ b/4_Daily Schedule/Daily_Schedule_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adponlineind-my.sharepoint.com/personal/gangigua_es_ad_adp_com/Documents/Documents/2022/Amar_2022/4_Daily Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2378" documentId="13_ncr:1_{37DFCD91-C40D-4851-A7FF-D1781FDB40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64EF944D-469E-456D-B307-91F2FC93C74A}"/>
+  <xr:revisionPtr revIDLastSave="2416" documentId="13_ncr:1_{37DFCD91-C40D-4851-A7FF-D1781FDB40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FB1B077-8E4A-4E41-A0FD-E64DCB2B7CF8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="663">
   <si>
     <t>Date</t>
   </si>
@@ -2824,13 +2824,86 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Java AB
-Scaler Class
-</t>
-  </si>
-  <si>
     <t>Prod issue
 Reopen items</t>
+  </si>
+  <si>
+    <t>Java AB
+Scaler Class</t>
+  </si>
+  <si>
+    <t>Meetings
+FU - CGC Regression</t>
+  </si>
+  <si>
+    <t>Scaler AM, HW
+Reading
+Lunch-Arifa &amp; Co</t>
+  </si>
+  <si>
+    <t>Java AB
+Problem solving
+Scaler class
+Hindi</t>
+  </si>
+  <si>
+    <t>Scaler AM,HW
+Hindi
+Tiger Brother's marriage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java AB
+</t>
+  </si>
+  <si>
+    <t>WFN IHUB Prod testing</t>
+  </si>
+  <si>
+    <t>Don’t loop up, Don’t look down, Don’t play victim</t>
+  </si>
+  <si>
+    <t>Java AB
+Scaler class
+Scaler contest 1</t>
+  </si>
+  <si>
+    <t>Problem solving started
+To Do:
+1. Revision Adv DSA
+2. Scaler contest follow up
+3. Java AB Revise</t>
+  </si>
+  <si>
+    <t>Remaining:
+1. Reopen - Functional, Performance
+2. Date Filters</t>
+  </si>
+  <si>
+    <t>Dec 11 - Dec 17</t>
+  </si>
+  <si>
+    <t>Scaler
+Java AB
+Problem solving
+Revise Contests
+Focus Areas:
+1. Revision scaler
+2. Revision Java AB
+Watch: Google Roadmap
+Read: Saying NO, 50 economic ideas</t>
+  </si>
+  <si>
+    <t>Remaining:
+1. Reopen - Functional, Performance
+2. Date Filters
+3. One-One
+4. MyMoment</t>
+  </si>
+  <si>
+    <t>Java AB
+Scaler contest 2,3
+Scaler AM, HW
+Google video</t>
   </si>
 </sst>
 </file>
@@ -3595,7 +3668,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4004,8 +4077,12 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="19">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>655</v>
+      </c>
       <c r="D21" s="19">
         <v>2</v>
       </c>
@@ -5023,8 +5100,8 @@
   <dimension ref="E1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5133,65 +5210,93 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E7" s="72">
         <v>44901</v>
       </c>
       <c r="F7" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>647</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>648</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E8" s="72">
         <v>44902</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="F8" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="I8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E9" s="72">
         <v>44903</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="16" t="s">
+        <v>651</v>
+      </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I9" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E10" s="72">
         <v>44904</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="16" t="s">
+        <v>652</v>
+      </c>
       <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="H10" s="16" t="s">
+        <v>653</v>
+      </c>
+      <c r="I10" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E11" s="72">
         <v>44905</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="F11" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>654</v>
+      </c>
       <c r="H11" s="17"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I11" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E12" s="72">
         <v>44906</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="16" t="s">
+        <v>662</v>
+      </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="9"/>
+      <c r="I12" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E13" s="72">
@@ -9324,12 +9429,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B184FA5-A01E-46CA-B492-1B3A7AECB7A5}">
-  <dimension ref="D1:H11"/>
+  <dimension ref="D1:H12"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9512,8 +9617,25 @@
       <c r="E11" s="40" t="s">
         <v>603</v>
       </c>
+      <c r="F11" s="40" t="s">
+        <v>657</v>
+      </c>
       <c r="G11" s="40" t="s">
         <v>639</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="D12" s="41" t="s">
+        <v>659</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>660</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>661</v>
       </c>
     </row>
   </sheetData>

--- a/4_Daily Schedule/Daily_Schedule_2022.xlsx
+++ b/4_Daily Schedule/Daily_Schedule_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adponlineind-my.sharepoint.com/personal/gangigua_es_ad_adp_com/Documents/Documents/2022/Amar_2022/4_Daily Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2416" documentId="13_ncr:1_{37DFCD91-C40D-4851-A7FF-D1781FDB40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FB1B077-8E4A-4E41-A0FD-E64DCB2B7CF8}"/>
+  <xr:revisionPtr revIDLastSave="2593" documentId="13_ncr:1_{37DFCD91-C40D-4851-A7FF-D1781FDB40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2A41B89-663A-4592-A85D-96312AFDC39F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principles" sheetId="2" r:id="rId1"/>
@@ -20,18 +20,19 @@
     <sheet name="Later" sheetId="6" r:id="rId5"/>
     <sheet name="Monthly_check" sheetId="4" r:id="rId6"/>
     <sheet name="Weekly_check" sheetId="11" r:id="rId7"/>
-    <sheet name="August" sheetId="1" state="hidden" r:id="rId8"/>
-    <sheet name="September" sheetId="5" state="hidden" r:id="rId9"/>
-    <sheet name="October" sheetId="10" state="hidden" r:id="rId10"/>
-    <sheet name="November" sheetId="12" state="hidden" r:id="rId11"/>
-    <sheet name="December" sheetId="13" r:id="rId12"/>
+    <sheet name="January" sheetId="14" r:id="rId8"/>
+    <sheet name="August" sheetId="1" state="hidden" r:id="rId9"/>
+    <sheet name="September" sheetId="5" state="hidden" r:id="rId10"/>
+    <sheet name="October" sheetId="10" state="hidden" r:id="rId11"/>
+    <sheet name="November" sheetId="12" state="hidden" r:id="rId12"/>
+    <sheet name="December" sheetId="13" state="hidden" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Family_Dates!$D$2:$F$83</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Network!$I$13:$K$94</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">November!$F$1:$I$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">October!$H$3:$L$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">September!$D$4:$H$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Network!$I$13:$K$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">November!$F$1:$I$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">October!$H$3:$L$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">September!$D$4:$H$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="702">
   <si>
     <t>Date</t>
   </si>
@@ -653,9 +654,6 @@
   <si>
     <t>Java AB
 Waking up, sleeping before 11:30</t>
-  </si>
-  <si>
-    <t>Don’t waste : Time, Energy, Attention</t>
   </si>
   <si>
     <t>Act/Tasks based on current state of the mind - gross, subtle</t>
@@ -2270,21 +2268,6 @@
 Read, Write</t>
   </si>
   <si>
-    <t>Isha</t>
-  </si>
-  <si>
-    <t>Programs</t>
-  </si>
-  <si>
-    <t>Consecrated</t>
-  </si>
-  <si>
-    <t>Donations</t>
-  </si>
-  <si>
-    <t>Time spent</t>
-  </si>
-  <si>
     <t>Scaler class - Bit 2
 Java AB - revise
 LinkedIn write
@@ -2341,12 +2324,6 @@
     <t>Java AB
 Scaler AM, HW
 House of dosas</t>
-  </si>
-  <si>
-    <t>Sessions</t>
-  </si>
-  <si>
-    <t>Flights+shopping</t>
   </si>
   <si>
     <t>Scaler class
@@ -2859,9 +2836,6 @@
     <t>WFN IHUB Prod testing</t>
   </si>
   <si>
-    <t>Don’t loop up, Don’t look down, Don’t play victim</t>
-  </si>
-  <si>
     <t>Java AB
 Scaler class
 Scaler contest 1</t>
@@ -2904,6 +2878,171 @@
 Scaler contest 2,3
 Scaler AM, HW
 Google video</t>
+  </si>
+  <si>
+    <t>Revision - DSA Adv
+Scaler HW
+Pest control</t>
+  </si>
+  <si>
+    <t>Celergo user creation</t>
+  </si>
+  <si>
+    <t>Scaler DSA Revision
+Scaler class 
+Problem Solving</t>
+  </si>
+  <si>
+    <t>Scaler adv revision</t>
+  </si>
+  <si>
+    <t>Don’t look up, Don’t look down, Don’t play victim</t>
+  </si>
+  <si>
+    <t>Don’t waste : Time, Energy, Attention, Integrity</t>
+  </si>
+  <si>
+    <t>Learning</t>
+  </si>
+  <si>
+    <t>Immediate Expenses</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>D2I</t>
+  </si>
+  <si>
+    <t>Scaler recording</t>
+  </si>
+  <si>
+    <t>Pipeline meeting
+Q3 features meeting</t>
+  </si>
+  <si>
+    <t>Reopen testing
+Perf stats for closed messages</t>
+  </si>
+  <si>
+    <t>FAMILY</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Rao Pedhanaana</t>
+  </si>
+  <si>
+    <t>Padma pedhamma</t>
+  </si>
+  <si>
+    <t>Yashu
+Sudha</t>
+  </si>
+  <si>
+    <t>Sudha</t>
+  </si>
+  <si>
+    <t>Vani Atha</t>
+  </si>
+  <si>
+    <t>Ranganatham</t>
+  </si>
+  <si>
+    <t>Sravi</t>
+  </si>
+  <si>
+    <t>GV Rao Babai</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>Kistanna thaatha</t>
+  </si>
+  <si>
+    <t>Padma
+Srinivas T</t>
+  </si>
+  <si>
+    <t>Babu mavayya</t>
+  </si>
+  <si>
+    <t>Sirisha</t>
+  </si>
+  <si>
+    <t>pedhanaana</t>
+  </si>
+  <si>
+    <t>Cousins</t>
+  </si>
+  <si>
+    <t>hemanth
+Mohan</t>
+  </si>
+  <si>
+    <t>Reopen testing - Performance</t>
+  </si>
+  <si>
+    <t>Scaler recording
+Scaler problems</t>
+  </si>
+  <si>
+    <t>Scaler recording
+Scaler class</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/D-Link-DIR-825-Dual-Band-Gigabit-Router/dp/B078L5J7G1/ref=asc_df_B078L5J7G1/?tag=googleshopdes-21&amp;linkCode=df0&amp;hvadid=396985973511&amp;hvpos=&amp;hvnetw=g&amp;hvrand=14444461617105573477&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=1007740&amp;hvtargid=pla-404895146134&amp;psc=1&amp;ext_vrnc=hi</t>
+  </si>
+  <si>
+    <t>D link router</t>
+  </si>
+  <si>
+    <t>Swapnil Bandiwadekar</t>
+  </si>
+  <si>
+    <t>Full stack</t>
+  </si>
+  <si>
+    <t>Scaler - peers</t>
+  </si>
+  <si>
+    <t>Reopen - FT2 datasetup - close error
+closed by : Autoclose testing</t>
+  </si>
+  <si>
+    <t>Scaler problems
+Scaler class</t>
+  </si>
+  <si>
+    <t>Chanakya-Ravi kiran G</t>
+  </si>
+  <si>
+    <t>Scaler problems
+Hindi
+Book reading</t>
+  </si>
+  <si>
+    <t>Gratitude for</t>
+  </si>
+  <si>
+    <t>Focus Area</t>
+  </si>
+  <si>
+    <t>Recursion,LinkedList,Trees
+Thought process + involvement</t>
+  </si>
+  <si>
+    <t>Scaler problems
+Scaler class
+Hindi
+Reading
+Scaler contest 1,2</t>
+  </si>
+  <si>
+    <t>All those who are supporting to make my life possible
+people who are working towards others well being</t>
   </si>
 </sst>
 </file>
@@ -2941,7 +3080,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3032,14 +3171,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF5050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -3171,12 +3304,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3276,19 +3504,10 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3357,8 +3576,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3377,6 +3626,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3668,7 +3953,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3691,16 +3976,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D1" s="42" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>1</v>
@@ -3714,16 +3999,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D2" s="19">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2" s="19">
         <v>1</v>
@@ -3737,16 +4022,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D3" s="19">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="H3" s="19">
         <v>2</v>
@@ -3760,16 +4045,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D4" s="19">
         <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="H4" s="19">
         <v>3</v>
@@ -3783,22 +4068,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D5" s="19">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="H5" s="22">
         <v>4</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -3806,22 +4091,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D6" s="9">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H6" s="19">
         <v>5</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3829,13 +4114,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="D7" s="9">
         <v>6</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F7" s="17"/>
       <c r="H7" s="19">
@@ -3850,20 +4135,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D8" s="19">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F8" s="4"/>
       <c r="H8" s="19">
         <v>7</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3891,10 +4176,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3908,16 +4193,16 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -3931,16 +4216,16 @@
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H13" s="19">
         <v>1</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3948,22 +4233,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>138</v>
+        <v>659</v>
       </c>
       <c r="D14" s="19">
         <v>3</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H14" s="19">
         <v>2</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3977,14 +4262,14 @@
         <v>4</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F15" s="4"/>
       <c r="H15" s="19">
         <v>3</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3992,20 +4277,20 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="D16" s="19">
         <v>5</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F16" s="4"/>
       <c r="H16" s="19">
         <v>4</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4013,16 +4298,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D17" s="19">
         <v>6</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="4"/>
@@ -4032,7 +4317,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="4"/>
@@ -4042,17 +4327,17 @@
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -4064,16 +4349,16 @@
         <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="D20" s="19">
         <v>1</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4081,13 +4366,13 @@
         <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="D21" s="19">
         <v>2</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="F21" s="17"/>
     </row>
@@ -4120,6 +4405,507 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB56A91C-BB34-4FBE-9778-8C93E26D0355}">
+  <dimension ref="B4:H34"/>
+  <sheetViews>
+    <sheetView topLeftCell="B30" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="47.21875" customWidth="1"/>
+    <col min="3" max="3" width="43.5546875" customWidth="1"/>
+    <col min="5" max="6" width="30.5546875" customWidth="1"/>
+    <col min="7" max="7" width="31.5546875" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="D5" s="8">
+        <v>44805</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D6" s="8">
+        <v>44806</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D7" s="8">
+        <v>44807</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D8" s="8">
+        <v>44808</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="D9" s="8">
+        <v>44809</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D10" s="8">
+        <v>44810</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D11" s="8">
+        <v>44811</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D12" s="8">
+        <v>44812</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D13" s="8">
+        <v>44813</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D14" s="8">
+        <v>44814</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D15" s="8">
+        <v>44815</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D16" s="8">
+        <v>44816</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D17" s="8">
+        <v>44817</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D18" s="8">
+        <v>44818</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D19" s="8">
+        <v>44819</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D20" s="8">
+        <v>44820</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D21" s="8">
+        <v>44821</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="D22" s="8">
+        <v>44822</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D23" s="8">
+        <v>44823</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D24" s="8">
+        <v>44824</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D25" s="8">
+        <v>44825</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D26" s="8">
+        <v>44826</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="8">
+        <v>44827</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="72" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="8">
+        <v>44828</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="8">
+        <v>44829</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B30" s="87" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="8">
+        <v>44830</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="8">
+        <v>44831</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="8">
+        <v>44832</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="8">
+        <v>44833</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="2:8" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="8">
+        <v>44834</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="H34" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="D4:H34" xr:uid="{AB56A91C-BB34-4FBE-9778-8C93E26D0355}"/>
+  <mergeCells count="2">
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="B30:B34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C650BB2-D140-403B-8898-95FB90824DA8}">
   <dimension ref="C3:L34"/>
   <sheetViews>
@@ -4139,10 +4925,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>91</v>
@@ -4156,11 +4942,11 @@
         <v>44835</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L4" s="10">
         <v>1</v>
@@ -4171,11 +4957,11 @@
         <v>44836</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L5" s="9">
         <v>2</v>
@@ -4186,11 +4972,11 @@
         <v>44837</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L6" s="9">
         <v>2</v>
@@ -4201,11 +4987,11 @@
         <v>44838</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L7" s="9">
         <v>2</v>
@@ -4216,11 +5002,11 @@
         <v>44839</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L8" s="9">
         <v>1</v>
@@ -4231,11 +5017,11 @@
         <v>44840</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L9" s="9">
         <v>1</v>
@@ -4246,13 +5032,13 @@
         <v>44841</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L10" s="9">
         <v>2</v>
@@ -4263,11 +5049,11 @@
         <v>44842</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L11" s="9">
         <v>2</v>
@@ -4278,11 +5064,11 @@
         <v>44843</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L12" s="9">
         <v>2</v>
@@ -4293,10 +5079,10 @@
         <v>44844</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="9">
@@ -4308,10 +5094,10 @@
         <v>44845</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K14" s="17"/>
       <c r="L14" s="9">
@@ -4323,10 +5109,10 @@
         <v>44846</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K15" s="17"/>
       <c r="L15" s="9">
@@ -4338,7 +5124,7 @@
         <v>44847</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
@@ -4351,10 +5137,10 @@
         <v>44848</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K17" s="17"/>
       <c r="L17" s="9">
@@ -4366,7 +5152,7 @@
         <v>44849</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
@@ -4380,7 +5166,7 @@
         <v>44850</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
@@ -4394,10 +5180,10 @@
         <v>44851</v>
       </c>
       <c r="I20" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="J20" s="17" t="s">
         <v>432</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>433</v>
       </c>
       <c r="K20" s="17"/>
       <c r="L20" s="9">
@@ -4409,10 +5195,10 @@
         <v>44852</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K21" s="17"/>
       <c r="L21" s="9">
@@ -4424,10 +5210,10 @@
         <v>44853</v>
       </c>
       <c r="I22" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="J22" s="16" t="s">
         <v>441</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>442</v>
       </c>
       <c r="K22" s="17"/>
       <c r="L22" s="9">
@@ -4439,10 +5225,10 @@
         <v>44854</v>
       </c>
       <c r="I23" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="J23" s="16" t="s">
         <v>444</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>445</v>
       </c>
       <c r="K23" s="17"/>
       <c r="L23" s="9">
@@ -4454,10 +5240,10 @@
         <v>44855</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K24" s="17"/>
       <c r="L24" s="9">
@@ -4469,7 +5255,7 @@
         <v>44856</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
@@ -4482,7 +5268,7 @@
         <v>44857</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
@@ -4495,7 +5281,7 @@
         <v>44858</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
@@ -4508,7 +5294,7 @@
         <v>44859</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
@@ -4521,10 +5307,10 @@
         <v>44860</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K29" s="17"/>
       <c r="L29" s="9">
@@ -4536,7 +5322,7 @@
         <v>44861</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
@@ -4549,7 +5335,7 @@
         <v>44862</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
@@ -4562,7 +5348,7 @@
         <v>44863</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
@@ -4575,7 +5361,7 @@
         <v>44864</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
@@ -4588,10 +5374,10 @@
         <v>44865</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K34" s="17"/>
       <c r="L34" s="9">
@@ -4605,7 +5391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0711C60-6686-40C5-A9B5-057F5E0CC9FE}">
   <dimension ref="E1:I31"/>
   <sheetViews>
@@ -4631,121 +5417,121 @@
         <v>0</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="I1" s="70" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E2" s="72">
+      <c r="E2" s="69">
         <v>44866</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>524</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>525</v>
       </c>
       <c r="I2" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E3" s="72">
+      <c r="E3" s="69">
         <v>44867</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>529</v>
       </c>
       <c r="I3" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E4" s="72">
+      <c r="E4" s="69">
         <v>44868</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I4" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E5" s="72">
+      <c r="E5" s="69">
         <v>44869</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I5" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E6" s="72">
+      <c r="E6" s="69">
         <v>44870</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="I6" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E7" s="72">
+      <c r="E7" s="69">
         <v>44871</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="I7" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E8" s="72">
+      <c r="E8" s="69">
         <v>44872</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="9">
@@ -4753,14 +5539,14 @@
       </c>
     </row>
     <row r="9" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E9" s="72">
+      <c r="E9" s="69">
         <v>44873</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="9">
@@ -4768,14 +5554,14 @@
       </c>
     </row>
     <row r="10" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E10" s="72">
+      <c r="E10" s="69">
         <v>44874</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="9">
@@ -4783,76 +5569,76 @@
       </c>
     </row>
     <row r="11" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E11" s="72">
+      <c r="E11" s="69">
         <v>44875</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="3" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="I11" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E12" s="72">
+      <c r="E12" s="69">
         <v>44876</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="I12" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E13" s="72">
+      <c r="E13" s="69">
         <v>44877</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="3" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="I13" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E14" s="72">
+      <c r="E14" s="69">
         <v>44878</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="3" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="I14" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="5:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="E15" s="72">
+      <c r="E15" s="69">
         <v>44879</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="9">
@@ -4860,45 +5646,45 @@
       </c>
     </row>
     <row r="16" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E16" s="72">
+      <c r="E16" s="69">
         <v>44880</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I16" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E17" s="72">
+      <c r="E17" s="69">
         <v>44881</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I17" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E18" s="72">
+      <c r="E18" s="69">
         <v>44882</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -4907,28 +5693,28 @@
       </c>
     </row>
     <row r="19" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E19" s="72">
+      <c r="E19" s="69">
         <v>44883</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="I19" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="5:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="E20" s="72">
+      <c r="E20" s="69">
         <v>44884</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -4937,26 +5723,26 @@
       </c>
     </row>
     <row r="21" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E21" s="72">
+      <c r="E21" s="69">
         <v>44885</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="I21" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E22" s="72">
+      <c r="E22" s="69">
         <v>44886</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -4965,11 +5751,11 @@
       </c>
     </row>
     <row r="23" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E23" s="72">
+      <c r="E23" s="69">
         <v>44887</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -4978,11 +5764,11 @@
       </c>
     </row>
     <row r="24" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E24" s="72">
+      <c r="E24" s="69">
         <v>44888</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -4991,41 +5777,41 @@
       </c>
     </row>
     <row r="25" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E25" s="72">
+      <c r="E25" s="69">
         <v>44889</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="I25" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E26" s="72">
+      <c r="E26" s="69">
         <v>44890</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="I26" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="5:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="E27" s="72">
+      <c r="E27" s="69">
         <v>44891</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -5034,26 +5820,26 @@
       </c>
     </row>
     <row r="28" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E28" s="72">
+      <c r="E28" s="69">
         <v>44892</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="I28" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E29" s="72">
+      <c r="E29" s="69">
         <v>44893</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -5062,11 +5848,11 @@
       </c>
     </row>
     <row r="30" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E30" s="72">
+      <c r="E30" s="69">
         <v>44894</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -5075,11 +5861,11 @@
       </c>
     </row>
     <row r="31" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E31" s="72">
+      <c r="E31" s="69">
         <v>44895</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4" t="s">
@@ -5095,13 +5881,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5A071E-9330-4862-B422-922D31A2128F}">
   <dimension ref="E1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5117,108 +5903,108 @@
         <v>0</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="I1" s="70" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E2" s="72">
+      <c r="E2" s="69">
         <v>44896</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="I2" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E3" s="72">
+      <c r="E3" s="69">
         <v>44897</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="I3" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E4" s="72">
+      <c r="E4" s="69">
         <v>44898</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="16" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="I4" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E5" s="72">
+      <c r="E5" s="69">
         <v>44899</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="16" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="I5" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E6" s="72">
+      <c r="E6" s="69">
         <v>44900</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="I6" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E7" s="72">
+      <c r="E7" s="69">
         <v>44901</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="9">
@@ -5226,28 +6012,28 @@
       </c>
     </row>
     <row r="8" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E8" s="72">
+      <c r="E8" s="69">
         <v>44902</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="I8" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E9" s="72">
+      <c r="E9" s="69">
         <v>44903</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -5256,29 +6042,29 @@
       </c>
     </row>
     <row r="10" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E10" s="72">
+      <c r="E10" s="69">
         <v>44904</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="16" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="I10" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E11" s="72">
+      <c r="E11" s="69">
         <v>44905</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="9">
@@ -5286,11 +6072,11 @@
       </c>
     </row>
     <row r="12" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E12" s="72">
+      <c r="E12" s="69">
         <v>44906</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
@@ -5298,296 +6084,328 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E13" s="72">
+    <row r="13" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E13" s="69">
         <v>44907</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="16" t="s">
+        <v>654</v>
+      </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E14" s="72">
+      <c r="I13" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E14" s="69">
         <v>44908</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="F14" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>655</v>
+      </c>
       <c r="H14" s="17"/>
-      <c r="I14" s="9"/>
+      <c r="I14" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E15" s="72">
+      <c r="E15" s="69">
         <v>44909</v>
       </c>
-      <c r="F15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>657</v>
+      </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E16" s="72">
+      <c r="E16" s="69">
         <v>44910</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="9"/>
+      <c r="F16" s="91" t="s">
+        <v>660</v>
+      </c>
+      <c r="G16" s="92"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="88">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E17" s="72">
+      <c r="E17" s="69">
         <v>44911</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="9"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="89"/>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E18" s="72">
+      <c r="E18" s="69">
         <v>44912</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="9"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="89"/>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E19" s="72">
+      <c r="E19" s="69">
         <v>44913</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="9"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="89"/>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E20" s="72">
+      <c r="E20" s="69">
         <v>44914</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="9"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="89"/>
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E21" s="72">
+      <c r="E21" s="69">
         <v>44915</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="9"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="89"/>
     </row>
     <row r="22" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E22" s="72">
+      <c r="E22" s="69">
         <v>44916</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="9"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="89"/>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E23" s="72">
+      <c r="E23" s="69">
         <v>44917</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="9"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="89"/>
     </row>
     <row r="24" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E24" s="72">
+      <c r="E24" s="69">
         <v>44918</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="9"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="89"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E25" s="72">
+      <c r="E25" s="69">
         <v>44919</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="9"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="89"/>
     </row>
     <row r="26" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E26" s="72">
+      <c r="E26" s="69">
         <v>44920</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="9"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="89"/>
     </row>
     <row r="27" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E27" s="72">
+      <c r="E27" s="69">
         <v>44921</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E28" s="72">
+      <c r="F27" s="94"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="90"/>
+    </row>
+    <row r="28" spans="5:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="69">
         <v>44922</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="96"/>
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E29" s="72">
+      <c r="E29" s="69">
         <v>44923</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="96"/>
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E30" s="72">
+      <c r="E30" s="69">
         <v>44924</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="96"/>
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E31" s="72">
+      <c r="E31" s="69">
         <v>44925</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="96"/>
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E32" s="72">
+      <c r="E32" s="69">
         <v>44926</v>
       </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="99"/>
       <c r="I32" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I16:I27"/>
+    <mergeCell ref="F16:H32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8B13EF-0307-4B27-B53B-332018186558}">
-  <dimension ref="D1:Z29"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="17.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="6"/>
     <col min="4" max="4" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.88671875" style="6"/>
     <col min="7" max="7" width="16.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="6"/>
-    <col min="10" max="10" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="6"/>
-    <col min="14" max="14" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="8.88671875" style="6"/>
-    <col min="18" max="18" width="20.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.77734375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" style="6"/>
-    <col min="21" max="21" width="9.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="6"/>
+    <col min="13" max="13" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="8.88671875" style="6"/>
+    <col min="17" max="17" width="20.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.77734375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" style="6"/>
+    <col min="20" max="20" width="9.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="68" t="s">
+      <c r="T1" s="65" t="s">
+        <v>496</v>
+      </c>
+      <c r="U1" s="65" t="s">
+        <v>495</v>
+      </c>
+      <c r="V1" s="65" t="s">
         <v>497</v>
       </c>
-      <c r="V1" s="68" t="s">
-        <v>496</v>
-      </c>
-      <c r="W1" s="68" t="s">
+      <c r="W1" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="X1" s="68" t="s">
+      <c r="X1" s="65" t="s">
         <v>499</v>
       </c>
-      <c r="Y1" s="68" t="s">
-        <v>500</v>
-      </c>
-      <c r="Z1" s="68" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="2" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D2" s="74" t="s">
+      <c r="Y1" s="65" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="G2" s="74" t="s">
+      <c r="E2" s="80"/>
+      <c r="G2" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="74"/>
+      <c r="H2" s="80"/>
+      <c r="J2" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="K2" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="M2" s="46" t="s">
+        <v>416</v>
+      </c>
       <c r="N2" s="46" t="s">
-        <v>417</v>
-      </c>
-      <c r="O2" s="46" t="s">
         <v>12</v>
       </c>
+      <c r="O2"/>
       <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="69" t="s">
-        <v>487</v>
-      </c>
-      <c r="T2" s="52">
+      <c r="Q2" s="4"/>
+      <c r="R2" s="66" t="s">
+        <v>486</v>
+      </c>
+      <c r="S2" s="49">
         <v>2098748</v>
       </c>
+      <c r="T2" s="4">
+        <v>2083748</v>
+      </c>
       <c r="U2" s="4">
-        <v>2083748</v>
+        <v>1863168</v>
       </c>
       <c r="V2" s="4">
-        <v>1863168</v>
+        <v>155264</v>
       </c>
       <c r="W2" s="4">
-        <v>155264</v>
-      </c>
-      <c r="X2" s="4">
         <v>9516</v>
       </c>
-      <c r="Y2" s="71">
+      <c r="X2" s="68">
         <f>381809/12</f>
         <v>31817.416666666668</v>
       </c>
-      <c r="Z2" s="71">
+      <c r="Y2" s="68">
         <v>116107</v>
       </c>
     </row>
-    <row r="3" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="B3" s="4">
+        <v>62000</v>
+      </c>
       <c r="D3" s="42" t="s">
         <v>13</v>
       </c>
@@ -5600,37 +6418,43 @@
       <c r="H3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="L3" s="4">
+      <c r="J3" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="K3" s="4">
         <v>20000</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="O3" s="4">
+      <c r="M3" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="N3" s="4">
         <v>24000</v>
       </c>
+      <c r="O3"/>
       <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="S3" s="70" t="s">
-        <v>493</v>
-      </c>
-      <c r="T3" s="4">
+      <c r="Q3" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="R3" s="67" t="s">
+        <v>492</v>
+      </c>
+      <c r="S3" s="4">
         <v>77630</v>
       </c>
+      <c r="T3" s="4"/>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-    </row>
-    <row r="4" spans="4:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="B4" s="4">
+        <v>50000</v>
+      </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
@@ -5643,38 +6467,38 @@
       <c r="H4" s="4">
         <v>60000</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="J4" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="K4" s="4">
         <v>25000</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="O4" s="4">
+      <c r="M4" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="N4" s="4">
         <v>8000</v>
       </c>
+      <c r="O4"/>
       <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="S4" s="69" t="s">
+      <c r="Q4" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="R4" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="4">
-        <f>(T3*0.2)</f>
+      <c r="S4" s="4">
+        <f>(S3*0.2)</f>
         <v>15526</v>
       </c>
+      <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-    </row>
-    <row r="5" spans="4:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
@@ -5687,42 +6511,42 @@
       <c r="H5" s="4">
         <v>12000</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="L5" s="4">
+      <c r="J5" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="K5" s="4">
         <v>35000</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="O5" s="4">
+      <c r="M5" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="N5" s="4">
         <v>14000</v>
       </c>
+      <c r="O5"/>
       <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="S5" s="69" t="s">
+      <c r="Q5" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="T5" s="4">
-        <f>(T3*0.2)</f>
+      <c r="R5" s="66" t="s">
+        <v>516</v>
+      </c>
+      <c r="S5" s="4">
+        <f>(S3*0.2)</f>
         <v>15526</v>
       </c>
+      <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-    </row>
-    <row r="6" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D6" s="47" t="s">
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="D6" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="43">
         <v>13368</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -5731,116 +6555,116 @@
       <c r="H6" s="4">
         <v>8260</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="J6" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="K6" s="4">
         <v>20000</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="O6" s="4">
+      <c r="M6" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="N6" s="4">
         <v>15000</v>
       </c>
+      <c r="O6"/>
       <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="R6" s="66" t="s">
         <v>504</v>
       </c>
-      <c r="S6" s="69" t="s">
-        <v>505</v>
-      </c>
-      <c r="T6" s="4">
+      <c r="S6" s="4">
         <v>33532</v>
       </c>
+      <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-    </row>
-    <row r="7" spans="4:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
       <c r="G7" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H7" s="4">
         <f>(699+599+1399+499+400)</f>
         <v>3596</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="J7" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="K7" s="4">
         <v>10000</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="O7" s="4">
+      <c r="M7" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="N7" s="4">
         <v>8000</v>
       </c>
+      <c r="O7"/>
       <c r="P7"/>
-      <c r="Q7"/>
+      <c r="Q7" s="63" t="s">
+        <v>501</v>
+      </c>
       <c r="R7" s="66" t="s">
-        <v>502</v>
-      </c>
-      <c r="S7" s="69" t="s">
-        <v>520</v>
-      </c>
-      <c r="T7" s="4">
+        <v>519</v>
+      </c>
+      <c r="S7" s="4">
         <v>3000</v>
       </c>
+      <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-    </row>
-    <row r="8" spans="4:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="4">
         <v>500</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="43">
         <v>50000</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="L8" s="4">
+      <c r="J8" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="K8" s="4">
         <v>20000</v>
       </c>
+      <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="O8"/>
       <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="S8" s="69" t="s">
+      <c r="Q8" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="R8" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="T8" s="4">
+      <c r="S8" s="4">
         <v>223580</v>
       </c>
+      <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-    </row>
-    <row r="9" spans="4:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
@@ -5853,28 +6677,28 @@
       <c r="H9" s="4">
         <v>15000</v>
       </c>
+      <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="N9" s="48" t="s">
+      <c r="M9" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="48">
-        <f>SUM(O3:O8)</f>
+      <c r="N9" s="47">
+        <f>SUM(N3:N8)</f>
         <v>69000</v>
       </c>
+      <c r="O9"/>
       <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="S9" s="69" t="s">
-        <v>501</v>
-      </c>
-      <c r="T9" s="4">
+      <c r="Q9" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="R9" s="66" t="s">
+        <v>500</v>
+      </c>
+      <c r="S9" s="4">
         <v>3764</v>
       </c>
     </row>
-    <row r="10" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
@@ -5887,19 +6711,19 @@
       <c r="H10" s="4">
         <v>5000</v>
       </c>
+      <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="R10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="R10" s="66" t="s">
         <v>494</v>
       </c>
-      <c r="S10" s="69" t="s">
-        <v>495</v>
-      </c>
-      <c r="T10" s="4">
+      <c r="S10" s="4">
         <v>9316</v>
       </c>
     </row>
-    <row r="11" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
@@ -5912,22 +6736,22 @@
       <c r="H11" s="4">
         <v>50000</v>
       </c>
+      <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="M11" s="46" t="s">
+        <v>529</v>
+      </c>
       <c r="N11" s="46" t="s">
-        <v>530</v>
-      </c>
-      <c r="O11" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="R11" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="S11" s="67" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="12" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="Q11" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="R11" s="64" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D12" s="4" t="s">
         <v>21</v>
       </c>
@@ -5940,22 +6764,22 @@
       <c r="H12" s="4">
         <v>3000</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="J12" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="49">
-        <f>SUM(L3:L11)</f>
+      <c r="K12" s="48">
+        <f>SUM(K3:K11)</f>
         <v>130000</v>
       </c>
-      <c r="N12" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="O12" s="4">
+      <c r="M12" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="N12" s="4">
         <f>(250*12*12)</f>
         <v>36000</v>
       </c>
     </row>
-    <row r="13" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D13" s="4" t="s">
         <v>22</v>
       </c>
@@ -5968,30 +6792,30 @@
       <c r="H13" s="4">
         <v>10000</v>
       </c>
-      <c r="K13" s="50" t="s">
-        <v>482</v>
-      </c>
-      <c r="L13" s="51">
-        <f>SUM(H18+L12)</f>
+      <c r="J13" s="71" t="s">
+        <v>481</v>
+      </c>
+      <c r="K13" s="72">
+        <f>SUM(H18+K12)</f>
         <v>259306</v>
       </c>
-      <c r="N13" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="O13" s="4">
+      <c r="M13" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="N13" s="4">
         <v>20000</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="R13" s="66" t="s">
         <v>504</v>
       </c>
-      <c r="S13" s="69" t="s">
-        <v>505</v>
-      </c>
-      <c r="T13" s="4">
+      <c r="S13" s="4">
         <v>33532</v>
       </c>
     </row>
-    <row r="14" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D14" s="4" t="s">
         <v>24</v>
       </c>
@@ -6004,30 +6828,30 @@
       <c r="H14" s="4">
         <v>5000</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="L14" s="52">
-        <f>L13/0.6</f>
+      <c r="J14" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="K14" s="49">
+        <f>K13/0.6</f>
         <v>432176.66666666669</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="O14" s="4">
+      <c r="M14" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="N14" s="4">
         <v>120000</v>
       </c>
-      <c r="R14" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="S14" s="69" t="s">
-        <v>501</v>
-      </c>
-      <c r="T14" s="4">
+      <c r="Q14" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="R14" s="66" t="s">
+        <v>500</v>
+      </c>
+      <c r="S14" s="4">
         <v>3764</v>
       </c>
     </row>
-    <row r="15" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D15" s="4" t="s">
         <v>26</v>
       </c>
@@ -6035,275 +6859,242 @@
         <v>5000</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H15" s="4">
         <v>15000</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="K15" s="50" t="s">
-        <v>487</v>
-      </c>
-      <c r="L15" s="51">
-        <f>(L14/0.88)*12</f>
+      <c r="I15" s="73" t="s">
+        <v>507</v>
+      </c>
+      <c r="J15" s="71" t="s">
+        <v>486</v>
+      </c>
+      <c r="K15" s="72">
+        <f>(K14/0.88)*12</f>
         <v>5893318.1818181816</v>
       </c>
-      <c r="N15" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="O15" s="4">
+      <c r="M15" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="N15" s="4">
         <f>(18*1000)</f>
         <v>18000</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="Q15" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="R15" s="66" t="s">
         <v>494</v>
       </c>
-      <c r="S15" s="69" t="s">
-        <v>495</v>
-      </c>
-      <c r="T15" s="4">
+      <c r="S15" s="4">
         <v>9316</v>
       </c>
     </row>
-    <row r="16" spans="4:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="4">
         <v>5000</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H16" s="51">
         <f>SUM(H6:H15)</f>
         <v>164856</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="L16" s="4">
+      <c r="I16" s="73" t="s">
+        <v>508</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="K16" s="4">
         <v>350000</v>
       </c>
-      <c r="N16" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="O16" s="4">
+      <c r="M16" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="N16" s="4">
         <f>(40*400)</f>
         <v>16000</v>
       </c>
     </row>
-    <row r="17" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D17" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="4">
         <v>5000</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="56">
+      <c r="H17" s="53">
         <f>(H16/12)</f>
         <v>13738</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="L17" s="4">
+      <c r="I17" s="73"/>
+      <c r="J17" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="K17" s="4">
         <v>250000</v>
       </c>
+      <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="4">
         <v>5000</v>
       </c>
-      <c r="G18" s="57" t="s">
+      <c r="G18" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="58">
+      <c r="H18" s="55">
         <f>SUM(H17,E21)</f>
         <v>129306</v>
       </c>
+      <c r="I18" s="73"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-    </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D19" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="4">
         <v>5000</v>
       </c>
-      <c r="K19" s="59" t="s">
-        <v>488</v>
-      </c>
-      <c r="L19" s="60">
-        <f>SUM(L13+L16+L18+L17)</f>
+      <c r="I19" s="73"/>
+      <c r="J19" s="56" t="s">
+        <v>487</v>
+      </c>
+      <c r="K19" s="57">
+        <f>SUM(K13+K16+K18+K17)</f>
         <v>859306</v>
       </c>
-      <c r="N19" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="O19" s="4">
+      <c r="M19" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="N19" s="4">
         <f>(50000+300000+45*500)</f>
         <v>372500</v>
       </c>
     </row>
-    <row r="20" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="61" t="s">
+    <row r="20" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="58">
         <v>5000</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="62">
+      <c r="H20" s="59">
         <v>116107</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="L20" s="71">
-        <f>(L19/0.6)</f>
+      <c r="I20" s="73"/>
+      <c r="J20" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="K20" s="68">
+        <f>(K19/0.6)</f>
         <v>1432176.6666666667</v>
       </c>
-      <c r="N20" s="48" t="s">
+      <c r="M20" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="O20" s="48">
-        <f>SUM(O12:O19)</f>
+      <c r="N20" s="47">
+        <f>SUM(N12:N19)</f>
         <v>582500</v>
       </c>
     </row>
-    <row r="21" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D21" s="55" t="s">
+    <row r="21" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="56">
+      <c r="E21" s="53">
         <f>SUM(E4:E20)</f>
         <v>115568</v>
       </c>
-      <c r="G21" s="61" t="s">
+      <c r="G21" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="63">
+      <c r="H21" s="60">
         <v>18631</v>
       </c>
-      <c r="K21" s="59" t="s">
-        <v>487</v>
-      </c>
-      <c r="L21" s="60">
-        <f>(L20/0.88)*12</f>
+      <c r="I21" s="73"/>
+      <c r="J21" s="56" t="s">
+        <v>486</v>
+      </c>
+      <c r="K21" s="57">
+        <f>(K20/0.88)*12</f>
         <v>19529681.81818182</v>
       </c>
     </row>
-    <row r="22" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G22" s="64" t="s">
+    <row r="22" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="65">
+      <c r="H22" s="62">
         <f>SUM(H20:H21)</f>
         <v>134738</v>
       </c>
-      <c r="J22" s="47" t="s">
+      <c r="I22" s="74" t="s">
+        <v>489</v>
+      </c>
+      <c r="J22" s="43" t="s">
         <v>490</v>
       </c>
-      <c r="K22" s="43" t="s">
+      <c r="K22" s="63">
+        <v>0.23</v>
+      </c>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="J23" s="43" t="s">
         <v>491</v>
       </c>
-      <c r="L22" s="66">
-        <v>0.23</v>
-      </c>
-      <c r="N22" s="46" t="s">
-        <v>539</v>
-      </c>
-      <c r="O22" s="46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="K23" s="43" t="s">
-        <v>492</v>
-      </c>
-      <c r="L23" s="66">
+      <c r="K23" s="63">
         <v>0.34</v>
       </c>
-      <c r="N23" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="O23" s="4">
-        <f>(5000+3500+8000+3000+2500+2500+3500)</f>
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="K24" s="67"/>
-      <c r="N24" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="O24" s="4">
-        <f>(5000+45000+21000)</f>
-        <v>71000</v>
-      </c>
-    </row>
-    <row r="25" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="N25" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="O25" s="4">
-        <f>(6000+3000+20000)</f>
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="26" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="N26" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="O26" s="4">
-        <f>(10000+10000+5000+3000)</f>
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="27" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="N27" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="O27" s="4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="28" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="N28" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="O28" s="48">
-        <f>SUM(O23:O27)</f>
-        <v>206000</v>
-      </c>
-    </row>
-    <row r="29" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="N29" s="48" t="s">
-        <v>543</v>
-      </c>
-      <c r="O29" s="48">
-        <f>(365*2+365*3*2)+2000</f>
-        <v>4920</v>
-      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="J24" s="64"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6311,7 +7102,7 @@
     <mergeCell ref="G2:H2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="S11" r:id="rId1" xr:uid="{120A61B2-A6AE-4484-ADBB-1C0A821F9F63}"/>
+    <hyperlink ref="R11" r:id="rId1" xr:uid="{120A61B2-A6AE-4484-ADBB-1C0A821F9F63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
@@ -6320,19 +7111,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793109CE-B9DA-4197-A068-6AFB5BC24F21}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B1:S94"/>
+  <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J93" sqref="J93"/>
+    <sheetView topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.44140625" bestFit="1" customWidth="1"/>
@@ -6340,73 +7132,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B1" s="76" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="F1" s="76" t="s">
+      <c r="B1" s="83" t="s">
         <v>212</v>
       </c>
-      <c r="G1" s="76"/>
-      <c r="I1" s="75" t="s">
-        <v>196</v>
-      </c>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="M1" s="75" t="s">
-        <v>216</v>
-      </c>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="Q1" s="76" t="s">
-        <v>233</v>
-      </c>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="F1" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" s="83"/>
+      <c r="I1" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="M1" s="82" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="Q1" s="83" t="s">
+        <v>232</v>
+      </c>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
@@ -6414,43 +7206,43 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I3" s="7">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M3" s="7">
         <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q3" s="7">
         <v>1</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
@@ -6458,43 +7250,43 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I4" s="7">
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="19">
         <v>2</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
@@ -6502,43 +7294,43 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F5" s="7">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I5" s="7">
         <v>3</v>
       </c>
       <c r="J5" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="K5" s="23" t="s">
         <v>199</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>200</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="7">
         <v>3</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
@@ -6546,34 +7338,34 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F6" s="7">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="Q6" s="7">
         <v>4</v>
       </c>
       <c r="R6" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="S6" s="17" t="s">
         <v>221</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
@@ -6581,25 +7373,25 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F7" s="7">
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7">
         <v>5</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
@@ -6607,23 +7399,23 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" s="1"/>
       <c r="F8" s="7">
         <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q8" s="7">
         <v>6</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
@@ -6631,32 +7423,32 @@
         <v>7</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q9" s="7">
         <v>7</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="76" t="s">
-        <v>214</v>
-      </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
+      <c r="B10" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
       <c r="Q10" s="7">
         <v>8</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S10" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
@@ -6664,19 +7456,19 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7">
         <v>9</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
@@ -6684,19 +7476,19 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q12" s="7">
         <v>10</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
@@ -6704,40 +7496,40 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M13" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="Q13" s="7">
         <v>11</v>
       </c>
       <c r="R13" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
@@ -6745,1235 +7537,1346 @@
         <v>44566</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="Q14" s="7">
         <v>12</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S14" s="17"/>
     </row>
-    <row r="15" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="77" t="s">
-        <v>215</v>
-      </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B15" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="85"/>
+      <c r="D15" s="86"/>
       <c r="I15" s="30">
         <v>44568</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="Q15" s="7">
         <v>13</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S15" s="17"/>
     </row>
-    <row r="16" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>161</v>
-      </c>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B16" s="75"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
       <c r="I16" s="30">
-        <v>44572</v>
+        <v>44935</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>239</v>
+        <v>695</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>14</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="Q16" s="7"/>
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
     </row>
-    <row r="17" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="7">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>174</v>
+      <c r="C17" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="I17" s="30">
         <v>44572</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>316</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7">
+        <v>14</v>
+      </c>
+      <c r="R17" s="17" t="s">
+        <v>692</v>
+      </c>
+      <c r="S17" s="17" t="s">
+        <v>690</v>
+      </c>
+      <c r="T17" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I18" s="30">
+        <v>44572</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q18" s="7">
         <v>15</v>
-      </c>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-    </row>
-    <row r="18" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I18" s="30">
-        <v>44585</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>16</v>
       </c>
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
     </row>
-    <row r="19" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="23" t="s">
-        <v>176</v>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B19" s="7">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="I19" s="30">
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>352</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="Q19" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R19" s="17"/>
       <c r="S19" s="17"/>
     </row>
-    <row r="20" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I20" s="30">
-        <v>44589</v>
+        <v>44587</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>244</v>
+        <v>333</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>158</v>
+        <v>350</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>252</v>
+        <v>352</v>
       </c>
       <c r="Q20" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
     </row>
-    <row r="21" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I21" s="30">
-        <v>44592</v>
+        <v>44589</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>317</v>
+        <v>243</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>297</v>
+        <v>157</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="Q21" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
     </row>
-    <row r="22" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="24"/>
-      <c r="I22" s="31">
-        <v>44594</v>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="I22" s="30">
+        <v>44592</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>241</v>
+        <v>316</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>156</v>
+        <v>296</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="O22" s="1"/>
+        <v>297</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="Q22" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
     </row>
-    <row r="23" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="76" t="s">
-        <v>217</v>
-      </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="24"/>
       <c r="I23" s="31">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>307</v>
+        <v>155</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="O23" s="1"/>
       <c r="Q23" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
     </row>
-    <row r="24" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>161</v>
-      </c>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B24" s="83" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
       <c r="I24" s="31">
         <v>44595</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>328</v>
+        <v>241</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>453</v>
+        <v>306</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>455</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="O24" s="1"/>
       <c r="Q24" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
     </row>
-    <row r="25" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="7">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>183</v>
+      <c r="C25" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="I25" s="31">
-        <v>44603</v>
+        <v>44595</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>268</v>
+        <v>327</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>311</v>
+        <v>452</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>312</v>
+        <v>453</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>22</v>
+      </c>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>178</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="I26" s="31">
         <v>44603</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="7">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="I27" s="31">
+        <v>44603</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B28" s="7">
         <v>3</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="I28" s="31">
+        <v>44611</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B29" s="7">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="I27" s="31">
-        <v>44611</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="7">
-        <v>4</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="I28" s="32">
-        <v>44627</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="7"/>
-      <c r="C29" s="1"/>
       <c r="D29" s="23"/>
       <c r="I29" s="32">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B30" s="7"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="23"/>
       <c r="I30" s="32">
         <v>44628</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+        <v>321</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>462</v>
+      </c>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>161</v>
-      </c>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I31" s="32">
-        <v>44641</v>
+        <v>44628</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>267</v>
+        <v>349</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>165</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="7">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I32" s="32">
+        <v>44641</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="7">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I33" s="32">
+        <v>44645</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="7">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I32" s="32">
-        <v>44645</v>
-      </c>
-      <c r="J32" s="1" t="s">
+      <c r="I34" s="32">
+        <v>44646</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="M32" s="1" t="s">
+      <c r="K34" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="7">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="I35" s="33">
+        <v>44662</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="7">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="N32" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="7">
-        <v>2</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I33" s="32">
-        <v>44646</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="7">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D34" s="23" t="s">
+      <c r="D36" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="I34" s="33">
-        <v>44662</v>
-      </c>
-      <c r="J34" s="1" t="s">
+      <c r="I36" s="33">
+        <v>44669</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="7">
-        <v>4</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="I35" s="33">
-        <v>44669</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="25">
-        <v>5</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="I36" s="33">
-        <v>44678</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="K36" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B37" s="25">
-        <v>6</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="I37" s="34">
-        <v>44697</v>
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="I37" s="33">
+        <v>44678</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B38" s="25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D38" s="1"/>
       <c r="I38" s="34">
-        <v>44705</v>
+        <v>44697</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B39" s="25">
-        <v>8</v>
-      </c>
-      <c r="C39" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>201</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="I39" s="34">
         <v>44705</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>336</v>
+        <v>257</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="1"/>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="25">
+        <v>8</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="I40" s="34">
-        <v>44708</v>
+        <v>44705</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>265</v>
+        <v>335</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I41" s="35">
-        <v>44714</v>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="I41" s="34">
+        <v>44708</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I42" s="35">
-        <v>44718</v>
+        <v>44714</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I43" s="35">
+        <v>44718</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B44" s="81" t="s">
+        <v>667</v>
+      </c>
+      <c r="C44" s="81"/>
+      <c r="D44" s="81"/>
+      <c r="I44" s="35">
         <v>44719</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J44" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I45" s="35">
+        <v>44722</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>668</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="I46" s="35">
+        <v>44728</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I47" s="35">
+        <v>44729</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="I48" s="35">
+        <v>44734</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I44" s="35">
-        <v>44722</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I45" s="35">
-        <v>44728</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I46" s="35">
-        <v>44729</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I47" s="35">
-        <v>44734</v>
-      </c>
-      <c r="J47" s="1" t="s">
+      <c r="K48" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="I49" s="35">
+        <v>44735</v>
+      </c>
+      <c r="J49" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I48" s="35">
-        <v>44735</v>
-      </c>
-      <c r="J48" s="1" t="s">
+      <c r="K49" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="I50" s="35">
+        <v>44740</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="I51" s="35">
+        <v>44741</v>
+      </c>
+      <c r="J51" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="49" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I49" s="35">
-        <v>44740</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="50" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I50" s="35">
-        <v>44741</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I51" s="36">
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="I52" s="36">
         <v>44743</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="J52" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="I53" s="36">
+        <v>44747</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="18" t="s">
+        <v>679</v>
+      </c>
+      <c r="I54" s="36">
+        <v>44756</v>
+      </c>
+      <c r="J54" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="52" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I52" s="36">
-        <v>44747</v>
-      </c>
-      <c r="J52" s="1" t="s">
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="I55" s="36">
+        <v>44759</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="18" t="s">
+        <v>684</v>
+      </c>
+      <c r="I56" s="36">
+        <v>44762</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="53" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I53" s="36">
-        <v>44756</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I54" s="36">
-        <v>44759</v>
-      </c>
-      <c r="J54" s="1" t="s">
+      <c r="K56" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="I57" s="36">
+        <v>44766</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="K54" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="55" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I55" s="36">
-        <v>44762</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="56" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I56" s="36">
-        <v>44766</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="57" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I57" s="36">
-        <v>44768</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="K57" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="58" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
       <c r="I58" s="36">
         <v>44768</v>
       </c>
       <c r="J58" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="I59" s="36">
+        <v>44768</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I60" s="32">
+        <v>44782</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I61" s="32">
+        <v>44788</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I62" s="32">
+        <v>44791</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="K58" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="59" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I59" s="32">
-        <v>44782</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="60" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I60" s="32">
-        <v>44788</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="61" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I61" s="32">
-        <v>44791</v>
-      </c>
-      <c r="J61" s="1" t="s">
+      <c r="K62" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I63" s="32">
+        <v>44796</v>
+      </c>
+      <c r="J63" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="K61" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="62" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I62" s="32">
-        <v>44796</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="63" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I63" s="32">
-        <v>44797</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="K63" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="64" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I64" s="32">
         <v>44797</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="65" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="65" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I65" s="32">
+        <v>44797</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I66" s="32">
         <v>44802</v>
       </c>
-      <c r="J65" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="66" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I66" s="32">
-        <v>44804</v>
-      </c>
       <c r="J66" s="1" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="67" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="67" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I67" s="32">
         <v>44804</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="K67" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="68" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I68" s="32">
+        <v>44804</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="69" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I69" s="37">
+        <v>44809</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I70" s="37">
+        <v>44811</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="71" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I71" s="37">
+        <v>44813</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="72" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I72" s="37">
+        <v>44820</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="73" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I73" s="37">
+        <v>44823</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="74" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I74" s="37">
+        <v>44826</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="75" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I75" s="38">
+        <v>44837</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="76" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I76" s="38">
+        <v>44839</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="77" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I77" s="38">
+        <v>44841</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="78" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I78" s="38">
+        <v>44844</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="79" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I79" s="38">
+        <v>44846</v>
+      </c>
+      <c r="J79" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="68" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I68" s="37">
-        <v>44809</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="69" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I69" s="37">
-        <v>44811</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="70" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I70" s="37">
-        <v>44813</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="71" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I71" s="37">
-        <v>44820</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="72" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I72" s="37">
-        <v>44823</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="73" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I73" s="37">
-        <v>44826</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="74" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I74" s="38">
-        <v>44837</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="75" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I75" s="38">
-        <v>44839</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="76" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I76" s="38">
-        <v>44841</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="77" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I77" s="38">
-        <v>44844</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="78" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I78" s="38">
-        <v>44846</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="79" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I79" s="38">
-        <v>44848</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="K79" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="80" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="80" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I80" s="38">
         <v>44848</v>
       </c>
       <c r="J80" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="81" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I81" s="38">
+        <v>44848</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I82" s="38">
+        <v>44851</v>
+      </c>
+      <c r="J82" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I81" s="38">
-        <v>44851</v>
-      </c>
-      <c r="J81" s="1" t="s">
+      <c r="K82" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="83" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I83" s="38">
+        <v>44852</v>
+      </c>
+      <c r="J83" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="K81" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="82" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I82" s="38">
-        <v>44852</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="83" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I83" s="38">
+      <c r="K83" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="84" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I84" s="38">
         <v>44862</v>
       </c>
-      <c r="J83" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="84" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="I84" s="38">
-        <v>44864</v>
-      </c>
       <c r="J84" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="85" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="85" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I85" s="38">
         <v>44864</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="86" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I86" s="34">
-        <v>44870</v>
+      <c r="I86" s="38">
+        <v>44864</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I87" s="34">
-        <v>44875</v>
+        <v>44870</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="88" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I88" s="34">
-        <v>44878</v>
+        <v>44875</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="89" spans="9:11" x14ac:dyDescent="0.3">
@@ -7981,78 +8884,84 @@
         <v>44878</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="90" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I90" s="34">
-        <v>44879</v>
+        <v>44878</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="91" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I91" s="34">
-        <v>44880</v>
+        <v>44879</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="92" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I92" s="34">
-        <v>44888</v>
+        <v>44880</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="93" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I93" s="34">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I94" s="34">
+        <v>44890</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="95" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I95" s="34">
         <v>44892</v>
       </c>
-      <c r="J94" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>322</v>
+      <c r="J95" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="I13:K94" xr:uid="{793109CE-B9DA-4197-A068-6AFB5BC24F21}">
-    <filterColumn colId="0">
-      <filters>
-        <dateGroupItem year="2022" month="11" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="8">
+  <autoFilter ref="I13:K95" xr:uid="{793109CE-B9DA-4197-A068-6AFB5BC24F21}"/>
+  <mergeCells count="9">
+    <mergeCell ref="B44:D44"/>
     <mergeCell ref="M1:O1"/>
-    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B1:D1"/>
@@ -8087,19 +8996,19 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="3" spans="4:15" x14ac:dyDescent="0.3">
@@ -8107,19 +9016,19 @@
         <v>44566</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="4" spans="4:15" x14ac:dyDescent="0.3">
@@ -8127,19 +9036,19 @@
         <v>44568</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="5" spans="4:15" x14ac:dyDescent="0.3">
@@ -8147,19 +9056,19 @@
         <v>44572</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="4:15" x14ac:dyDescent="0.3">
@@ -8167,19 +9076,19 @@
         <v>44572</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="4:15" x14ac:dyDescent="0.3">
@@ -8187,17 +9096,17 @@
         <v>44585</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="4:15" x14ac:dyDescent="0.3">
@@ -8205,19 +9114,19 @@
         <v>44587</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="9" spans="4:15" x14ac:dyDescent="0.3">
@@ -8225,19 +9134,19 @@
         <v>44589</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="10" spans="4:15" x14ac:dyDescent="0.3">
@@ -8245,19 +9154,19 @@
         <v>44592</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="O10" s="29"/>
     </row>
@@ -8266,16 +9175,16 @@
         <v>44594</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J11" s="1"/>
       <c r="O11" s="29"/>
@@ -8285,16 +9194,16 @@
         <v>44595</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -8303,19 +9212,19 @@
         <v>44595</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="14" spans="4:15" x14ac:dyDescent="0.3">
@@ -8323,19 +9232,19 @@
         <v>44603</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="15" spans="4:15" x14ac:dyDescent="0.3">
@@ -8343,13 +9252,13 @@
         <v>44603</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -8359,16 +9268,16 @@
         <v>44611</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J16" s="1"/>
     </row>
@@ -8377,19 +9286,19 @@
         <v>44627</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.3">
@@ -8397,16 +9306,16 @@
         <v>44628</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J18" s="1"/>
     </row>
@@ -8415,10 +9324,10 @@
         <v>44628</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -8429,13 +9338,13 @@
         <v>44641</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -8445,19 +9354,19 @@
         <v>44645</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.3">
@@ -8465,16 +9374,16 @@
         <v>44646</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J22" s="1"/>
     </row>
@@ -8483,16 +9392,16 @@
         <v>44662</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J23" s="1"/>
     </row>
@@ -8501,10 +9410,10 @@
         <v>44669</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -8515,10 +9424,10 @@
         <v>44678</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -8529,10 +9438,10 @@
         <v>44697</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -8543,10 +9452,10 @@
         <v>44705</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -8557,10 +9466,10 @@
         <v>44705</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -8571,10 +9480,10 @@
         <v>44708</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -8585,10 +9494,10 @@
         <v>44714</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -8599,10 +9508,10 @@
         <v>44718</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -8613,10 +9522,10 @@
         <v>44719</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.3">
@@ -8624,10 +9533,10 @@
         <v>44722</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.3">
@@ -8635,10 +9544,10 @@
         <v>44728</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.3">
@@ -8646,10 +9555,10 @@
         <v>44729</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.3">
@@ -8657,10 +9566,10 @@
         <v>44734</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.3">
@@ -8668,10 +9577,10 @@
         <v>44735</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.3">
@@ -8679,10 +9588,10 @@
         <v>44740</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.3">
@@ -8690,7 +9599,7 @@
         <v>44741</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F39" s="1"/>
     </row>
@@ -8699,10 +9608,10 @@
         <v>44743</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.3">
@@ -8710,10 +9619,10 @@
         <v>44747</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.3">
@@ -8721,7 +9630,7 @@
         <v>44756</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F42" s="1"/>
     </row>
@@ -8730,10 +9639,10 @@
         <v>44759</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.3">
@@ -8741,10 +9650,10 @@
         <v>44762</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.3">
@@ -8752,10 +9661,10 @@
         <v>44766</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.3">
@@ -8763,10 +9672,10 @@
         <v>44768</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.3">
@@ -8774,10 +9683,10 @@
         <v>44768</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.3">
@@ -8785,10 +9694,10 @@
         <v>44782</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.3">
@@ -8796,10 +9705,10 @@
         <v>44788</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.3">
@@ -8807,10 +9716,10 @@
         <v>44791</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.3">
@@ -8818,10 +9727,10 @@
         <v>44796</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.3">
@@ -8829,10 +9738,10 @@
         <v>44797</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.3">
@@ -8840,10 +9749,10 @@
         <v>44797</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.3">
@@ -8851,10 +9760,10 @@
         <v>44802</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.3">
@@ -8862,10 +9771,10 @@
         <v>44804</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.3">
@@ -8873,10 +9782,10 @@
         <v>44804</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.3">
@@ -8884,10 +9793,10 @@
         <v>44809</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.3">
@@ -8895,10 +9804,10 @@
         <v>44811</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.3">
@@ -8906,10 +9815,10 @@
         <v>44813</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.3">
@@ -8917,10 +9826,10 @@
         <v>44820</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61" spans="4:6" x14ac:dyDescent="0.3">
@@ -8928,10 +9837,10 @@
         <v>44823</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.3">
@@ -8939,10 +9848,10 @@
         <v>44826</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.3">
@@ -8950,10 +9859,10 @@
         <v>44837</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="4:6" x14ac:dyDescent="0.3">
@@ -8961,10 +9870,10 @@
         <v>44839</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.3">
@@ -8972,10 +9881,10 @@
         <v>44841</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.3">
@@ -8983,10 +9892,10 @@
         <v>44844</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="67" spans="4:6" x14ac:dyDescent="0.3">
@@ -8994,10 +9903,10 @@
         <v>44846</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.3">
@@ -9005,10 +9914,10 @@
         <v>44848</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="69" spans="4:6" x14ac:dyDescent="0.3">
@@ -9016,7 +9925,7 @@
         <v>44848</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F69" s="1"/>
     </row>
@@ -9025,10 +9934,10 @@
         <v>44851</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.3">
@@ -9036,10 +9945,10 @@
         <v>44852</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="4:6" x14ac:dyDescent="0.3">
@@ -9047,10 +9956,10 @@
         <v>44862</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="73" spans="4:6" x14ac:dyDescent="0.3">
@@ -9058,10 +9967,10 @@
         <v>44864</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="4:6" x14ac:dyDescent="0.3">
@@ -9069,10 +9978,10 @@
         <v>44864</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75" spans="4:6" x14ac:dyDescent="0.3">
@@ -9080,10 +9989,10 @@
         <v>44870</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="76" spans="4:6" x14ac:dyDescent="0.3">
@@ -9091,10 +10000,10 @@
         <v>44875</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="77" spans="4:6" x14ac:dyDescent="0.3">
@@ -9102,10 +10011,10 @@
         <v>44878</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="78" spans="4:6" x14ac:dyDescent="0.3">
@@ -9113,10 +10022,10 @@
         <v>44878</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="79" spans="4:6" x14ac:dyDescent="0.3">
@@ -9124,10 +10033,10 @@
         <v>44879</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="4:6" x14ac:dyDescent="0.3">
@@ -9135,10 +10044,10 @@
         <v>44880</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="81" spans="4:6" x14ac:dyDescent="0.3">
@@ -9146,10 +10055,10 @@
         <v>44888</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="82" spans="4:6" x14ac:dyDescent="0.3">
@@ -9157,10 +10066,10 @@
         <v>44890</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="4:6" x14ac:dyDescent="0.3">
@@ -9168,10 +10077,10 @@
         <v>44892</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -9183,10 +10092,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C100BFCA-CA2F-46D4-AF8F-8BF6353EE367}">
-  <dimension ref="B2:D13"/>
+  <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9213,34 +10122,34 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
+        <v>450</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>451</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
+        <v>467</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>468</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -9248,7 +10157,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>125</v>
@@ -9256,13 +10165,21 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C13" t="s">
+        <v>458</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>459</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>460</v>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>689</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -9273,9 +10190,10 @@
     <hyperlink ref="D13" r:id="rId4" xr:uid="{DCF01F14-0760-4090-BC71-48BAB6889664}"/>
     <hyperlink ref="D6" r:id="rId5" xr:uid="{68E1FACF-12E0-4D48-9588-121A64C4EB3A}"/>
     <hyperlink ref="D7" r:id="rId6" xr:uid="{2501302D-5586-4EA9-A3FA-FB85B21B74AE}"/>
+    <hyperlink ref="D14" r:id="rId7" display="https://www.amazon.in/D-Link-DIR-825-Dual-Band-Gigabit-Router/dp/B078L5J7G1/ref=asc_df_B078L5J7G1/?tag=googleshopdes-21&amp;linkCode=df0&amp;hvadid=396985973511&amp;hvpos=&amp;hvnetw=g&amp;hvrand=14444461617105573477&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=1007740&amp;hvtargid=pla-404895146134&amp;psc=1&amp;ext_vrnc=hi" xr:uid="{059CD93E-26EC-4B35-BDA3-83A22B50BB06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -9304,16 +10222,16 @@
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:7" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9321,13 +10239,13 @@
         <v>2022</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>144</v>
-      </c>
       <c r="D4" s="11" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -9349,13 +10267,13 @@
         <v>75</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>145</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="216" x14ac:dyDescent="0.3">
@@ -9363,13 +10281,13 @@
         <v>76</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="144" x14ac:dyDescent="0.3">
@@ -9377,13 +10295,13 @@
         <v>77</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.3">
@@ -9391,7 +10309,7 @@
         <v>78</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -9449,193 +10367,193 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D1" s="73" t="s">
-        <v>374</v>
-      </c>
-      <c r="E1" s="73" t="s">
+      <c r="D1" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>375</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>378</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="F1" s="73" t="s">
-        <v>379</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="H1" s="73" t="s">
-        <v>379</v>
+      <c r="H1" s="70" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="4:8" ht="331.2" x14ac:dyDescent="0.3">
       <c r="D2" s="41" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H2" s="40"/>
     </row>
     <row r="3" spans="4:8" ht="331.2" x14ac:dyDescent="0.3">
       <c r="D3" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="F3" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E3" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="F3" s="40" t="s">
+      <c r="G3" s="40" t="s">
         <v>389</v>
       </c>
-      <c r="G3" s="40" t="s">
-        <v>390</v>
-      </c>
       <c r="H3" s="40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="4:8" ht="360" x14ac:dyDescent="0.3">
       <c r="D4" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="E4" s="40" t="s">
         <v>391</v>
       </c>
-      <c r="E4" s="40" t="s">
-        <v>392</v>
-      </c>
       <c r="F4" s="40" t="s">
+        <v>426</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>427</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>394</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="5" spans="4:8" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="G5" s="40" t="s">
         <v>429</v>
       </c>
-      <c r="E5" s="40" t="s">
-        <v>431</v>
-      </c>
-      <c r="F5" s="40" t="s">
+      <c r="H5" s="6" t="s">
         <v>470</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>430</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="6" spans="4:8" ht="266.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6" s="41" t="s">
+        <v>471</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>558</v>
+      </c>
+      <c r="G6" s="40" t="s">
         <v>472</v>
       </c>
-      <c r="E6" s="40" t="s">
-        <v>474</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>566</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>473</v>
-      </c>
       <c r="H6" s="40" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="4:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="D7" s="41" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" spans="4:8" ht="201.6" x14ac:dyDescent="0.3">
       <c r="D8" s="41" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="4:8" ht="144" x14ac:dyDescent="0.3">
       <c r="D9" s="41" t="s">
+        <v>583</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>584</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>593</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="E9" s="40" t="s">
-        <v>592</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>601</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>599</v>
-      </c>
       <c r="H9" s="6" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="4:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="D10" s="41" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
     </row>
     <row r="11" spans="4:8" ht="144" x14ac:dyDescent="0.3">
       <c r="D11" s="41" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
     </row>
     <row r="12" spans="4:8" ht="172.8" x14ac:dyDescent="0.3">
       <c r="D12" s="41" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -9645,6 +10563,399 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108951A9-5574-4450-9E88-2E035139CCFB}">
+  <dimension ref="C1:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="8.88671875" style="41"/>
+    <col min="4" max="4" width="25.6640625" style="79" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" style="79" customWidth="1"/>
+    <col min="6" max="7" width="28.5546875" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C1" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H1" s="70" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C2" s="8">
+        <v>44927</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C3" s="8">
+        <v>44928</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>666</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C4" s="8">
+        <v>44929</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="8">
+        <v>44930</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C6" s="8">
+        <v>44931</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>693</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C7" s="8">
+        <v>44932</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="C8" s="8">
+        <v>44933</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>700</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="H8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="8">
+        <v>44934</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="8">
+        <v>44935</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="8">
+        <v>44936</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="8">
+        <v>44937</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="8">
+        <v>44938</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="8">
+        <v>44939</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="8">
+        <v>44940</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="8">
+        <v>44941</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="8">
+        <v>44942</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="8">
+        <v>44943</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="8">
+        <v>44944</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="8">
+        <v>44945</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="8">
+        <v>44946</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="8">
+        <v>44947</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="8">
+        <v>44948</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="8">
+        <v>44949</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="8">
+        <v>44950</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="8">
+        <v>44951</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="8">
+        <v>44952</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="8">
+        <v>44953</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="8">
+        <v>44954</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="8">
+        <v>44955</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C31" s="8">
+        <v>44956</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C32" s="8">
+        <v>44957</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:F35"/>
   <sheetViews>
@@ -10019,505 +11330,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB56A91C-BB34-4FBE-9778-8C93E26D0355}">
-  <dimension ref="B4:H34"/>
-  <sheetViews>
-    <sheetView topLeftCell="B30" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:C34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="47.21875" customWidth="1"/>
-    <col min="3" max="3" width="43.5546875" customWidth="1"/>
-    <col min="5" max="6" width="30.5546875" customWidth="1"/>
-    <col min="7" max="7" width="31.5546875" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="4:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="D5" s="8">
-        <v>44805</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="4:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D6" s="8">
-        <v>44806</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="4:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D7" s="8">
-        <v>44807</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D8" s="8">
-        <v>44808</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="D9" s="8">
-        <v>44809</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D10" s="8">
-        <v>44810</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D11" s="8">
-        <v>44811</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D12" s="8">
-        <v>44812</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D13" s="8">
-        <v>44813</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D14" s="8">
-        <v>44814</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D15" s="8">
-        <v>44815</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D16" s="8">
-        <v>44816</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D17" s="8">
-        <v>44817</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D18" s="8">
-        <v>44818</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D19" s="8">
-        <v>44819</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D20" s="8">
-        <v>44820</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D21" s="8">
-        <v>44821</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="D22" s="8">
-        <v>44822</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D23" s="8">
-        <v>44823</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="H23" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D24" s="8">
-        <v>44824</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="H24" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D25" s="8">
-        <v>44825</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="H25" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D26" s="8">
-        <v>44826</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="H26" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="8">
-        <v>44827</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="H27" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="8">
-        <v>44828</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="H28" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="8">
-        <v>44829</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="H29" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B30" s="80" t="s">
-        <v>154</v>
-      </c>
-      <c r="C30" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="D30" s="8">
-        <v>44830</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="H30" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="8">
-        <v>44831</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="H31" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="8">
-        <v>44832</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="8">
-        <v>44833</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="9"/>
-    </row>
-    <row r="34" spans="2:8" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="8">
-        <v>44834</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="H34" s="9">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="D4:H34" xr:uid="{AB56A91C-BB34-4FBE-9778-8C93E26D0355}"/>
-  <mergeCells count="2">
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="B30:B34"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/4_Daily Schedule/Daily_Schedule_2022.xlsx
+++ b/4_Daily Schedule/Daily_Schedule_2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adponlineind-my.sharepoint.com/personal/gangigua_es_ad_adp_com/Documents/Documents/2022/Amar_2022/4_Daily Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2593" documentId="13_ncr:1_{37DFCD91-C40D-4851-A7FF-D1781FDB40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2A41B89-663A-4592-A85D-96312AFDC39F}"/>
+  <xr:revisionPtr revIDLastSave="2758" documentId="13_ncr:1_{37DFCD91-C40D-4851-A7FF-D1781FDB40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C39A01E-7F28-4358-BBC2-996930BB47E9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="720">
   <si>
     <t>Date</t>
   </si>
@@ -1370,15 +1370,6 @@
     <t>Venu - chaitra bday</t>
   </si>
   <si>
-    <t>Cant act when its not convincing or doesn’t make sense</t>
-  </si>
-  <si>
-    <t>Cant switch from one immersive task to another immediately</t>
-  </si>
-  <si>
-    <t>Weaknesses - Biases</t>
-  </si>
-  <si>
     <t>Contact</t>
   </si>
   <si>
@@ -1495,9 +1486,6 @@
   <si>
     <t>Auto closure - WDAY
 Auto closure - SFSF</t>
-  </si>
-  <si>
-    <t>Cant lie, will avoid tough situations</t>
   </si>
   <si>
     <t>Scaler - sorting - HW
@@ -1520,12 +1508,6 @@
   <si>
     <t>Waking up
 Java AB</t>
-  </si>
-  <si>
-    <t>Triggers</t>
-  </si>
-  <si>
-    <t>Spiritual knowledge/Actions</t>
   </si>
   <si>
     <t>Ask great Questions that can disrupt the status quo?</t>
@@ -1778,18 +1760,6 @@
     <t>Buddi - Education</t>
   </si>
   <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Cascade watching / reading</t>
-  </si>
-  <si>
-    <t>If there's no option of avoiding, complete it faster and first</t>
-  </si>
-  <si>
-    <t>Trying and getting into new stuff</t>
-  </si>
-  <si>
     <t>Car Expenses</t>
   </si>
   <si>
@@ -1888,30 +1858,12 @@
 Scaler class - LinkedList</t>
   </si>
   <si>
-    <t>isha - mental vomiting</t>
-  </si>
-  <si>
-    <t>Resolution</t>
-  </si>
-  <si>
-    <t>Apply it but don’t consume</t>
-  </si>
-  <si>
-    <t>Lock your phone</t>
-  </si>
-  <si>
-    <t>Get reviews, data before trying</t>
-  </si>
-  <si>
     <t>Scaler - AM, HW
 Java AB</t>
   </si>
   <si>
     <t>performance - TS
 Auto closure - Demo</t>
-  </si>
-  <si>
-    <t>Sharing everything - mental vomiting</t>
   </si>
   <si>
     <t xml:space="preserve">Java AB
@@ -1922,10 +1874,6 @@
   <si>
     <t>Reopen - discussion
 meetings - Automation, SDE</t>
-  </si>
-  <si>
-    <t>Mind first, think &amp; respond
-Is it necessary for them or you ?</t>
   </si>
   <si>
     <t>Performance template
@@ -2613,32 +2561,7 @@
     <t>Rice takes 3-4 months to grow, 10 min to consume, Better value things before you lose them</t>
   </si>
   <si>
-    <t>Gathering - knowledge,books</t>
-  </si>
-  <si>
-    <t>Start execution, learn + apply + fail repeat</t>
-  </si>
-  <si>
-    <t>Uncertain -&gt; complex thoughts</t>
-  </si>
-  <si>
-    <t>short term thinking - pop up items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Will it be a learning for next 5-10 years ?
-Plan, replan - prioritize </t>
-  </si>
-  <si>
     <t>Go slowly but not backward - step by step, ferociously</t>
-  </si>
-  <si>
-    <t>Give Time utmost importance</t>
-  </si>
-  <si>
-    <t>Face them first with more energy</t>
-  </si>
-  <si>
-    <t>HP - isolation, long use of phone, repeating stuff or boreout,  place</t>
   </si>
   <si>
     <t>Having Unwavering faith + Brutal facts of reality &gt; Dreams</t>
@@ -2652,24 +2575,6 @@
     <t>Scaler AM, HW
 Scaler class - sorting 3
 Java AB</t>
-  </si>
-  <si>
-    <t>Strengths</t>
-  </si>
-  <si>
-    <t>More of mind, energy</t>
-  </si>
-  <si>
-    <t>problem solving, driving, games</t>
-  </si>
-  <si>
-    <t>Use cases</t>
-  </si>
-  <si>
-    <t>HP, Emotion</t>
-  </si>
-  <si>
-    <t>Organized, data gathering</t>
   </si>
   <si>
     <t>Java AB
@@ -2911,9 +2816,6 @@
     <t>Credit Card</t>
   </si>
   <si>
-    <t>D2I</t>
-  </si>
-  <si>
     <t>Scaler recording</t>
   </si>
   <si>
@@ -3043,6 +2945,191 @@
   <si>
     <t>All those who are supporting to make my life possible
 people who are working towards others well being</t>
+  </si>
+  <si>
+    <t>Scaler
+Java AB
+Problem solving
+Revise Contests
+Focus Areas:
+1. Revision scaler
+2. Revision Java AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reopen testing - functional and performance
+Q3 features
+Adhoc tasks
+</t>
+  </si>
+  <si>
+    <t>Reopen testing - FT2</t>
+  </si>
+  <si>
+    <t>Scaler missed classes and problems
+Revise Scaler
+Revise Java AB
+Revise contests</t>
+  </si>
+  <si>
+    <t>Jan 1- Jan 7</t>
+  </si>
+  <si>
+    <t>Jan 8 - Jan 14</t>
+  </si>
+  <si>
+    <t>Continue Scaler activities
+Revise Scaler Advanced</t>
+  </si>
+  <si>
+    <t>Complete Reopen
+Finalize on leverage activities and delegation</t>
+  </si>
+  <si>
+    <t>Scaler problems
+Scaler contest 3
+Scaler revision</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Food cravings</t>
+  </si>
+  <si>
+    <t>Balance between
+work,rest and family</t>
+  </si>
+  <si>
+    <t>Scaler Revision
+Scaler problems</t>
+  </si>
+  <si>
+    <t>Physio</t>
+  </si>
+  <si>
+    <t>Speech</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Save the children - HDFC</t>
+  </si>
+  <si>
+    <t>Splint</t>
+  </si>
+  <si>
+    <t>Reopen FT2 testing
+Performance - multifile
+Regression - FT2</t>
+  </si>
+  <si>
+    <t>Reopen practices</t>
+  </si>
+  <si>
+    <t>Scaler Revision
+Scaler class</t>
+  </si>
+  <si>
+    <t>Prod issues - 2
+Regression FT2
+Q3 tasks</t>
+  </si>
+  <si>
+    <t>HP monitors</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/HP-M27f-Micro-Edge-Monitor-FHD/dp/B095362K3K/ref=sr_1_3?crid=22MQ6CJ7D224M&amp;keywords=hp%2Beye%2Bease%2Bmonitor%2B27%2Binch&amp;qid=1673345126&amp;sprefix=hp%2Beye%2Bease%2Bmonitor%2B27%2Binch%2B%2Caps%2C348&amp;sr=8-3&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/HP-23-8-inch-Ultra-Slim-Monitor-Built/dp/B08B6BYCNB/ref=sr_1_3?crid=1FZ06FIXHYKUQ&amp;keywords=hp24mh+monitor&amp;qid=1673345397&amp;sprefix=hp24m%2Caps%2C526&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>Expenses - next</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Acer-HA270-Awmi-27-inch-Monitor/dp/B07JD7GKJP/ref=sr_1_4?crid=3FA7KGZ546KKS&amp;keywords=acer+led+monitor&amp;qid=1673346087&amp;sprefix=acer+led+monitor%2Caps%2C264&amp;sr=8-4</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>3 antenna router + net plan upgrade</t>
+  </si>
+  <si>
+    <t>Monitor - 27 - Acer/HP</t>
+  </si>
+  <si>
+    <t>Scaler AM, HW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance testing - multifile upload
+QA meeting
+</t>
+  </si>
+  <si>
+    <t>Scaler AM, HW
+Scaler class
+Scaler revision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi file performance
+</t>
+  </si>
+  <si>
+    <t>Lifestyle</t>
+  </si>
+  <si>
+    <t>Food - Vegetarian</t>
+  </si>
+  <si>
+    <t>No outdoor games</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No snacking in between, drink Hot water </t>
+  </si>
+  <si>
+    <t>Bath before sunset</t>
+  </si>
+  <si>
+    <t>Dinner early</t>
+  </si>
+  <si>
+    <t>No going out in the heat, car + AC</t>
+  </si>
+  <si>
+    <t>Early to rise by 5-6 AM</t>
+  </si>
+  <si>
+    <t>Scaler AM
+Scaler Revision
+Relatives
+Sowmya appointment
+Buddi splint</t>
+  </si>
+  <si>
+    <t>Neck and shoulder exercises</t>
+  </si>
+  <si>
+    <t>Focus Areas</t>
+  </si>
+  <si>
+    <t>Samarth Raipuriya</t>
+  </si>
+  <si>
+    <t>Scaler class
+Scaler AM, HW
+Scaler revision
+Problem solving</t>
+  </si>
+  <si>
+    <t>Cleaning</t>
+  </si>
+  <si>
+    <t>Keyboard and mouse</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Logitech-MK275-Wireless-Keyboard-Mouse/dp/B06X3YC1MD/ref=sr_1_8?keywords=wireless+keyboard+and+mouse+logitech&amp;qid=1673710837&amp;sprefix=wireless+keyboard+and+mouse+%2Caps%2C386&amp;sr=8-8</t>
   </si>
 </sst>
 </file>
@@ -3404,7 +3491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3606,6 +3693,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3685,6 +3793,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3950,308 +4062,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA509AD-6BFB-4A4B-8912-D9F90D9DDB5C}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="52.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="6" customWidth="1"/>
-    <col min="6" max="6" width="35.109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="11" style="6" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="89.5546875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="54.5546875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="6"/>
+    <col min="3" max="4" width="6.77734375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="35.77734375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11" style="6" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="6"/>
+    <col min="8" max="8" width="77.21875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="54.5546875" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="D1" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>412</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="D2" s="19">
+        <v>398</v>
+      </c>
+      <c r="G2" s="19">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="H2" s="19">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="D3" s="19">
+        <v>399</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="G3" s="19">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="H3" s="19">
-        <v>2</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D4" s="19">
+        <v>1</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>705</v>
+      </c>
+      <c r="G4" s="19">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="H4" s="19">
-        <v>3</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D5" s="19">
+        <v>2</v>
+      </c>
+      <c r="E5" s="85" t="s">
+        <v>706</v>
+      </c>
+      <c r="G5" s="22">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="H5" s="22">
-        <v>4</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="D6" s="9">
+        <v>402</v>
+      </c>
+      <c r="D6" s="19">
+        <v>3</v>
+      </c>
+      <c r="E6" s="85" t="s">
+        <v>707</v>
+      </c>
+      <c r="G6" s="19">
         <v>5</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="H6" s="19">
-        <v>5</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="D7" s="9">
+        <v>581</v>
+      </c>
+      <c r="D7" s="19">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="G7" s="19">
         <v>6</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>603</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="H7" s="19">
-        <v>6</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="22">
         <v>7</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D8" s="19">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="G8" s="19">
         <v>7</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="H8" s="19">
+      <c r="H8" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D9" s="19">
+        <v>6</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D10" s="19">
         <v>7</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E10" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D11" s="19">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="19">
+      <c r="G12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>437</v>
-      </c>
       <c r="H12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="19">
-        <v>2</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="H13" s="19">
+      <c r="G13" s="19">
         <v>1</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H13" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="D14" s="19">
-        <v>3</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="H14" s="19">
+        <v>628</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="G14" s="19">
         <v>2</v>
       </c>
-      <c r="I14" s="16" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H14" s="16" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>4</v>
       </c>
@@ -4259,144 +4319,86 @@
         <v>11</v>
       </c>
       <c r="D15" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="H15" s="19">
+        <v>704</v>
+      </c>
+      <c r="G15" s="19">
         <v>3</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="D16" s="19">
-        <v>5</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="H16" s="19">
+        <v>584</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="G16" s="19">
         <v>4</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="D17" s="19">
-        <v>6</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>616</v>
-      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="D20" s="19">
-        <v>1</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>614</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="D21" s="19">
-        <v>2</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>618</v>
-      </c>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D22" s="19">
-        <v>3</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D23" s="19"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D24" s="19"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D25" s="19"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+        <v>627</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4806,10 +4808,10 @@
       </c>
     </row>
     <row r="30" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B30" s="87" t="s">
+      <c r="B30" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="87" t="s">
+      <c r="C30" s="94" t="s">
         <v>152</v>
       </c>
       <c r="D30" s="8">
@@ -4827,8 +4829,8 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
       <c r="D31" s="8">
         <v>44831</v>
       </c>
@@ -4844,16 +4846,16 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
       <c r="D32" s="8">
         <v>44832</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="9">
@@ -4861,34 +4863,34 @@
       </c>
     </row>
     <row r="33" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
       <c r="D33" s="8">
         <v>44833</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="2:8" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
       <c r="D34" s="8">
         <v>44834</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H34" s="9">
         <v>1</v>
@@ -4942,11 +4944,11 @@
         <v>44835</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L4" s="10">
         <v>1</v>
@@ -4957,11 +4959,11 @@
         <v>44836</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="L5" s="9">
         <v>2</v>
@@ -4972,11 +4974,11 @@
         <v>44837</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="L6" s="9">
         <v>2</v>
@@ -4987,11 +4989,11 @@
         <v>44838</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="3" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="L7" s="9">
         <v>2</v>
@@ -5002,11 +5004,11 @@
         <v>44839</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L8" s="9">
         <v>1</v>
@@ -5017,11 +5019,11 @@
         <v>44840</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L9" s="9">
         <v>1</v>
@@ -5032,13 +5034,13 @@
         <v>44841</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L10" s="9">
         <v>2</v>
@@ -5049,11 +5051,11 @@
         <v>44842</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L11" s="9">
         <v>2</v>
@@ -5064,11 +5066,11 @@
         <v>44843</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="16" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="L12" s="9">
         <v>2</v>
@@ -5079,10 +5081,10 @@
         <v>44844</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="9">
@@ -5094,10 +5096,10 @@
         <v>44845</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="K14" s="17"/>
       <c r="L14" s="9">
@@ -5109,10 +5111,10 @@
         <v>44846</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K15" s="17"/>
       <c r="L15" s="9">
@@ -5124,7 +5126,7 @@
         <v>44847</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
@@ -5137,10 +5139,10 @@
         <v>44848</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="K17" s="17"/>
       <c r="L17" s="9">
@@ -5152,7 +5154,7 @@
         <v>44849</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
@@ -5166,7 +5168,7 @@
         <v>44850</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
@@ -5180,10 +5182,10 @@
         <v>44851</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="K20" s="17"/>
       <c r="L20" s="9">
@@ -5195,10 +5197,10 @@
         <v>44852</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="K21" s="17"/>
       <c r="L21" s="9">
@@ -5210,10 +5212,10 @@
         <v>44853</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="K22" s="17"/>
       <c r="L22" s="9">
@@ -5225,10 +5227,10 @@
         <v>44854</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="K23" s="17"/>
       <c r="L23" s="9">
@@ -5240,10 +5242,10 @@
         <v>44855</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="K24" s="17"/>
       <c r="L24" s="9">
@@ -5255,7 +5257,7 @@
         <v>44856</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
@@ -5268,7 +5270,7 @@
         <v>44857</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
@@ -5281,7 +5283,7 @@
         <v>44858</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
@@ -5294,7 +5296,7 @@
         <v>44859</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
@@ -5307,10 +5309,10 @@
         <v>44860</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="K29" s="17"/>
       <c r="L29" s="9">
@@ -5322,7 +5324,7 @@
         <v>44861</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
@@ -5335,7 +5337,7 @@
         <v>44862</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
@@ -5348,7 +5350,7 @@
         <v>44863</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
@@ -5361,7 +5363,7 @@
         <v>44864</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
@@ -5374,10 +5376,10 @@
         <v>44865</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="K34" s="17"/>
       <c r="L34" s="9">
@@ -5434,13 +5436,13 @@
         <v>44866</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="I2" s="10">
         <v>2</v>
@@ -5451,13 +5453,13 @@
         <v>44867</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="I3" s="9">
         <v>1</v>
@@ -5468,11 +5470,11 @@
         <v>44868</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="3" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="I4" s="9">
         <v>2</v>
@@ -5483,11 +5485,11 @@
         <v>44869</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="3" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="I5" s="9">
         <v>1</v>
@@ -5498,11 +5500,11 @@
         <v>44870</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="I6" s="9">
         <v>2</v>
@@ -5513,11 +5515,11 @@
         <v>44871</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="I7" s="9">
         <v>2</v>
@@ -5528,10 +5530,10 @@
         <v>44872</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="9">
@@ -5543,10 +5545,10 @@
         <v>44873</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="9">
@@ -5558,10 +5560,10 @@
         <v>44874</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="9">
@@ -5573,11 +5575,11 @@
         <v>44875</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="3" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="I11" s="9">
         <v>1</v>
@@ -5588,13 +5590,13 @@
         <v>44876</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="I12" s="9">
         <v>2</v>
@@ -5605,11 +5607,11 @@
         <v>44877</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="3" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="I13" s="9">
         <v>2</v>
@@ -5620,11 +5622,11 @@
         <v>44878</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="3" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="I14" s="9">
         <v>1</v>
@@ -5635,10 +5637,10 @@
         <v>44879</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="9">
@@ -5650,13 +5652,13 @@
         <v>44880</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I16" s="9">
         <v>1</v>
@@ -5667,13 +5669,13 @@
         <v>44881</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I17" s="9">
         <v>1</v>
@@ -5684,7 +5686,7 @@
         <v>44882</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -5697,13 +5699,13 @@
         <v>44883</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="I19" s="9">
         <v>1</v>
@@ -5714,7 +5716,7 @@
         <v>44884</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -5727,11 +5729,11 @@
         <v>44885</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="I21" s="9">
         <v>2</v>
@@ -5742,7 +5744,7 @@
         <v>44886</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -5755,7 +5757,7 @@
         <v>44887</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -5768,7 +5770,7 @@
         <v>44888</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -5781,11 +5783,11 @@
         <v>44889</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="I25" s="9">
         <v>2</v>
@@ -5796,11 +5798,11 @@
         <v>44890</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="I26" s="9">
         <v>1</v>
@@ -5811,7 +5813,7 @@
         <v>44891</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -5824,11 +5826,11 @@
         <v>44892</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="I28" s="9">
         <v>2</v>
@@ -5839,7 +5841,7 @@
         <v>44893</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -5852,7 +5854,7 @@
         <v>44894</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -5865,7 +5867,7 @@
         <v>44895</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4" t="s">
@@ -5920,13 +5922,13 @@
         <v>44896</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>620</v>
+        <v>589</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>621</v>
+        <v>590</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>622</v>
+        <v>591</v>
       </c>
       <c r="I2" s="10">
         <v>2</v>
@@ -5937,13 +5939,13 @@
         <v>44897</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>624</v>
+        <v>593</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>623</v>
+        <v>592</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>622</v>
+        <v>591</v>
       </c>
       <c r="I3" s="9">
         <v>1</v>
@@ -5954,11 +5956,11 @@
         <v>44898</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="16" t="s">
-        <v>626</v>
+        <v>595</v>
       </c>
       <c r="I4" s="9">
         <v>2</v>
@@ -5969,11 +5971,11 @@
         <v>44899</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>627</v>
+        <v>596</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="16" t="s">
-        <v>626</v>
+        <v>595</v>
       </c>
       <c r="I5" s="9">
         <v>2</v>
@@ -5984,13 +5986,13 @@
         <v>44900</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>636</v>
+        <v>605</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>637</v>
+        <v>606</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
       <c r="I6" s="9">
         <v>2</v>
@@ -6001,10 +6003,10 @@
         <v>44901</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>639</v>
+        <v>608</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="9">
@@ -6016,13 +6018,13 @@
         <v>44902</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>642</v>
+        <v>611</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>641</v>
+        <v>610</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="I8" s="9">
         <v>2</v>
@@ -6033,7 +6035,7 @@
         <v>44903</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>643</v>
+        <v>612</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -6046,11 +6048,11 @@
         <v>44904</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="16" t="s">
-        <v>645</v>
+        <v>614</v>
       </c>
       <c r="I10" s="9">
         <v>2</v>
@@ -6061,10 +6063,10 @@
         <v>44905</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>646</v>
+        <v>615</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="9">
@@ -6076,7 +6078,7 @@
         <v>44906</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>653</v>
+        <v>622</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
@@ -6089,7 +6091,7 @@
         <v>44907</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>654</v>
+        <v>623</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -6102,10 +6104,10 @@
         <v>44908</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>656</v>
+        <v>625</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>655</v>
+        <v>624</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="9">
@@ -6117,7 +6119,7 @@
         <v>44909</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>657</v>
+        <v>626</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -6127,12 +6129,12 @@
       <c r="E16" s="69">
         <v>44910</v>
       </c>
-      <c r="F16" s="91" t="s">
-        <v>660</v>
-      </c>
-      <c r="G16" s="92"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="88">
+      <c r="F16" s="98" t="s">
+        <v>629</v>
+      </c>
+      <c r="G16" s="99"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="95">
         <v>2</v>
       </c>
     </row>
@@ -6140,144 +6142,144 @@
       <c r="E17" s="69">
         <v>44911</v>
       </c>
-      <c r="F17" s="94"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="89"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="96"/>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E18" s="69">
         <v>44912</v>
       </c>
-      <c r="F18" s="94"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="89"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="96"/>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E19" s="69">
         <v>44913</v>
       </c>
-      <c r="F19" s="94"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="89"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="96"/>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E20" s="69">
         <v>44914</v>
       </c>
-      <c r="F20" s="94"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="89"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="96"/>
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E21" s="69">
         <v>44915</v>
       </c>
-      <c r="F21" s="94"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="89"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="96"/>
     </row>
     <row r="22" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E22" s="69">
         <v>44916</v>
       </c>
-      <c r="F22" s="94"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="89"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="96"/>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E23" s="69">
         <v>44917</v>
       </c>
-      <c r="F23" s="94"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="89"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="96"/>
     </row>
     <row r="24" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E24" s="69">
         <v>44918</v>
       </c>
-      <c r="F24" s="94"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="89"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="96"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E25" s="69">
         <v>44919</v>
       </c>
-      <c r="F25" s="94"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="89"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="96"/>
     </row>
     <row r="26" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E26" s="69">
         <v>44920</v>
       </c>
-      <c r="F26" s="94"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="89"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="96"/>
     </row>
     <row r="27" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E27" s="69">
         <v>44921</v>
       </c>
-      <c r="F27" s="94"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="90"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="97"/>
     </row>
     <row r="28" spans="5:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E28" s="69">
         <v>44922</v>
       </c>
-      <c r="F28" s="94"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="96"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="103"/>
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E29" s="69">
         <v>44923</v>
       </c>
-      <c r="F29" s="94"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="96"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="103"/>
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E30" s="69">
         <v>44924</v>
       </c>
-      <c r="F30" s="94"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="96"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="103"/>
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E31" s="69">
         <v>44925</v>
       </c>
-      <c r="F31" s="94"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="96"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="103"/>
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E32" s="69">
         <v>44926</v>
       </c>
-      <c r="F32" s="97"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="99"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="106"/>
       <c r="I32" s="9"/>
     </row>
   </sheetData>
@@ -6294,12 +6296,12 @@
   <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.88671875" style="6"/>
     <col min="4" max="4" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.88671875" style="6"/>
@@ -6325,39 +6327,39 @@
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="65" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="U1" s="65" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="V1" s="65" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="W1" s="65" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="X1" s="65" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="Y1" s="65" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>661</v>
+        <v>630</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="G2" s="80" t="s">
+      <c r="E2" s="87"/>
+      <c r="G2" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="80"/>
+      <c r="H2" s="87"/>
       <c r="J2" s="5" t="s">
         <v>135</v>
       </c>
@@ -6365,7 +6367,7 @@
         <v>12</v>
       </c>
       <c r="M2" s="46" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="N2" s="46" t="s">
         <v>12</v>
@@ -6374,7 +6376,7 @@
       <c r="P2"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="66" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="S2" s="49">
         <v>2098748</v>
@@ -6401,7 +6403,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>662</v>
+        <v>631</v>
       </c>
       <c r="B3" s="4">
         <v>62000</v>
@@ -6419,13 +6421,13 @@
         <v>12</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="K3" s="4">
         <v>20000</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="N3" s="4">
         <v>24000</v>
@@ -6433,10 +6435,10 @@
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3" s="4" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="R3" s="67" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="S3" s="4">
         <v>77630</v>
@@ -6449,12 +6451,8 @@
       <c r="Y3" s="4"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="B4" s="4">
-        <v>50000</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
       <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
@@ -6468,13 +6466,13 @@
         <v>60000</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="K4" s="4">
         <v>25000</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="N4" s="4">
         <v>8000</v>
@@ -6482,7 +6480,7 @@
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4" s="4" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="R4" s="66" t="s">
         <v>41</v>
@@ -6499,6 +6497,12 @@
       <c r="Y4" s="4"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="B5" s="4">
+        <v>30000</v>
+      </c>
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
@@ -6512,13 +6516,13 @@
         <v>12000</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="K5" s="4">
         <v>35000</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="N5" s="4">
         <v>14000</v>
@@ -6526,10 +6530,10 @@
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5" s="4" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="R5" s="66" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="S5" s="4">
         <f>(S3*0.2)</f>
@@ -6543,6 +6547,12 @@
       <c r="Y5" s="4"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="B6" s="4">
+        <v>15000</v>
+      </c>
       <c r="D6" s="43" t="s">
         <v>23</v>
       </c>
@@ -6556,13 +6566,13 @@
         <v>8260</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="K6" s="4">
         <v>20000</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="N6" s="4">
         <v>15000</v>
@@ -6570,10 +6580,10 @@
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6" s="4" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="R6" s="66" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="S6" s="4">
         <v>33532</v>
@@ -6586,23 +6596,33 @@
       <c r="Y6" s="4"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="A7" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="B7" s="4">
+        <v>150000</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="43">
+        <v>10000</v>
+      </c>
       <c r="G7" s="4" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H7" s="4">
         <f>(699+599+1399+499+400)</f>
         <v>3596</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="K7" s="4">
         <v>10000</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="N7" s="4">
         <v>8000</v>
@@ -6610,10 +6630,10 @@
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7" s="63" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="R7" s="66" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="S7" s="4">
         <v>3000</v>
@@ -6626,20 +6646,26 @@
       <c r="Y7" s="4"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="4">
+        <v>10000</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="4">
         <v>500</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="84">
         <v>50000</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="K8" s="4">
         <v>20000</v>
@@ -6649,7 +6675,7 @@
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8" s="4" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="R8" s="66" t="s">
         <v>41</v>
@@ -6665,6 +6691,12 @@
       <c r="Y8" s="4"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3800</v>
+      </c>
       <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
@@ -6689,16 +6721,23 @@
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9" s="4" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="R9" s="66" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="S9" s="4">
         <v>3764</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="56">
+        <f>SUM(B3:B9)</f>
+        <v>270800</v>
+      </c>
       <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
@@ -6714,10 +6753,10 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="Q10" s="4" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="R10" s="66" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="S10" s="4">
         <v>9316</v>
@@ -6739,19 +6778,25 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="M11" s="46" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="N11" s="46" t="s">
         <v>12</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="R11" s="64" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="80" t="s">
+        <v>695</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>697</v>
+      </c>
       <c r="D12" s="4" t="s">
         <v>21</v>
       </c>
@@ -6772,7 +6817,7 @@
         <v>130000</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="N12" s="4">
         <f>(250*12*12)</f>
@@ -6780,6 +6825,10 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B13" s="4"/>
       <c r="D13" s="4" t="s">
         <v>22</v>
       </c>
@@ -6793,29 +6842,33 @@
         <v>10000</v>
       </c>
       <c r="J13" s="71" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="K13" s="72">
         <f>SUM(H18+K12)</f>
-        <v>259306</v>
+        <v>269306</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="N13" s="4">
         <v>20000</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="R13" s="66" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="S13" s="4">
         <v>33532</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B14" s="4"/>
       <c r="D14" s="4" t="s">
         <v>24</v>
       </c>
@@ -6829,29 +6882,31 @@
         <v>5000</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="K14" s="49">
         <f>K13/0.6</f>
-        <v>432176.66666666669</v>
+        <v>448843.33333333337</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="N14" s="4">
         <v>120000</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="R14" s="66" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="S14" s="4">
         <v>3764</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
       <c r="D15" s="4" t="s">
         <v>26</v>
       </c>
@@ -6859,39 +6914,41 @@
         <v>5000</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="H15" s="4">
         <v>15000</v>
       </c>
       <c r="I15" s="73" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="J15" s="71" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="K15" s="72">
         <f>(K14/0.88)*12</f>
-        <v>5893318.1818181816</v>
+        <v>6120590.9090909101</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="N15" s="4">
         <f>(18*1000)</f>
         <v>18000</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="R15" s="66" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="S15" s="4">
         <v>9316</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
@@ -6906,23 +6963,23 @@
         <v>164856</v>
       </c>
       <c r="I16" s="73" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="K16" s="4">
         <v>350000</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="N16" s="4">
         <f>(40*400)</f>
         <v>16000</v>
       </c>
     </row>
-    <row r="17" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D17" s="4" t="s">
         <v>28</v>
       </c>
@@ -6938,7 +6995,7 @@
       </c>
       <c r="I17" s="73"/>
       <c r="J17" s="4" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="K17" s="4">
         <v>250000</v>
@@ -6946,7 +7003,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" s="4" t="s">
         <v>29</v>
       </c>
@@ -6958,7 +7015,7 @@
       </c>
       <c r="H18" s="55">
         <f>SUM(H17,E21)</f>
-        <v>129306</v>
+        <v>139306</v>
       </c>
       <c r="I18" s="73"/>
       <c r="J18" s="4"/>
@@ -6966,7 +7023,10 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="83" t="s">
+        <v>686</v>
+      </c>
       <c r="D19" s="4" t="s">
         <v>30</v>
       </c>
@@ -6975,21 +7035,24 @@
       </c>
       <c r="I19" s="73"/>
       <c r="J19" s="56" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="K19" s="57">
         <f>SUM(K13+K16+K18+K17)</f>
-        <v>859306</v>
+        <v>869306</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="N19" s="4">
         <f>(50000+300000+45*500)</f>
         <v>372500</v>
       </c>
     </row>
-    <row r="20" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="82">
+        <v>44935</v>
+      </c>
       <c r="D20" s="58" t="s">
         <v>39</v>
       </c>
@@ -7004,11 +7067,11 @@
       </c>
       <c r="I20" s="73"/>
       <c r="J20" s="4" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="K20" s="68">
         <f>(K19/0.6)</f>
-        <v>1432176.6666666667</v>
+        <v>1448843.3333333335</v>
       </c>
       <c r="M20" s="47" t="s">
         <v>16</v>
@@ -7018,13 +7081,13 @@
         <v>582500</v>
       </c>
     </row>
-    <row r="21" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="52" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="53">
         <f>SUM(E4:E20)</f>
-        <v>115568</v>
+        <v>125568</v>
       </c>
       <c r="G21" s="58" t="s">
         <v>41</v>
@@ -7034,14 +7097,14 @@
       </c>
       <c r="I21" s="73"/>
       <c r="J21" s="56" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="K21" s="57">
         <f>(K20/0.88)*12</f>
-        <v>19529681.81818182</v>
-      </c>
-    </row>
-    <row r="22" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>19756954.545454547</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G22" s="61" t="s">
         <v>40</v>
       </c>
@@ -7050,10 +7113,10 @@
         <v>134738</v>
       </c>
       <c r="I22" s="74" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="J22" s="43" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="K22" s="63">
         <v>0.23</v>
@@ -7061,9 +7124,9 @@
       <c r="M22" s="46"/>
       <c r="N22" s="46"/>
     </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="J23" s="43" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="K23" s="63">
         <v>0.34</v>
@@ -7071,28 +7134,28 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="J24" s="64"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M28" s="47"/>
       <c r="N28" s="47"/>
     </row>
-    <row r="29" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M29" s="47"/>
       <c r="N29" s="47"/>
     </row>
@@ -7113,8 +7176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793109CE-B9DA-4197-A068-6AFB5BC24F21}">
   <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7132,30 +7195,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="90" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="F1" s="83" t="s">
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="F1" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="I1" s="82" t="s">
+      <c r="G1" s="90"/>
+      <c r="I1" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="M1" s="82" t="s">
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="M1" s="89" t="s">
         <v>215</v>
       </c>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="Q1" s="83" t="s">
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="Q1" s="90" t="s">
         <v>232</v>
       </c>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
@@ -7423,7 +7486,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q9" s="7">
         <v>7</v>
@@ -7436,11 +7499,11 @@
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="90" t="s">
         <v>213</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
       <c r="Q10" s="7">
         <v>8</v>
       </c>
@@ -7508,7 +7571,7 @@
         <v>236</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>244</v>
@@ -7540,7 +7603,7 @@
         <v>237</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>171</v>
@@ -7560,11 +7623,11 @@
       <c r="S14" s="17"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="91" t="s">
         <v>214</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="86"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
       <c r="I15" s="30">
         <v>44568</v>
       </c>
@@ -7572,7 +7635,7 @@
         <v>313</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>299</v>
@@ -7599,10 +7662,10 @@
         <v>44935</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>695</v>
+        <v>663</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -7628,7 +7691,7 @@
         <v>238</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>172</v>
@@ -7643,48 +7706,53 @@
         <v>14</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>692</v>
+        <v>660</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>690</v>
+        <v>658</v>
       </c>
       <c r="T17" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B18" s="7">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="19">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="86">
         <v>44572</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="M18" s="1" t="s">
+      <c r="K18" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="19">
         <v>15</v>
       </c>
       <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
+      <c r="S18" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="7">
@@ -7700,17 +7768,17 @@
         <v>44585</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>183</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q19" s="7">
         <v>16</v>
@@ -7728,19 +7796,19 @@
         <v>44587</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="Q20" s="7">
         <v>17</v>
@@ -7761,7 +7829,7 @@
         <v>243</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>157</v>
@@ -7791,7 +7859,7 @@
         <v>316</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>296</v>
@@ -7819,7 +7887,7 @@
         <v>240</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>155</v>
@@ -7835,11 +7903,11 @@
       <c r="S23" s="17"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="90" t="s">
         <v>216</v>
       </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
       <c r="I24" s="31">
         <v>44595</v>
       </c>
@@ -7847,7 +7915,7 @@
         <v>241</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>306</v>
@@ -7876,19 +7944,19 @@
         <v>44595</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="Q25" s="7">
         <v>22</v>
@@ -7913,7 +7981,7 @@
         <v>267</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>310</v>
@@ -7940,7 +8008,7 @@
         <v>242</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>163</v>
@@ -7960,16 +8028,16 @@
         <v>44611</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>168</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="O28" s="1"/>
     </row>
@@ -7985,19 +8053,19 @@
         <v>44627</v>
       </c>
       <c r="J29" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.3">
@@ -8008,16 +8076,16 @@
         <v>44628</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="O30" s="1"/>
     </row>
@@ -8026,10 +8094,10 @@
         <v>44628</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -8052,7 +8120,7 @@
         <v>266</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>164</v>
@@ -8077,16 +8145,16 @@
         <v>252</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>185</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -8106,13 +8174,13 @@
         <v>253</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>201</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="O34" s="1"/>
     </row>
@@ -8133,7 +8201,7 @@
         <v>254</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>161</v>
@@ -8160,7 +8228,7 @@
         <v>255</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -8183,7 +8251,7 @@
         <v>256</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -8204,7 +8272,7 @@
         <v>265</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -8225,7 +8293,7 @@
         <v>257</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -8241,10 +8309,10 @@
         <v>44705</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -8261,7 +8329,7 @@
         <v>264</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -8275,7 +8343,7 @@
         <v>258</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -8289,18 +8357,18 @@
         <v>259</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="81" t="s">
-        <v>667</v>
-      </c>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
+      <c r="B44" s="88" t="s">
+        <v>635</v>
+      </c>
+      <c r="C44" s="88"/>
+      <c r="D44" s="88"/>
       <c r="I44" s="35">
         <v>44719</v>
       </c>
@@ -8308,7 +8376,7 @@
         <v>260</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -8325,38 +8393,38 @@
         <v>44722</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>668</v>
+        <v>636</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>669</v>
+        <v>637</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>670</v>
+        <v>638</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>671</v>
+        <v>639</v>
       </c>
       <c r="I46" s="35">
         <v>44728</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
-        <v>672</v>
+        <v>640</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>311</v>
@@ -8368,10 +8436,10 @@
         <v>44729</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -8385,18 +8453,18 @@
         <v>261</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
-        <v>673</v>
+        <v>641</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>675</v>
+        <v>643</v>
       </c>
       <c r="I49" s="35">
         <v>44735</v>
@@ -8405,7 +8473,7 @@
         <v>262</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
@@ -8416,15 +8484,15 @@
         <v>44740</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -8438,11 +8506,11 @@
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>682</v>
+        <v>650</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>677</v>
+        <v>645</v>
       </c>
       <c r="I52" s="36">
         <v>44743</v>
@@ -8451,7 +8519,7 @@
         <v>268</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
@@ -8465,16 +8533,16 @@
         <v>301</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
-        <v>678</v>
+        <v>646</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="18" t="s">
-        <v>679</v>
+        <v>647</v>
       </c>
       <c r="I54" s="36">
         <v>44756</v>
@@ -8486,10 +8554,10 @@
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
-        <v>680</v>
+        <v>648</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>681</v>
+        <v>649</v>
       </c>
       <c r="D55" s="1"/>
       <c r="I55" s="36">
@@ -8499,16 +8567,16 @@
         <v>270</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>683</v>
+        <v>651</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="18" t="s">
-        <v>684</v>
+        <v>652</v>
       </c>
       <c r="I56" s="36">
         <v>44762</v>
@@ -8517,7 +8585,7 @@
         <v>302</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
@@ -8531,7 +8599,7 @@
         <v>271</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
@@ -8545,7 +8613,7 @@
         <v>272</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
@@ -8559,7 +8627,7 @@
         <v>273</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
@@ -8567,10 +8635,10 @@
         <v>44782</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
@@ -8581,7 +8649,7 @@
         <v>303</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
@@ -8592,7 +8660,7 @@
         <v>274</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
@@ -8603,7 +8671,7 @@
         <v>275</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
@@ -8614,7 +8682,7 @@
         <v>288</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="65" spans="9:11" x14ac:dyDescent="0.3">
@@ -8625,7 +8693,7 @@
         <v>289</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="66" spans="9:11" x14ac:dyDescent="0.3">
@@ -8636,7 +8704,7 @@
         <v>294</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" spans="9:11" x14ac:dyDescent="0.3">
@@ -8647,7 +8715,7 @@
         <v>276</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="68" spans="9:11" x14ac:dyDescent="0.3">
@@ -8658,7 +8726,7 @@
         <v>284</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="69" spans="9:11" x14ac:dyDescent="0.3">
@@ -8666,10 +8734,10 @@
         <v>44809</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="70" spans="9:11" x14ac:dyDescent="0.3">
@@ -8680,7 +8748,7 @@
         <v>178</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="71" spans="9:11" x14ac:dyDescent="0.3">
@@ -8688,10 +8756,10 @@
         <v>44813</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="9:11" x14ac:dyDescent="0.3">
@@ -8702,7 +8770,7 @@
         <v>295</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73" spans="9:11" x14ac:dyDescent="0.3">
@@ -8710,10 +8778,10 @@
         <v>44823</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="9:11" x14ac:dyDescent="0.3">
@@ -8721,10 +8789,10 @@
         <v>44826</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="75" spans="9:11" x14ac:dyDescent="0.3">
@@ -8732,10 +8800,10 @@
         <v>44837</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="76" spans="9:11" x14ac:dyDescent="0.3">
@@ -8746,7 +8814,7 @@
         <v>277</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="9:11" x14ac:dyDescent="0.3">
@@ -8757,7 +8825,7 @@
         <v>278</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="9:11" x14ac:dyDescent="0.3">
@@ -8768,7 +8836,7 @@
         <v>283</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="79" spans="9:11" x14ac:dyDescent="0.3">
@@ -8776,10 +8844,10 @@
         <v>44846</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="9:11" x14ac:dyDescent="0.3">
@@ -8790,7 +8858,7 @@
         <v>279</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="81" spans="9:11" x14ac:dyDescent="0.3">
@@ -8810,7 +8878,7 @@
         <v>281</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="83" spans="9:11" x14ac:dyDescent="0.3">
@@ -8821,7 +8889,7 @@
         <v>282</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="84" spans="9:11" x14ac:dyDescent="0.3">
@@ -8832,7 +8900,7 @@
         <v>285</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="85" spans="9:11" x14ac:dyDescent="0.3">
@@ -8843,7 +8911,7 @@
         <v>286</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="86" spans="9:11" x14ac:dyDescent="0.3">
@@ -8851,10 +8919,10 @@
         <v>44864</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="87" spans="9:11" x14ac:dyDescent="0.3">
@@ -8865,7 +8933,7 @@
         <v>287</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="9:11" x14ac:dyDescent="0.3">
@@ -8873,10 +8941,10 @@
         <v>44875</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="89" spans="9:11" x14ac:dyDescent="0.3">
@@ -8887,7 +8955,7 @@
         <v>290</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="90" spans="9:11" x14ac:dyDescent="0.3">
@@ -8898,7 +8966,7 @@
         <v>291</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="9:11" x14ac:dyDescent="0.3">
@@ -8909,7 +8977,7 @@
         <v>292</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="92" spans="9:11" x14ac:dyDescent="0.3">
@@ -8917,10 +8985,10 @@
         <v>44880</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="93" spans="9:11" x14ac:dyDescent="0.3">
@@ -8931,7 +8999,7 @@
         <v>293</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="94" spans="9:11" x14ac:dyDescent="0.3">
@@ -8942,7 +9010,7 @@
         <v>304</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="95" spans="9:11" x14ac:dyDescent="0.3">
@@ -8953,7 +9021,7 @@
         <v>294</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -8999,7 +9067,7 @@
         <v>236</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>244</v>
@@ -9019,7 +9087,7 @@
         <v>237</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>171</v>
@@ -9039,7 +9107,7 @@
         <v>313</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>299</v>
@@ -9059,7 +9127,7 @@
         <v>238</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>172</v>
@@ -9079,7 +9147,7 @@
         <v>239</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>156</v>
@@ -9096,17 +9164,17 @@
         <v>44585</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>183</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="4:15" x14ac:dyDescent="0.3">
@@ -9114,19 +9182,19 @@
         <v>44587</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="4:15" x14ac:dyDescent="0.3">
@@ -9137,7 +9205,7 @@
         <v>243</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>157</v>
@@ -9157,7 +9225,7 @@
         <v>316</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>296</v>
@@ -9178,7 +9246,7 @@
         <v>240</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>155</v>
@@ -9197,7 +9265,7 @@
         <v>241</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>306</v>
@@ -9212,19 +9280,19 @@
         <v>44595</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="4:15" x14ac:dyDescent="0.3">
@@ -9235,7 +9303,7 @@
         <v>267</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>310</v>
@@ -9255,7 +9323,7 @@
         <v>242</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>163</v>
@@ -9268,16 +9336,16 @@
         <v>44611</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>168</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="J16" s="1"/>
     </row>
@@ -9286,19 +9354,19 @@
         <v>44627</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.3">
@@ -9306,16 +9374,16 @@
         <v>44628</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="J18" s="1"/>
     </row>
@@ -9324,10 +9392,10 @@
         <v>44628</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -9341,7 +9409,7 @@
         <v>266</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>164</v>
@@ -9357,16 +9425,16 @@
         <v>252</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>185</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.3">
@@ -9377,13 +9445,13 @@
         <v>253</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>201</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J22" s="1"/>
     </row>
@@ -9395,7 +9463,7 @@
         <v>254</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>161</v>
@@ -9413,7 +9481,7 @@
         <v>255</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -9427,7 +9495,7 @@
         <v>256</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -9441,7 +9509,7 @@
         <v>265</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -9455,7 +9523,7 @@
         <v>257</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -9466,10 +9534,10 @@
         <v>44705</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -9483,7 +9551,7 @@
         <v>264</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -9497,7 +9565,7 @@
         <v>258</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -9511,7 +9579,7 @@
         <v>259</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -9525,7 +9593,7 @@
         <v>260</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.3">
@@ -9533,10 +9601,10 @@
         <v>44722</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.3">
@@ -9544,10 +9612,10 @@
         <v>44728</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.3">
@@ -9555,10 +9623,10 @@
         <v>44729</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.3">
@@ -9569,7 +9637,7 @@
         <v>261</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.3">
@@ -9580,7 +9648,7 @@
         <v>262</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.3">
@@ -9588,10 +9656,10 @@
         <v>44740</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.3">
@@ -9611,7 +9679,7 @@
         <v>268</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.3">
@@ -9622,7 +9690,7 @@
         <v>301</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.3">
@@ -9642,7 +9710,7 @@
         <v>270</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.3">
@@ -9653,7 +9721,7 @@
         <v>302</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.3">
@@ -9664,7 +9732,7 @@
         <v>271</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.3">
@@ -9675,7 +9743,7 @@
         <v>272</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.3">
@@ -9686,7 +9754,7 @@
         <v>273</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.3">
@@ -9694,10 +9762,10 @@
         <v>44782</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.3">
@@ -9708,7 +9776,7 @@
         <v>303</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.3">
@@ -9719,7 +9787,7 @@
         <v>274</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.3">
@@ -9730,7 +9798,7 @@
         <v>275</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.3">
@@ -9741,7 +9809,7 @@
         <v>288</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.3">
@@ -9752,7 +9820,7 @@
         <v>289</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.3">
@@ -9763,7 +9831,7 @@
         <v>294</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.3">
@@ -9774,7 +9842,7 @@
         <v>276</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.3">
@@ -9785,7 +9853,7 @@
         <v>284</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.3">
@@ -9793,10 +9861,10 @@
         <v>44809</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.3">
@@ -9807,7 +9875,7 @@
         <v>178</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.3">
@@ -9815,10 +9883,10 @@
         <v>44813</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.3">
@@ -9829,7 +9897,7 @@
         <v>295</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="61" spans="4:6" x14ac:dyDescent="0.3">
@@ -9837,10 +9905,10 @@
         <v>44823</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.3">
@@ -9848,10 +9916,10 @@
         <v>44826</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.3">
@@ -9859,10 +9927,10 @@
         <v>44837</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="64" spans="4:6" x14ac:dyDescent="0.3">
@@ -9873,7 +9941,7 @@
         <v>277</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.3">
@@ -9884,7 +9952,7 @@
         <v>278</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.3">
@@ -9895,7 +9963,7 @@
         <v>283</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" spans="4:6" x14ac:dyDescent="0.3">
@@ -9903,10 +9971,10 @@
         <v>44846</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.3">
@@ -9917,7 +9985,7 @@
         <v>279</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="69" spans="4:6" x14ac:dyDescent="0.3">
@@ -9937,7 +10005,7 @@
         <v>281</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.3">
@@ -9948,7 +10016,7 @@
         <v>282</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="4:6" x14ac:dyDescent="0.3">
@@ -9959,7 +10027,7 @@
         <v>285</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73" spans="4:6" x14ac:dyDescent="0.3">
@@ -9970,7 +10038,7 @@
         <v>286</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="4:6" x14ac:dyDescent="0.3">
@@ -9978,10 +10046,10 @@
         <v>44864</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="75" spans="4:6" x14ac:dyDescent="0.3">
@@ -9992,7 +10060,7 @@
         <v>287</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="76" spans="4:6" x14ac:dyDescent="0.3">
@@ -10000,10 +10068,10 @@
         <v>44875</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="4:6" x14ac:dyDescent="0.3">
@@ -10014,7 +10082,7 @@
         <v>290</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="4:6" x14ac:dyDescent="0.3">
@@ -10025,7 +10093,7 @@
         <v>291</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="79" spans="4:6" x14ac:dyDescent="0.3">
@@ -10036,7 +10104,7 @@
         <v>292</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="4:6" x14ac:dyDescent="0.3">
@@ -10044,10 +10112,10 @@
         <v>44880</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="81" spans="4:6" x14ac:dyDescent="0.3">
@@ -10058,7 +10126,7 @@
         <v>293</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="82" spans="4:6" x14ac:dyDescent="0.3">
@@ -10069,7 +10137,7 @@
         <v>304</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="83" spans="4:6" x14ac:dyDescent="0.3">
@@ -10080,7 +10148,7 @@
         <v>294</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -10092,10 +10160,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C100BFCA-CA2F-46D4-AF8F-8BF6353EE367}">
-  <dimension ref="B2:D14"/>
+  <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10122,34 +10190,34 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -10157,7 +10225,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>125</v>
@@ -10165,21 +10233,47 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="C13" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>689</v>
+        <v>657</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>688</v>
+        <v>656</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>692</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="20" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="20" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>718</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -10191,9 +10285,13 @@
     <hyperlink ref="D6" r:id="rId5" xr:uid="{68E1FACF-12E0-4D48-9588-121A64C4EB3A}"/>
     <hyperlink ref="D7" r:id="rId6" xr:uid="{2501302D-5586-4EA9-A3FA-FB85B21B74AE}"/>
     <hyperlink ref="D14" r:id="rId7" display="https://www.amazon.in/D-Link-DIR-825-Dual-Band-Gigabit-Router/dp/B078L5J7G1/ref=asc_df_B078L5J7G1/?tag=googleshopdes-21&amp;linkCode=df0&amp;hvadid=396985973511&amp;hvpos=&amp;hvnetw=g&amp;hvrand=14444461617105573477&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=1007740&amp;hvtargid=pla-404895146134&amp;psc=1&amp;ext_vrnc=hi" xr:uid="{059CD93E-26EC-4B35-BDA3-83A22B50BB06}"/>
+    <hyperlink ref="D15" r:id="rId8" xr:uid="{725F97B8-9229-485E-835A-426B29F22FBE}"/>
+    <hyperlink ref="D16" r:id="rId9" xr:uid="{3AEDD54A-784B-4CA9-BADA-29B6107615DF}"/>
+    <hyperlink ref="D17" r:id="rId10" xr:uid="{CBFAC2C6-A9B2-4AC1-B441-5841B36C8EB6}"/>
+    <hyperlink ref="D18" r:id="rId11" xr:uid="{3AA62F54-919A-40F6-BD4A-568E14809B71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -10222,13 +10320,13 @@
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:7" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
-        <v>633</v>
+        <v>602</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>634</v>
+        <v>603</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>141</v>
@@ -10245,7 +10343,7 @@
         <v>143</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -10281,13 +10379,13 @@
         <v>76</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="144" x14ac:dyDescent="0.3">
@@ -10295,13 +10393,13 @@
         <v>77</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>632</v>
+        <v>601</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.3">
@@ -10309,7 +10407,7 @@
         <v>78</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>635</v>
+        <v>604</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -10347,12 +10445,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B184FA5-A01E-46CA-B492-1B3A7AECB7A5}">
-  <dimension ref="D1:H12"/>
+  <dimension ref="D1:H14"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10368,192 +10466,220 @@
   <sheetData>
     <row r="1" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D1" s="70" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F1" s="70" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H1" s="70" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="4:8" ht="331.2" x14ac:dyDescent="0.3">
       <c r="D2" s="41" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H2" s="40"/>
     </row>
     <row r="3" spans="4:8" ht="331.2" x14ac:dyDescent="0.3">
       <c r="D3" s="41" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="4:8" ht="360" x14ac:dyDescent="0.3">
       <c r="D4" s="41" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="4:8" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="4:8" ht="266.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6" s="41" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="4:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="D7" s="41" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="4:8" ht="201.6" x14ac:dyDescent="0.3">
       <c r="D8" s="41" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="4:8" ht="144" x14ac:dyDescent="0.3">
       <c r="D9" s="41" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
     </row>
     <row r="10" spans="4:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="D10" s="41" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>630</v>
+        <v>599</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>628</v>
+        <v>597</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>628</v>
+        <v>597</v>
       </c>
     </row>
     <row r="11" spans="4:8" ht="144" x14ac:dyDescent="0.3">
       <c r="D11" s="41" t="s">
-        <v>629</v>
+        <v>598</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>648</v>
+        <v>617</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>631</v>
+        <v>600</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>649</v>
+        <v>618</v>
       </c>
     </row>
     <row r="12" spans="4:8" ht="172.8" x14ac:dyDescent="0.3">
       <c r="D12" s="41" t="s">
-        <v>650</v>
+        <v>619</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>651</v>
+        <v>620</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>652</v>
+        <v>621</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="D13" s="41" t="s">
+        <v>674</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>670</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>673</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>671</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D14" s="81" t="s">
+        <v>675</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>676</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -10564,391 +10690,374 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108951A9-5574-4450-9E88-2E035139CCFB}">
-  <dimension ref="C1:H32"/>
+  <dimension ref="E1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.88671875" style="41"/>
-    <col min="4" max="4" width="25.6640625" style="79" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" style="79" customWidth="1"/>
-    <col min="6" max="7" width="28.5546875" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="41"/>
+    <col min="5" max="5" width="8.88671875" style="41"/>
+    <col min="6" max="6" width="25.6640625" style="79" customWidth="1"/>
+    <col min="7" max="7" width="35.109375" style="79" customWidth="1"/>
+    <col min="8" max="9" width="28.5546875" style="79" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C1" s="70" t="s">
+    <row r="1" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="F1" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="G1" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="H1" s="70" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C2" s="8">
+      <c r="H1" s="78" t="s">
+        <v>665</v>
+      </c>
+      <c r="I1" s="78" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="2" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
         <v>44927</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="F2" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E3" s="8">
+        <v>44928</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E4" s="8">
+        <v>44929</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>655</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E5" s="8">
+        <v>44930</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E6" s="8">
+        <v>44931</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>662</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>661</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E7" s="8">
+        <v>44932</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>664</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C3" s="8">
-        <v>44928</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>664</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>666</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C4" s="8">
-        <v>44929</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>687</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>665</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C5" s="8">
-        <v>44930</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>686</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>685</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C6" s="8">
-        <v>44931</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>694</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>693</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C7" s="8">
-        <v>44932</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>696</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="C8" s="8">
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="5:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="E8" s="8">
         <v>44933</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="F8" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16" t="s">
+        <v>669</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E9" s="8">
+        <v>44934</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>678</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17" t="s">
+        <v>679</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E10" s="8">
+        <v>44935</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E11" s="8">
+        <v>44936</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>691</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E12" s="8">
+        <v>44937</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>700</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="3" t="s">
+      <c r="G12" s="16" t="s">
         <v>701</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="H8" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="8">
-        <v>44934</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="8">
-        <v>44935</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="8">
-        <v>44936</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="8">
-        <v>44937</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="8">
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E13" s="8">
         <v>44938</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="8">
+      <c r="F13" s="16" t="s">
+        <v>702</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>703</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="5:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
         <v>44939</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="8">
+      <c r="F14" s="16" t="s">
+        <v>712</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E15" s="8">
         <v>44940</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="8">
+      <c r="F15" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E16" s="8">
         <v>44941</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="8">
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E17" s="8">
         <v>44942</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="8">
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E18" s="8">
         <v>44943</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="8">
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E19" s="8">
         <v>44944</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="8">
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E20" s="8">
         <v>44945</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="8">
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E21" s="8">
         <v>44946</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="8">
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E22" s="8">
         <v>44947</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="8">
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E23" s="8">
         <v>44948</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="8">
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E24" s="8">
         <v>44949</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="8">
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E25" s="8">
         <v>44950</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="8">
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E26" s="8">
         <v>44951</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="8">
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E27" s="8">
         <v>44952</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="8">
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E28" s="8">
         <v>44953</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C29" s="8">
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E29" s="8">
         <v>44954</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C30" s="8">
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E30" s="8">
         <v>44955</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C31" s="8">
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E31" s="8">
         <v>44956</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="9"/>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C32" s="8">
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E32" s="8">
         <v>44957</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="9"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4_Daily Schedule/Daily_Schedule_2022.xlsx
+++ b/4_Daily Schedule/Daily_Schedule_2022.xlsx
@@ -1,38 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adponlineind-my.sharepoint.com/personal/gangigua_es_ad_adp_com/Documents/Documents/2022/Amar_2022/4_Daily Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2758" documentId="13_ncr:1_{37DFCD91-C40D-4851-A7FF-D1781FDB40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C39A01E-7F28-4358-BBC2-996930BB47E9}"/>
+  <xr:revisionPtr revIDLastSave="3420" documentId="13_ncr:1_{37DFCD91-C40D-4851-A7FF-D1781FDB40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76A82329-B69F-4888-976C-052A2BD00E0A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principles" sheetId="2" r:id="rId1"/>
-    <sheet name="Finance" sheetId="3" r:id="rId2"/>
-    <sheet name="Network" sheetId="8" r:id="rId3"/>
-    <sheet name="Family_Dates" sheetId="9" state="hidden" r:id="rId4"/>
-    <sheet name="Later" sheetId="6" r:id="rId5"/>
-    <sheet name="Monthly_check" sheetId="4" r:id="rId6"/>
-    <sheet name="Weekly_check" sheetId="11" r:id="rId7"/>
-    <sheet name="January" sheetId="14" r:id="rId8"/>
-    <sheet name="August" sheetId="1" state="hidden" r:id="rId9"/>
-    <sheet name="September" sheetId="5" state="hidden" r:id="rId10"/>
-    <sheet name="October" sheetId="10" state="hidden" r:id="rId11"/>
-    <sheet name="November" sheetId="12" state="hidden" r:id="rId12"/>
-    <sheet name="December" sheetId="13" state="hidden" r:id="rId13"/>
+    <sheet name="Diet" sheetId="16" r:id="rId2"/>
+    <sheet name="Finance" sheetId="3" r:id="rId3"/>
+    <sheet name="Network" sheetId="8" r:id="rId4"/>
+    <sheet name="Family_Dates" sheetId="9" state="hidden" r:id="rId5"/>
+    <sheet name="Later" sheetId="6" r:id="rId6"/>
+    <sheet name="Family" sheetId="17" r:id="rId7"/>
+    <sheet name="Yearly_check" sheetId="18" r:id="rId8"/>
+    <sheet name="Monthly_check" sheetId="4" r:id="rId9"/>
+    <sheet name="Weekly_check" sheetId="11" r:id="rId10"/>
+    <sheet name="January" sheetId="14" state="hidden" r:id="rId11"/>
+    <sheet name="February" sheetId="19" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="15" state="hidden" r:id="rId13"/>
+    <sheet name="August" sheetId="1" state="hidden" r:id="rId14"/>
+    <sheet name="September" sheetId="5" state="hidden" r:id="rId15"/>
+    <sheet name="October" sheetId="10" state="hidden" r:id="rId16"/>
+    <sheet name="November" sheetId="12" state="hidden" r:id="rId17"/>
+    <sheet name="December" sheetId="13" state="hidden" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Family_Dates!$D$2:$F$83</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Network!$I$13:$K$95</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">November!$F$1:$I$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">October!$H$3:$L$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">September!$D$4:$H$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Family_Dates!$D$2:$F$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Network!$I$13:$K$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">November!$F$1:$I$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">October!$H$3:$L$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">September!$D$4:$H$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="925">
   <si>
     <t>Date</t>
   </si>
@@ -2355,6 +2360,797 @@
 Newsletters</t>
   </si>
   <si>
+    <t>Scaler - upto date
+Java AB - Progressing well
+Revision done
+Focus Areas:
+1. Weekly check hoslistically
+2. 2 sites for problem solving - 1 hr daily
+3. Scaler contest follow up
+Work:
+1. Complete ownership
+2. SDE,SSL functionality</t>
+  </si>
+  <si>
+    <t>Focus Areas - to start, to stop</t>
+  </si>
+  <si>
+    <t>1. Complete Java - AB
+2. 2 X 2 - 2 sites , 2 problems
+3. Revisit Scaler Problems
+Read,write,watch : Complete top 3 tasks weekly
+Work:
+1. Complete ownership
+2. SDE,SSL functionality</t>
+  </si>
+  <si>
+    <t>1. To start: Problem solving in other sites
+2. To stop: HP
+3. To maintain: morning routine</t>
+  </si>
+  <si>
+    <t>Java AB IO
+Scaler HW
+Weekly progress
+Cricket
+LinkedIn</t>
+  </si>
+  <si>
+    <t>WFN-IH integration
+SFSF regression</t>
+  </si>
+  <si>
+    <t>LinkedIn
+saying NO
+Scaler class</t>
+  </si>
+  <si>
+    <t>Scaler AM</t>
+  </si>
+  <si>
+    <t>Reopen testing
+iHUB session</t>
+  </si>
+  <si>
+    <t>Scaler HW
+Java AB
+Scaler class</t>
+  </si>
+  <si>
+    <t>Scaler AM , HW</t>
+  </si>
+  <si>
+    <t>Test evidence doc
+perf results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waking up
+</t>
+  </si>
+  <si>
+    <t>Java AB
+Scaler HW
+Scaler class
+scaler contest 1,2
+movie - sardar</t>
+  </si>
+  <si>
+    <t>java AB
+Breakfast - Panchakattu dosa
+isha - guru interview
+Satish - cradle ceremony</t>
+  </si>
+  <si>
+    <t>Write/Read</t>
+  </si>
+  <si>
+    <t>Focus Areas:
+1. Weekly check hoslistically
+2. 2 sites for problem solving - 1 hr daily
+3. Scaler contest follow up</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Nov 20 - 26</t>
+  </si>
+  <si>
+    <t>Scaler
+Java AB 
+Focus Areas:
+1. Weekly check hoslistically
+2. 2 sites for problem solving - 1 hr daily
+3. Scaler contest follow up
+Watch
+Scaler POD</t>
+  </si>
+  <si>
+    <t>Java AB</t>
+  </si>
+  <si>
+    <t>Kurnool
+Java AB</t>
+  </si>
+  <si>
+    <t>Scaler Class
+Inter friends</t>
+  </si>
+  <si>
+    <t>Scaler class - 2
+Café niloufer</t>
+  </si>
+  <si>
+    <t>Scaler AM, HW
+Scaler POD</t>
+  </si>
+  <si>
+    <t>Java AB
+Scaler class - sorting 2
+Scaler contest 1
+Guru interview
+Movie Kantara
+Hospital</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>Contests and problem solving needs to be started
+Workout to be started
+Journal writing to be maintained</t>
+  </si>
+  <si>
+    <t>2. 2 sites for problem solving - 1 hr daily
+3. Scaler contest follow up
+Journal writing to be maintained</t>
+  </si>
+  <si>
+    <t>Nov 27 - Dec 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scaler
+Java AB 
+Focus Areas:
+1. 2 sites for problem solving - 1 hr daily
+2. Scaler contest follow up
+3. Revision Adv DSA
+Watch
+</t>
+  </si>
+  <si>
+    <t>Java AB
+Dmart
+Movie Kantara
+Scaler contest 2,3</t>
+  </si>
+  <si>
+    <t>HP - 2</t>
+  </si>
+  <si>
+    <t>Proper rest - breaks every hour, sleep, short walks</t>
+  </si>
+  <si>
+    <t>Million things are going right around you to allow you to do whatever you want</t>
+  </si>
+  <si>
+    <t>Rice takes 3-4 months to grow, 10 min to consume, Better value things before you lose them</t>
+  </si>
+  <si>
+    <t>Go slowly but not backward - step by step, ferociously</t>
+  </si>
+  <si>
+    <t>Having Unwavering faith + Brutal facts of reality &gt; Dreams</t>
+  </si>
+  <si>
+    <t>Java AB
+Scaler Prob solving session
+Scaler AM</t>
+  </si>
+  <si>
+    <t>Scaler AM, HW
+Scaler class - sorting 3
+Java AB</t>
+  </si>
+  <si>
+    <t>Java AB
+Scaler AM, HW</t>
+  </si>
+  <si>
+    <t>Scaler class - BS 1
+Scaler AM, HW
+Java AB
+Read</t>
+  </si>
+  <si>
+    <t>Auto closure Demo
+WFN - iH testing</t>
+  </si>
+  <si>
+    <t>Waking up
+Exericise</t>
+  </si>
+  <si>
+    <t>WFN IH testing</t>
+  </si>
+  <si>
+    <t>Scaler AM, HW
+Home chores</t>
+  </si>
+  <si>
+    <t>Scaler class - BS 2
+Scaler AM, HW
+Movie - Hit2
+Read</t>
+  </si>
+  <si>
+    <t>Waking up
+Exercise
+Java AB</t>
+  </si>
+  <si>
+    <t>Scaler, AM, HW
+Scaler contest 1,2,3
+Weekly progress</t>
+  </si>
+  <si>
+    <t>Maintenance work</t>
+  </si>
+  <si>
+    <t>Dec 4 - Dec 10</t>
+  </si>
+  <si>
+    <t>Focus Areas:
+1. 2 sites for problem solving - 1 hr daily
+2. Scaler contest follow up
+3. Revision Adv DSA
+Start:
+1. Exercise
+Don’t miss:
+Waking up
+Java AB</t>
+  </si>
+  <si>
+    <t>1. WFN IH client user
+2. View comment
+3. Date Filters 
+4. File mapping error
+5. Reopen - Functional, Performance</t>
+  </si>
+  <si>
+    <t>Java - AB progressing
+Scaler upto date
+Contests and problem solving needs to be started
+20 days - 2
+10 days - 1</t>
+  </si>
+  <si>
+    <t>1. Complete Java - AB
+2. 2 X 2 - 2 sites , 2 problems
+3. Revisit Scaler, Java AB
+Read,write,watch : Complete top 3 tasks weekly
+Work:
+1. Complete ownership
+2. SDE,SSL functionality</t>
+  </si>
+  <si>
+    <t>Java AB
+Scaler AM, HW
+Read
+Movie Love Today</t>
+  </si>
+  <si>
+    <t>WFN IH data setup
+Auto closure data
+Reopen testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exercise
+</t>
+  </si>
+  <si>
+    <t>Prod issue
+Reopen items</t>
+  </si>
+  <si>
+    <t>Java AB
+Scaler Class</t>
+  </si>
+  <si>
+    <t>Meetings
+FU - CGC Regression</t>
+  </si>
+  <si>
+    <t>Scaler AM, HW
+Reading
+Lunch-Arifa &amp; Co</t>
+  </si>
+  <si>
+    <t>Java AB
+Problem solving
+Scaler class
+Hindi</t>
+  </si>
+  <si>
+    <t>Scaler AM,HW
+Hindi
+Tiger Brother's marriage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java AB
+</t>
+  </si>
+  <si>
+    <t>WFN IHUB Prod testing</t>
+  </si>
+  <si>
+    <t>Java AB
+Scaler class
+Scaler contest 1</t>
+  </si>
+  <si>
+    <t>Problem solving started
+To Do:
+1. Revision Adv DSA
+2. Scaler contest follow up
+3. Java AB Revise</t>
+  </si>
+  <si>
+    <t>Remaining:
+1. Reopen - Functional, Performance
+2. Date Filters</t>
+  </si>
+  <si>
+    <t>Dec 11 - Dec 17</t>
+  </si>
+  <si>
+    <t>Scaler
+Java AB
+Problem solving
+Revise Contests
+Focus Areas:
+1. Revision scaler
+2. Revision Java AB
+Watch: Google Roadmap
+Read: Saying NO, 50 economic ideas</t>
+  </si>
+  <si>
+    <t>Remaining:
+1. Reopen - Functional, Performance
+2. Date Filters
+3. One-One
+4. MyMoment</t>
+  </si>
+  <si>
+    <t>Java AB
+Scaler contest 2,3
+Scaler AM, HW
+Google video</t>
+  </si>
+  <si>
+    <t>Revision - DSA Adv
+Scaler HW
+Pest control</t>
+  </si>
+  <si>
+    <t>Celergo user creation</t>
+  </si>
+  <si>
+    <t>Scaler DSA Revision
+Scaler class 
+Problem Solving</t>
+  </si>
+  <si>
+    <t>Scaler adv revision</t>
+  </si>
+  <si>
+    <t>Don’t look up, Don’t look down, Don’t play victim</t>
+  </si>
+  <si>
+    <t>Don’t waste : Time, Energy, Attention, Integrity</t>
+  </si>
+  <si>
+    <t>Learning</t>
+  </si>
+  <si>
+    <t>Immediate Expenses</t>
+  </si>
+  <si>
+    <t>Scaler recording</t>
+  </si>
+  <si>
+    <t>Pipeline meeting
+Q3 features meeting</t>
+  </si>
+  <si>
+    <t>Reopen testing
+Perf stats for closed messages</t>
+  </si>
+  <si>
+    <t>FAMILY</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Rao Pedhanaana</t>
+  </si>
+  <si>
+    <t>Padma pedhamma</t>
+  </si>
+  <si>
+    <t>Yashu
+Sudha</t>
+  </si>
+  <si>
+    <t>Sudha</t>
+  </si>
+  <si>
+    <t>Vani Atha</t>
+  </si>
+  <si>
+    <t>Ranganatham</t>
+  </si>
+  <si>
+    <t>Sravi</t>
+  </si>
+  <si>
+    <t>GV Rao Babai</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>Kistanna thaatha</t>
+  </si>
+  <si>
+    <t>Padma
+Srinivas T</t>
+  </si>
+  <si>
+    <t>Babu mavayya</t>
+  </si>
+  <si>
+    <t>Sirisha</t>
+  </si>
+  <si>
+    <t>pedhanaana</t>
+  </si>
+  <si>
+    <t>Cousins</t>
+  </si>
+  <si>
+    <t>hemanth
+Mohan</t>
+  </si>
+  <si>
+    <t>Reopen testing - Performance</t>
+  </si>
+  <si>
+    <t>Scaler recording
+Scaler problems</t>
+  </si>
+  <si>
+    <t>Scaler recording
+Scaler class</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/D-Link-DIR-825-Dual-Band-Gigabit-Router/dp/B078L5J7G1/ref=asc_df_B078L5J7G1/?tag=googleshopdes-21&amp;linkCode=df0&amp;hvadid=396985973511&amp;hvpos=&amp;hvnetw=g&amp;hvrand=14444461617105573477&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=1007740&amp;hvtargid=pla-404895146134&amp;psc=1&amp;ext_vrnc=hi</t>
+  </si>
+  <si>
+    <t>D link router</t>
+  </si>
+  <si>
+    <t>Swapnil Bandiwadekar</t>
+  </si>
+  <si>
+    <t>Full stack</t>
+  </si>
+  <si>
+    <t>Scaler - peers</t>
+  </si>
+  <si>
+    <t>Reopen - FT2 datasetup - close error
+closed by : Autoclose testing</t>
+  </si>
+  <si>
+    <t>Scaler problems
+Scaler class</t>
+  </si>
+  <si>
+    <t>Chanakya-Ravi kiran G</t>
+  </si>
+  <si>
+    <t>Scaler problems
+Hindi
+Book reading</t>
+  </si>
+  <si>
+    <t>Gratitude for</t>
+  </si>
+  <si>
+    <t>Focus Area</t>
+  </si>
+  <si>
+    <t>Recursion,LinkedList,Trees
+Thought process + involvement</t>
+  </si>
+  <si>
+    <t>Scaler problems
+Scaler class
+Hindi
+Reading
+Scaler contest 1,2</t>
+  </si>
+  <si>
+    <t>All those who are supporting to make my life possible
+people who are working towards others well being</t>
+  </si>
+  <si>
+    <t>Scaler
+Java AB
+Problem solving
+Revise Contests
+Focus Areas:
+1. Revision scaler
+2. Revision Java AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reopen testing - functional and performance
+Q3 features
+Adhoc tasks
+</t>
+  </si>
+  <si>
+    <t>Reopen testing - FT2</t>
+  </si>
+  <si>
+    <t>Scaler missed classes and problems
+Revise Scaler
+Revise Java AB
+Revise contests</t>
+  </si>
+  <si>
+    <t>Jan 1- Jan 7</t>
+  </si>
+  <si>
+    <t>Jan 8 - Jan 14</t>
+  </si>
+  <si>
+    <t>Continue Scaler activities
+Revise Scaler Advanced</t>
+  </si>
+  <si>
+    <t>Complete Reopen
+Finalize on leverage activities and delegation</t>
+  </si>
+  <si>
+    <t>Scaler problems
+Scaler contest 3
+Scaler revision</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Food cravings</t>
+  </si>
+  <si>
+    <t>Balance between
+work,rest and family</t>
+  </si>
+  <si>
+    <t>Scaler Revision
+Scaler problems</t>
+  </si>
+  <si>
+    <t>Physio</t>
+  </si>
+  <si>
+    <t>Speech</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Save the children - HDFC</t>
+  </si>
+  <si>
+    <t>Splint</t>
+  </si>
+  <si>
+    <t>Reopen FT2 testing
+Performance - multifile
+Regression - FT2</t>
+  </si>
+  <si>
+    <t>Reopen practices</t>
+  </si>
+  <si>
+    <t>Scaler Revision
+Scaler class</t>
+  </si>
+  <si>
+    <t>Prod issues - 2
+Regression FT2
+Q3 tasks</t>
+  </si>
+  <si>
+    <t>HP monitors</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/HP-M27f-Micro-Edge-Monitor-FHD/dp/B095362K3K/ref=sr_1_3?crid=22MQ6CJ7D224M&amp;keywords=hp%2Beye%2Bease%2Bmonitor%2B27%2Binch&amp;qid=1673345126&amp;sprefix=hp%2Beye%2Bease%2Bmonitor%2B27%2Binch%2B%2Caps%2C348&amp;sr=8-3&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/HP-23-8-inch-Ultra-Slim-Monitor-Built/dp/B08B6BYCNB/ref=sr_1_3?crid=1FZ06FIXHYKUQ&amp;keywords=hp24mh+monitor&amp;qid=1673345397&amp;sprefix=hp24m%2Caps%2C526&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>Expenses - next</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Acer-HA270-Awmi-27-inch-Monitor/dp/B07JD7GKJP/ref=sr_1_4?crid=3FA7KGZ546KKS&amp;keywords=acer+led+monitor&amp;qid=1673346087&amp;sprefix=acer+led+monitor%2Caps%2C264&amp;sr=8-4</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Scaler AM, HW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance testing - multifile upload
+QA meeting
+</t>
+  </si>
+  <si>
+    <t>Scaler AM, HW
+Scaler class
+Scaler revision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi file performance
+</t>
+  </si>
+  <si>
+    <t>Lifestyle</t>
+  </si>
+  <si>
+    <t>No outdoor games</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No snacking in between, drink Hot water </t>
+  </si>
+  <si>
+    <t>Bath before sunset</t>
+  </si>
+  <si>
+    <t>Dinner early</t>
+  </si>
+  <si>
+    <t>No going out in the heat, car + AC</t>
+  </si>
+  <si>
+    <t>Scaler AM
+Scaler Revision
+Relatives
+Sowmya appointment
+Buddi splint</t>
+  </si>
+  <si>
+    <t>Focus Areas</t>
+  </si>
+  <si>
+    <t>Samarth Raipuriya</t>
+  </si>
+  <si>
+    <t>Scaler class
+Scaler AM, HW
+Scaler revision
+Problem solving</t>
+  </si>
+  <si>
+    <t>Cleaning</t>
+  </si>
+  <si>
+    <t>Keyboard and mouse</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Logitech-MK275-Wireless-Keyboard-Mouse/dp/B06X3YC1MD/ref=sr_1_8?keywords=wireless+keyboard+and+mouse+logitech&amp;qid=1673710837&amp;sprefix=wireless+keyboard+and+mouse+%2Caps%2C386&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t>Problem solving</t>
+  </si>
+  <si>
+    <t>alive</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Finances</t>
+  </si>
+  <si>
+    <t>Food - Vegetarian, chew well</t>
+  </si>
+  <si>
+    <t>Scaler AM, HW
+Scaler Revision</t>
+  </si>
+  <si>
+    <t>Scaler HW
+Scaler Revision
+Java Revision</t>
+  </si>
+  <si>
+    <t>Both are progressing well</t>
+  </si>
+  <si>
+    <t>Reopen testing is done</t>
+  </si>
+  <si>
+    <t>Jan 15 -Jan 21</t>
+  </si>
+  <si>
+    <t>Continue Scaler activities
+Revise Scaler Advanced
+Revise Java AB
+Continue with Java AB</t>
+  </si>
+  <si>
+    <t>Q3 tasks discussion</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>What really matters in your life?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Specialized Architect
+Work-Leadership skills, Impactful work
+CTC rise, investments
+Write/Content Creation frequently
+Network Building</t>
+    </r>
+  </si>
+  <si>
+    <t>As planned</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>1. Continue Scaler
+2. Complete Revision - Scaler, Java
+3. Continue Java AB
+Work:
+1. Q3 deliverables
+2. Performance testing</t>
+  </si>
+  <si>
+    <t>Revision
+Java AB to resume</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2375,761 +3171,605 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Wakeup : 6 AM
+Wakeup : 3 AM
 Until 8:15 : Learning
-workout - 8:30 AM
+neck and hand exercises - 8:30 AM
 Work - current work, 1 hour on improvements
 Scaler - Class / Learning Java : 9PM-11PM
-Problem solving - 1 hour</t>
+Problem solving - 1 hour
+Hindi
+Weekend - ADP GPT updates</t>
     </r>
   </si>
   <si>
-    <t>Scaler - upto date
-Java AB - Progressing well
-Revision done
-Focus Areas:
-1. Weekly check hoslistically
-2. 2 sites for problem solving - 1 hr daily
-3. Scaler contest follow up
-Work:
-1. Complete ownership
-2. SDE,SSL functionality</t>
-  </si>
-  <si>
-    <t>Focus Areas - to start, to stop</t>
-  </si>
-  <si>
-    <t>1. Complete Java - AB
-2. 2 X 2 - 2 sites , 2 problems
-3. Revisit Scaler Problems
-Read,write,watch : Complete top 3 tasks weekly
-Work:
-1. Complete ownership
-2. SDE,SSL functionality</t>
-  </si>
-  <si>
-    <t>1. To start: Problem solving in other sites
-2. To stop: HP
-3. To maintain: morning routine</t>
-  </si>
-  <si>
-    <t>Java AB IO
-Scaler HW
-Weekly progress
-Cricket
-LinkedIn</t>
-  </si>
-  <si>
-    <t>WFN-IH integration
-SFSF regression</t>
-  </si>
-  <si>
-    <t>LinkedIn
-saying NO
-Scaler class</t>
-  </si>
-  <si>
-    <t>Scaler AM</t>
-  </si>
-  <si>
-    <t>Reopen testing
-iHUB session</t>
+    <t>WFN errors meeting
+multifile upload</t>
+  </si>
+  <si>
+    <t>Scaler class
+Java Revision</t>
+  </si>
+  <si>
+    <t>Handbrake - Car</t>
+  </si>
+  <si>
+    <t>Be little bold and ask for help when needed</t>
   </si>
   <si>
     <t>Scaler HW
-Java AB
-Scaler class</t>
-  </si>
-  <si>
-    <t>Scaler AM , HW</t>
-  </si>
-  <si>
-    <t>Test evidence doc
-perf results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waking up
-</t>
-  </si>
-  <si>
-    <t>Java AB
-Scaler HW
-Scaler class
-scaler contest 1,2
-movie - sardar</t>
-  </si>
-  <si>
-    <t>java AB
-Breakfast - Panchakattu dosa
-isha - guru interview
-Satish - cradle ceremony</t>
-  </si>
-  <si>
-    <t>Write/Read</t>
-  </si>
-  <si>
-    <t>Focus Areas:
-1. Weekly check hoslistically
-2. 2 sites for problem solving - 1 hr daily
-3. Scaler contest follow up</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Nov 20 - 26</t>
-  </si>
-  <si>
-    <t>Scaler
-Java AB 
-Focus Areas:
-1. Weekly check hoslistically
-2. 2 sites for problem solving - 1 hr daily
-3. Scaler contest follow up
-Watch
-Scaler POD</t>
-  </si>
-  <si>
-    <t>Java AB</t>
-  </si>
-  <si>
-    <t>Kurnool
-Java AB</t>
-  </si>
-  <si>
-    <t>Scaler Class
-Inter friends</t>
-  </si>
-  <si>
-    <t>Scaler class - 2
-Café niloufer</t>
-  </si>
-  <si>
-    <t>Scaler AM, HW
-Scaler POD</t>
-  </si>
-  <si>
-    <t>Java AB
-Scaler class - sorting 2
-Scaler contest 1
-Guru interview
-Movie Kantara
-Hospital</t>
-  </si>
-  <si>
-    <t>Vacation</t>
-  </si>
-  <si>
-    <t>Contests and problem solving needs to be started
-Workout to be started
-Journal writing to be maintained</t>
-  </si>
-  <si>
-    <t>2. 2 sites for problem solving - 1 hr daily
-3. Scaler contest follow up
-Journal writing to be maintained</t>
-  </si>
-  <si>
-    <t>Nov 27 - Dec 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scaler
-Java AB 
-Focus Areas:
-1. 2 sites for problem solving - 1 hr daily
-2. Scaler contest follow up
-3. Revision Adv DSA
-Watch
-</t>
-  </si>
-  <si>
-    <t>Java AB
-Dmart
-Movie Kantara
-Scaler contest 2,3</t>
-  </si>
-  <si>
-    <t>HP - 2</t>
-  </si>
-  <si>
-    <t>Proper rest - breaks every hour, sleep, short walks</t>
-  </si>
-  <si>
-    <t>Million things are going right around you to allow you to do whatever you want</t>
-  </si>
-  <si>
-    <t>Rice takes 3-4 months to grow, 10 min to consume, Better value things before you lose them</t>
-  </si>
-  <si>
-    <t>Go slowly but not backward - step by step, ferociously</t>
-  </si>
-  <si>
-    <t>Having Unwavering faith + Brutal facts of reality &gt; Dreams</t>
-  </si>
-  <si>
-    <t>Java AB
-Scaler Prob solving session
-Scaler AM</t>
-  </si>
-  <si>
-    <t>Scaler AM, HW
-Scaler class - sorting 3
-Java AB</t>
-  </si>
-  <si>
-    <t>Java AB
-Scaler AM, HW</t>
-  </si>
-  <si>
-    <t>Scaler class - BS 1
-Scaler AM, HW
-Java AB
-Read</t>
-  </si>
-  <si>
-    <t>Auto closure Demo
-WFN - iH testing</t>
-  </si>
-  <si>
-    <t>Waking up
-Exericise</t>
-  </si>
-  <si>
-    <t>WFN IH testing</t>
-  </si>
-  <si>
-    <t>Scaler AM, HW
-Home chores</t>
-  </si>
-  <si>
-    <t>Scaler class - BS 2
-Scaler AM, HW
-Movie - Hit2
-Read</t>
-  </si>
-  <si>
-    <t>Waking up
-Exercise
-Java AB</t>
-  </si>
-  <si>
-    <t>Scaler, AM, HW
-Scaler contest 1,2,3
-Weekly progress</t>
-  </si>
-  <si>
-    <t>Maintenance work</t>
-  </si>
-  <si>
-    <t>Dec 4 - Dec 10</t>
-  </si>
-  <si>
-    <t>Focus Areas:
-1. 2 sites for problem solving - 1 hr daily
-2. Scaler contest follow up
-3. Revision Adv DSA
-Start:
-1. Exercise
-Don’t miss:
-Waking up
-Java AB</t>
-  </si>
-  <si>
-    <t>1. WFN IH client user
-2. View comment
-3. Date Filters 
-4. File mapping error
-5. Reopen - Functional, Performance</t>
-  </si>
-  <si>
-    <t>Java - AB progressing
-Scaler upto date
-Contests and problem solving needs to be started
-20 days - 2
-10 days - 1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>What really matters in your life?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Speciaized Architect
-Work-Leadership skills, Impactful work
-CTC rise, investments
-Write/Content Creation frequently
-Network Building</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">HP
-Social Media in limits
-</t>
-  </si>
-  <si>
-    <t>1. Complete Java - AB
-2. 2 X 2 - 2 sites , 2 problems
-3. Revisit Scaler, Java AB
-Read,write,watch : Complete top 3 tasks weekly
-Work:
-1. Complete ownership
-2. SDE,SSL functionality</t>
-  </si>
-  <si>
-    <t>Java AB
-Scaler AM, HW
-Read
-Movie Love Today</t>
-  </si>
-  <si>
-    <t>WFN IH data setup
-Auto closure data
-Reopen testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exercise
-</t>
-  </si>
-  <si>
-    <t>Prod issue
-Reopen items</t>
-  </si>
-  <si>
-    <t>Java AB
-Scaler Class</t>
-  </si>
-  <si>
-    <t>Meetings
-FU - CGC Regression</t>
-  </si>
-  <si>
-    <t>Scaler AM, HW
-Reading
-Lunch-Arifa &amp; Co</t>
-  </si>
-  <si>
-    <t>Java AB
-Problem solving
 Scaler class
 Hindi</t>
   </si>
   <si>
-    <t>Scaler AM,HW
-Hindi
-Tiger Brother's marriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java AB
-</t>
-  </si>
-  <si>
-    <t>WFN IHUB Prod testing</t>
-  </si>
-  <si>
-    <t>Java AB
+    <t>Work on myself</t>
+  </si>
+  <si>
+    <t>Java AB revision
 Scaler class
-Scaler contest 1</t>
-  </si>
-  <si>
-    <t>Problem solving started
-To Do:
-1. Revision Adv DSA
-2. Scaler contest follow up
-3. Java AB Revise</t>
-  </si>
-  <si>
-    <t>Remaining:
-1. Reopen - Functional, Performance
-2. Date Filters</t>
-  </si>
-  <si>
-    <t>Dec 11 - Dec 17</t>
-  </si>
-  <si>
-    <t>Scaler
-Java AB
-Problem solving
-Revise Contests
-Focus Areas:
-1. Revision scaler
-2. Revision Java AB
-Watch: Google Roadmap
-Read: Saying NO, 50 economic ideas</t>
-  </si>
-  <si>
-    <t>Remaining:
-1. Reopen - Functional, Performance
-2. Date Filters
-3. One-One
-4. MyMoment</t>
-  </si>
-  <si>
-    <t>Java AB
-Scaler contest 2,3
-Scaler AM, HW
-Google video</t>
-  </si>
-  <si>
-    <t>Revision - DSA Adv
-Scaler HW
-Pest control</t>
-  </si>
-  <si>
-    <t>Celergo user creation</t>
-  </si>
-  <si>
-    <t>Scaler DSA Revision
-Scaler class 
-Problem Solving</t>
-  </si>
-  <si>
-    <t>Scaler adv revision</t>
-  </si>
-  <si>
-    <t>Don’t look up, Don’t look down, Don’t play victim</t>
-  </si>
-  <si>
-    <t>Don’t waste : Time, Energy, Attention, Integrity</t>
-  </si>
-  <si>
-    <t>Learning</t>
-  </si>
-  <si>
-    <t>Immediate Expenses</t>
-  </si>
-  <si>
-    <t>Credit Card</t>
-  </si>
-  <si>
-    <t>Scaler recording</t>
-  </si>
-  <si>
-    <t>Pipeline meeting
-Q3 features meeting</t>
-  </si>
-  <si>
-    <t>Reopen testing
-Perf stats for closed messages</t>
-  </si>
-  <si>
-    <t>FAMILY</t>
-  </si>
-  <si>
-    <t>Father</t>
-  </si>
-  <si>
-    <t>Rao Pedhanaana</t>
-  </si>
-  <si>
-    <t>Padma pedhamma</t>
-  </si>
-  <si>
-    <t>Yashu
-Sudha</t>
-  </si>
-  <si>
-    <t>Sudha</t>
-  </si>
-  <si>
-    <t>Vani Atha</t>
-  </si>
-  <si>
-    <t>Ranganatham</t>
-  </si>
-  <si>
-    <t>Sravi</t>
-  </si>
-  <si>
-    <t>GV Rao Babai</t>
-  </si>
-  <si>
-    <t>Mohan</t>
-  </si>
-  <si>
-    <t>Kistanna thaatha</t>
-  </si>
-  <si>
-    <t>Padma
-Srinivas T</t>
-  </si>
-  <si>
-    <t>Babu mavayya</t>
-  </si>
-  <si>
-    <t>Sirisha</t>
-  </si>
-  <si>
-    <t>pedhanaana</t>
-  </si>
-  <si>
-    <t>Cousins</t>
-  </si>
-  <si>
-    <t>hemanth
-Mohan</t>
-  </si>
-  <si>
-    <t>Reopen testing - Performance</t>
-  </si>
-  <si>
-    <t>Scaler recording
-Scaler problems</t>
-  </si>
-  <si>
-    <t>Scaler recording
-Scaler class</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/D-Link-DIR-825-Dual-Band-Gigabit-Router/dp/B078L5J7G1/ref=asc_df_B078L5J7G1/?tag=googleshopdes-21&amp;linkCode=df0&amp;hvadid=396985973511&amp;hvpos=&amp;hvnetw=g&amp;hvrand=14444461617105573477&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=1007740&amp;hvtargid=pla-404895146134&amp;psc=1&amp;ext_vrnc=hi</t>
-  </si>
-  <si>
-    <t>D link router</t>
-  </si>
-  <si>
-    <t>Swapnil Bandiwadekar</t>
-  </si>
-  <si>
-    <t>Full stack</t>
-  </si>
-  <si>
-    <t>Scaler - peers</t>
-  </si>
-  <si>
-    <t>Reopen - FT2 datasetup - close error
-closed by : Autoclose testing</t>
-  </si>
-  <si>
-    <t>Scaler problems
-Scaler class</t>
-  </si>
-  <si>
-    <t>Chanakya-Ravi kiran G</t>
-  </si>
-  <si>
-    <t>Scaler problems
-Hindi
-Book reading</t>
-  </si>
-  <si>
-    <t>Gratitude for</t>
-  </si>
-  <si>
-    <t>Focus Area</t>
-  </si>
-  <si>
-    <t>Recursion,LinkedList,Trees
-Thought process + involvement</t>
-  </si>
-  <si>
-    <t>Scaler problems
-Scaler class
-Hindi
-Reading
 Scaler contest 1,2</t>
   </si>
   <si>
-    <t>All those who are supporting to make my life possible
-people who are working towards others well being</t>
-  </si>
-  <si>
-    <t>Scaler
-Java AB
-Problem solving
-Revise Contests
-Focus Areas:
-1. Revision scaler
-2. Revision Java AB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reopen testing - functional and performance
-Q3 features
-Adhoc tasks
-</t>
-  </si>
-  <si>
-    <t>Reopen testing - FT2</t>
-  </si>
-  <si>
-    <t>Scaler missed classes and problems
-Revise Scaler
-Revise Java AB
-Revise contests</t>
-  </si>
-  <si>
-    <t>Jan 1- Jan 7</t>
-  </si>
-  <si>
-    <t>Jan 8 - Jan 14</t>
-  </si>
-  <si>
-    <t>Continue Scaler activities
-Revise Scaler Advanced</t>
-  </si>
-  <si>
-    <t>Complete Reopen
-Finalize on leverage activities and delegation</t>
-  </si>
-  <si>
-    <t>Scaler problems
-Scaler contest 3
-Scaler revision</t>
-  </si>
-  <si>
-    <t>Grace</t>
-  </si>
-  <si>
-    <t>Food cravings</t>
-  </si>
-  <si>
-    <t>Balance between
-work,rest and family</t>
-  </si>
-  <si>
-    <t>Scaler Revision
-Scaler problems</t>
-  </si>
-  <si>
-    <t>Physio</t>
-  </si>
-  <si>
-    <t>Speech</t>
-  </si>
-  <si>
-    <t>Delivery</t>
-  </si>
-  <si>
-    <t>Save the children - HDFC</t>
-  </si>
-  <si>
-    <t>Splint</t>
-  </si>
-  <si>
-    <t>Reopen FT2 testing
-Performance - multifile
-Regression - FT2</t>
-  </si>
-  <si>
-    <t>Reopen practices</t>
-  </si>
-  <si>
-    <t>Scaler Revision
-Scaler class</t>
-  </si>
-  <si>
-    <t>Prod issues - 2
-Regression FT2
-Q3 tasks</t>
-  </si>
-  <si>
-    <t>HP monitors</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/HP-M27f-Micro-Edge-Monitor-FHD/dp/B095362K3K/ref=sr_1_3?crid=22MQ6CJ7D224M&amp;keywords=hp%2Beye%2Bease%2Bmonitor%2B27%2Binch&amp;qid=1673345126&amp;sprefix=hp%2Beye%2Bease%2Bmonitor%2B27%2Binch%2B%2Caps%2C348&amp;sr=8-3&amp;th=1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/HP-23-8-inch-Ultra-Slim-Monitor-Built/dp/B08B6BYCNB/ref=sr_1_3?crid=1FZ06FIXHYKUQ&amp;keywords=hp24mh+monitor&amp;qid=1673345397&amp;sprefix=hp24m%2Caps%2C526&amp;sr=8-3</t>
-  </si>
-  <si>
-    <t>Expenses - next</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/Acer-HA270-Awmi-27-inch-Monitor/dp/B07JD7GKJP/ref=sr_1_4?crid=3FA7KGZ546KKS&amp;keywords=acer+led+monitor&amp;qid=1673346087&amp;sprefix=acer+led+monitor%2Caps%2C264&amp;sr=8-4</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>3 antenna router + net plan upgrade</t>
-  </si>
-  <si>
-    <t>Monitor - 27 - Acer/HP</t>
-  </si>
-  <si>
-    <t>Scaler AM, HW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Performance testing - multifile upload
-QA meeting
-</t>
-  </si>
-  <si>
-    <t>Scaler AM, HW
-Scaler class
-Scaler revision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi file performance
-</t>
-  </si>
-  <si>
-    <t>Lifestyle</t>
-  </si>
-  <si>
-    <t>Food - Vegetarian</t>
-  </si>
-  <si>
-    <t>No outdoor games</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No snacking in between, drink Hot water </t>
-  </si>
-  <si>
-    <t>Bath before sunset</t>
-  </si>
-  <si>
-    <t>Dinner early</t>
-  </si>
-  <si>
-    <t>No going out in the heat, car + AC</t>
-  </si>
-  <si>
-    <t>Early to rise by 5-6 AM</t>
-  </si>
-  <si>
-    <t>Scaler AM
-Scaler Revision
-Relatives
-Sowmya appointment
-Buddi splint</t>
-  </si>
-  <si>
-    <t>Neck and shoulder exercises</t>
-  </si>
-  <si>
-    <t>Focus Areas</t>
-  </si>
-  <si>
-    <t>Samarth Raipuriya</t>
-  </si>
-  <si>
-    <t>Scaler class
-Scaler AM, HW
-Scaler revision
-Problem solving</t>
-  </si>
-  <si>
-    <t>Cleaning</t>
-  </si>
-  <si>
-    <t>Keyboard and mouse</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/Logitech-MK275-Wireless-Keyboard-Mouse/dp/B06X3YC1MD/ref=sr_1_8?keywords=wireless+keyboard+and+mouse+logitech&amp;qid=1673710837&amp;sprefix=wireless+keyboard+and+mouse+%2Caps%2C386&amp;sr=8-8</t>
+    <t>Resume Template</t>
+  </si>
+  <si>
+    <t>https://www.overleaf.com/project/62ee523c0d8f20aebaa738bf</t>
+  </si>
+  <si>
+    <t>https://www.overleaf.com/read/vbkfnfbmcmjs</t>
+  </si>
+  <si>
+    <t>Green mirchi</t>
+  </si>
+  <si>
+    <t>spicy pickles</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>Garlic</t>
+  </si>
+  <si>
+    <t>Aaloo</t>
+  </si>
+  <si>
+    <t>Dondakai</t>
+  </si>
+  <si>
+    <t>Sambar, rasam</t>
+  </si>
+  <si>
+    <t>vegetables</t>
+  </si>
+  <si>
+    <t>Dal</t>
+  </si>
+  <si>
+    <t>Nuts, Fruits</t>
+  </si>
+  <si>
+    <t>Sweets/Sugar</t>
+  </si>
+  <si>
+    <t>mother to the world</t>
+  </si>
+  <si>
+    <t>respond</t>
+  </si>
+  <si>
+    <t>Puppy</t>
+  </si>
+  <si>
+    <t>Athaya</t>
+  </si>
+  <si>
+    <t>Mavayya</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Gopi</t>
+  </si>
+  <si>
+    <t>Thaatha</t>
+  </si>
+  <si>
+    <t>Atha</t>
+  </si>
+  <si>
+    <t>Incident</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>misuse</t>
+  </si>
+  <si>
+    <t>Reflection</t>
+  </si>
+  <si>
+    <t>Ask questions to parents</t>
+  </si>
+  <si>
+    <t>Get up early - 3 to 5 ask</t>
+  </si>
+  <si>
+    <t>distant from fam</t>
+  </si>
+  <si>
+    <t>silence + volunteering</t>
+  </si>
+  <si>
+    <t>Fam</t>
+  </si>
+  <si>
+    <t>Yes + Respond</t>
+  </si>
+  <si>
+    <t>Relax, breathe</t>
+  </si>
+  <si>
+    <t>My ability to respond is limitless</t>
+  </si>
+  <si>
+    <t>Being a parent to the world</t>
+  </si>
+  <si>
+    <t>Silence</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Forget it + don’t pick it up</t>
+  </si>
+  <si>
+    <t>Food &gt; Yes</t>
+  </si>
+  <si>
+    <t>Uncomfortable</t>
+  </si>
+  <si>
+    <t>Silence+Relax</t>
+  </si>
+  <si>
+    <t>Ask questions</t>
+  </si>
+  <si>
+    <t>pass/do</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>After 12 , relax - conducive family</t>
+  </si>
+  <si>
+    <t>Savior</t>
+  </si>
+  <si>
+    <t>Ravi family</t>
+  </si>
+  <si>
+    <t>Apartment</t>
+  </si>
+  <si>
+    <t>Saviors</t>
+  </si>
+  <si>
+    <t>Sisters</t>
+  </si>
+  <si>
+    <t>rest all</t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+  <si>
+    <t>Pendant on you</t>
+  </si>
+  <si>
+    <t>Reflection + volunteering + silence</t>
+  </si>
+  <si>
+    <t>Morning - wakeup and thank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact </t>
+  </si>
+  <si>
+    <t>yes to anything</t>
+  </si>
+  <si>
+    <t>Yoga - just do - normal times
+reflection - no / respond</t>
+  </si>
+  <si>
+    <t>Personal things</t>
+  </si>
+  <si>
+    <t>Devi at home + no one should sleep in that room</t>
+  </si>
+  <si>
+    <t>Activity as an offering + devi pray</t>
+  </si>
+  <si>
+    <t>How to approach it</t>
+  </si>
+  <si>
+    <t>know a parent is there</t>
+  </si>
+  <si>
+    <t>Dont rules</t>
+  </si>
+  <si>
+    <t>No peeping</t>
+  </si>
+  <si>
+    <t>pick up - no</t>
+  </si>
+  <si>
+    <t>Cause</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>Purity</t>
+  </si>
+  <si>
+    <t>All aspects</t>
+  </si>
+  <si>
+    <t>Mom, Gopi</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>TBD, Puppy, Baby</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>Promote and Sridhar</t>
+  </si>
+  <si>
+    <t>Mom, Dad</t>
+  </si>
+  <si>
+    <t>Transfers</t>
+  </si>
+  <si>
+    <t>Sagar, Kalyan</t>
+  </si>
+  <si>
+    <t>Puppy, close</t>
+  </si>
+  <si>
+    <t>No this that</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
+  <si>
+    <t>back, people, TBD</t>
+  </si>
+  <si>
+    <t>follow, act</t>
+  </si>
+  <si>
+    <t>Switching tasks</t>
+  </si>
+  <si>
+    <t>one act, limited duration</t>
+  </si>
+  <si>
+    <t>listen, do</t>
+  </si>
+  <si>
+    <t>distractions</t>
+  </si>
+  <si>
+    <t>prioritize, 2 apps - LinkedIn, school</t>
+  </si>
+  <si>
+    <t>Friends</t>
+  </si>
+  <si>
+    <t>4 - to do</t>
+  </si>
+  <si>
+    <t>Meet Subbu garu</t>
+  </si>
+  <si>
+    <t>with family, act</t>
+  </si>
+  <si>
+    <t>Kids education</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>Meet anna</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>Tips</t>
+  </si>
+  <si>
+    <t>Except for work, don’t pick</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Itch background</t>
+  </si>
+  <si>
+    <t>Parent Kid - kid behavior?</t>
+  </si>
+  <si>
+    <t>Take it slow, very slow</t>
+  </si>
+  <si>
+    <t>Life seriousness</t>
+  </si>
+  <si>
+    <t>over involve, current responsibilities, avoid</t>
+  </si>
+  <si>
+    <t>commitments</t>
+  </si>
+  <si>
+    <t>office &gt; home</t>
+  </si>
+  <si>
+    <t>Baby boy birthday</t>
+  </si>
+  <si>
+    <t>Doctors</t>
+  </si>
+  <si>
+    <t>Work-1</t>
+  </si>
+  <si>
+    <t>Finances-2</t>
+  </si>
+  <si>
+    <t>Family-3</t>
+  </si>
+  <si>
+    <t>Scaler+Volunteering + AI</t>
+  </si>
+  <si>
+    <t>game practice</t>
+  </si>
+  <si>
+    <t>Clues - doctor</t>
+  </si>
+  <si>
+    <t>questions</t>
+  </si>
+  <si>
+    <t>dos donts - 3</t>
+  </si>
+  <si>
+    <t>Everything</t>
+  </si>
+  <si>
+    <t>buddi+black thread+wood</t>
+  </si>
+  <si>
+    <t>Shelf - 2</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>doctors, core and staff</t>
+  </si>
+  <si>
+    <t>Salary day !!!</t>
+  </si>
+  <si>
+    <t>Prayer, keep some food aside</t>
+  </si>
+  <si>
+    <t>Sitting</t>
+  </si>
+  <si>
+    <t>Bathing</t>
+  </si>
+  <si>
+    <t>faster, rub rigorously back part of the head,</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>ipad</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Apple-2022-10-9-inch-Wi-Fi-Cellular/dp/B0BJM15HHH/ref=sr_1_1?crid=2CGPP28MWVKZL&amp;keywords=ipad%2Blatest%2B2023&amp;qid=1675164172&amp;s=computers&amp;sprefix=ipad%2Blatest%2B2023%2Ccomputers%2C451&amp;sr=1-1&amp;th=1</t>
+  </si>
+  <si>
+    <t>Hand brake</t>
+  </si>
+  <si>
+    <t>Early to rise by 3-4 AM</t>
+  </si>
+  <si>
+    <t>Practice</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/D-Link-DIR-825-Dual-Band-Gigabit-Router/dp/B078L5J7G1/ref=asc_df_B078L5J7G1/?tag=googleshopdes-21&amp;linkCode=df0&amp;hvadid=396985973511&amp;hvpos=&amp;hvnetw=g&amp;hvrand=11436147904742700520&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=1007740&amp;hvtargid=pla-404895146134&amp;psc=1&amp;ext_vrnc=hi</t>
+  </si>
+  <si>
+    <t>Printer stand</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Tree-House-Printer-Workspace-Organizers/dp/B0BLTP85LB/ref=sr_1_11?crid=1VRCRQIGWW5K8&amp;keywords=printer+stand+for+home&amp;qid=1675223426&amp;sprefix=printer+stan%2Caps%2C476&amp;sr=8-11</t>
+  </si>
+  <si>
+    <t>No one should feel bad because of our actions</t>
+  </si>
+  <si>
+    <t>WiFi router</t>
+  </si>
+  <si>
+    <t>HP monitor</t>
+  </si>
+  <si>
+    <t>Mouse and KB</t>
+  </si>
+  <si>
+    <t>support stand</t>
+  </si>
+  <si>
+    <t>Dongle</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Khairatabad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother </t>
+  </si>
+  <si>
+    <t>Green bawarchi
+jubilee checkpost</t>
+  </si>
+  <si>
+    <t>Home loan</t>
+  </si>
+  <si>
+    <t>Mom loan</t>
+  </si>
+  <si>
+    <t>New flat</t>
+  </si>
+  <si>
+    <t>Brother</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Gudi</t>
+  </si>
+  <si>
+    <t>Stand for siri</t>
+  </si>
+  <si>
+    <t>https://www.ikea.com/in/en/p/bergshult-shelf-brown-black-40430512/</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Planned</t>
+  </si>
+  <si>
+    <t>What's missed</t>
+  </si>
+  <si>
+    <t>Focus areas</t>
+  </si>
+  <si>
+    <t>What went well</t>
+  </si>
+  <si>
+    <t>Gudi+D Yantra</t>
+  </si>
+  <si>
+    <t>Being yantra</t>
+  </si>
+  <si>
+    <t>Ghee</t>
+  </si>
+  <si>
+    <t>Gingelly oil</t>
+  </si>
+  <si>
+    <t>Recurring</t>
+  </si>
+  <si>
+    <t>Chyawanprash</t>
+  </si>
+  <si>
+    <t>Adiyogi home</t>
+  </si>
+  <si>
+    <t>Finance Planning</t>
+  </si>
+  <si>
+    <t>Performance marketplace</t>
+  </si>
+  <si>
+    <t>One incident shouldn’t change our trust or impression</t>
+  </si>
+  <si>
+    <t>Getting back to normalcy</t>
+  </si>
+  <si>
+    <t>Leg perpendicular, tension in calf muscles, left hand pointing up, toes inward</t>
+  </si>
+  <si>
+    <t>ACT plan</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B-xdfQv3I1k</t>
+  </si>
+  <si>
+    <t>mission</t>
+  </si>
+  <si>
+    <t>Any transaction, both parties should think it is fair</t>
+  </si>
+  <si>
+    <t>Office - connector</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/OnePlus-Nord-Shadow-128GB-Storage/dp/B0B3CQBRB4/ref=asc_df_B0B3CQBRB4/?tag=googleshopdes-21&amp;linkCode=df0&amp;hvadid=586198248675&amp;hvpos=&amp;hvnetw=g&amp;hvrand=11816686330448814823&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=1007740&amp;hvtargid=pla-1696124459228&amp;th=1</t>
+  </si>
+  <si>
+    <t>stand for printer stand</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Yantram-Durable-Natural-Sitting-Height/dp/B084BZDJNP/ref=sr_1_7?crid=2CEFLWFZZNERW&amp;keywords=low%2Bheight%2Bstand%2Bfor%2Bprinter&amp;qid=1675229089&amp;sprefix=low%2Bheight%2Bstand%2Bfor%2Bprinter%2Caps%2C265&amp;sr=8-7&amp;th=1</t>
+  </si>
+  <si>
+    <t>Extension box</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/FEDUS-Extension-Computer-Protectors-Organizer/dp/B08B62HPHD/ref=d_pd_sbs_sccl_4_7/262-2219199-9920453?pd_rd_w=ycVyW&amp;content-id=amzn1.sym.e2ce9e2f-6d12-4c08-abc6-a5b1e7e9208f&amp;pf_rd_p=e2ce9e2f-6d12-4c08-abc6-a5b1e7e9208f&amp;pf_rd_r=MNEB8ZH9MS5P7N5PJK7Z&amp;pd_rd_wg=vsFNq&amp;pd_rd_r=df9e94e4-c116-4f4f-90ca-45185dba5de6&amp;pd_rd_i=B08B62HPHD&amp;psc=1</t>
+  </si>
+  <si>
+    <t>interiors</t>
+  </si>
+  <si>
+    <t>Water can stand</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/INDIAN-DECOR-45170-Breakfast-Barstools/dp/B08W23F242/ref=d_pd_sbs_sccl_2_28/262-2219199-9920453?pd_rd_w=H05Vv&amp;content-id=amzn1.sym.e2ce9e2f-6d12-4c08-abc6-a5b1e7e9208f&amp;pf_rd_p=e2ce9e2f-6d12-4c08-abc6-a5b1e7e9208f&amp;pf_rd_r=SSHZZZKA4WSCD8C3D7K7&amp;pd_rd_wg=bnAk5&amp;pd_rd_r=b69f3fe1-f09c-4857-9146-337270e869ba&amp;pd_rd_i=B08W23F242&amp;psc=1</t>
   </si>
 </sst>
 </file>
@@ -3491,7 +4131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3711,6 +4351,28 @@
     <xf numFmtId="16" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3732,9 +4394,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3743,6 +4402,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4062,10 +4730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA509AD-6BFB-4A4B-8912-D9F90D9DDB5C}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4120,7 +4788,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="G3" s="19">
         <v>2</v>
@@ -4140,7 +4808,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="85" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="G4" s="19">
         <v>3</v>
@@ -4160,7 +4828,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="85" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="G5" s="22">
         <v>4</v>
@@ -4180,7 +4848,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="85" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="G6" s="19">
         <v>5</v>
@@ -4194,13 +4862,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D7" s="19">
         <v>4</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="G7" s="19">
         <v>6</v>
@@ -4220,7 +4888,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="G8" s="19">
         <v>7</v>
@@ -4234,7 +4902,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="4"/>
@@ -4244,7 +4912,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>711</v>
+        <v>870</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="4"/>
@@ -4260,7 +4928,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>713</v>
+        <v>871</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -4288,7 +4956,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -4296,19 +4964,19 @@
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="G14" s="19">
         <v>2</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -4322,7 +4990,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="G15" s="19">
         <v>3</v>
@@ -4336,10 +5004,14 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+        <v>583</v>
+      </c>
+      <c r="D16" s="19">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>734</v>
+      </c>
       <c r="G16" s="19">
         <v>4</v>
       </c>
@@ -4354,7 +5026,9 @@
       <c r="B17" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="19">
+        <v>3</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="G17" s="19"/>
       <c r="H17" s="4"/>
@@ -4389,7 +5063,13 @@
         <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -4397,7 +5077,308 @@
         <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>627</v>
+        <v>624</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H21" s="96" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="93" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="19">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="19">
+        <v>2</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
+        <v>3</v>
+      </c>
+      <c r="B27" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H21" r:id="rId1" xr:uid="{42C52A00-9A96-4E93-998A-13DD3042EDEA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B184FA5-A01E-46CA-B492-1B3A7AECB7A5}">
+  <dimension ref="D1:H15"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="0" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="41" customWidth="1"/>
+    <col min="5" max="5" width="45.109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="36.44140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="35.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="31" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D1" s="70" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>369</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>372</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="H1" s="70" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2" spans="4:8" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="D2" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="H2" s="40"/>
+    </row>
+    <row r="3" spans="4:8" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="D3" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="4:8" ht="360" x14ac:dyDescent="0.3">
+      <c r="D4" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="D5" s="41" t="s">
+        <v>418</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>452</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>419</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" ht="266.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="41" t="s">
+        <v>454</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>456</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="D7" s="41" t="s">
+        <v>539</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="D8" s="41" t="s">
+        <v>544</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>563</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="D9" s="41" t="s">
+        <v>565</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>566</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>575</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="D10" s="41" t="s">
+        <v>576</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>577</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>598</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="D11" s="41" t="s">
+        <v>597</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>577</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>614</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>599</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="D12" s="41" t="s">
+        <v>616</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="D13" s="41" t="s">
+        <v>670</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>666</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>669</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>667</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D14" s="81" t="s">
+        <v>671</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>672</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>673</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="D15" s="41" t="s">
+        <v>722</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>723</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -4406,7 +5387,1139 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108951A9-5574-4450-9E88-2E035139CCFB}">
+  <dimension ref="E1:I32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="8.88671875" style="41"/>
+    <col min="6" max="6" width="25.6640625" style="79" customWidth="1"/>
+    <col min="7" max="7" width="35.109375" style="79" customWidth="1"/>
+    <col min="8" max="9" width="28.5546875" style="79" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E1" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="I1" s="78" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="2" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E2" s="8">
+        <v>44927</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>628</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E3" s="8">
+        <v>44928</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E4" s="8">
+        <v>44929</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E5" s="8">
+        <v>44930</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E6" s="8">
+        <v>44931</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E7" s="8">
+        <v>44932</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="5:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="E8" s="8">
+        <v>44933</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E9" s="8">
+        <v>44934</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E10" s="8">
+        <v>44935</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>678</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>684</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E11" s="8">
+        <v>44936</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E12" s="8">
+        <v>44937</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>694</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>695</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E13" s="8">
+        <v>44938</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>697</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="5:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>44939</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>704</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E15" s="8">
+        <v>44940</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>707</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E16" s="8">
+        <v>44941</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>711</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E17" s="8">
+        <v>44942</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>718</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E18" s="8">
+        <v>44943</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>719</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E19" s="8">
+        <v>44944</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>732</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E20" s="8">
+        <v>44945</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>731</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E21" s="8">
+        <v>44946</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>735</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E22" s="8">
+        <v>44947</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>737</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E23" s="8">
+        <v>44948</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E24" s="8">
+        <v>44949</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>846</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17" t="s">
+        <v>847</v>
+      </c>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E25" s="8">
+        <v>44950</v>
+      </c>
+      <c r="F25" s="104" t="s">
+        <v>837</v>
+      </c>
+      <c r="G25" s="104" t="s">
+        <v>856</v>
+      </c>
+      <c r="H25" s="104" t="s">
+        <v>837</v>
+      </c>
+      <c r="I25" s="104" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E26" s="8">
+        <v>44951</v>
+      </c>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E27" s="8">
+        <v>44952</v>
+      </c>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E28" s="8">
+        <v>44953</v>
+      </c>
+      <c r="F28" s="104" t="s">
+        <v>859</v>
+      </c>
+      <c r="G28" s="104" t="s">
+        <v>837</v>
+      </c>
+      <c r="H28" s="104" t="s">
+        <v>860</v>
+      </c>
+      <c r="I28" s="104" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E29" s="8">
+        <v>44954</v>
+      </c>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E30" s="8">
+        <v>44955</v>
+      </c>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E31" s="8">
+        <v>44956</v>
+      </c>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+    </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E32" s="8">
+        <v>44957</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A31E735-3C18-4990-B19F-FFA637F3D222}">
+  <dimension ref="F1:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="9" width="31.6640625" customWidth="1"/>
+    <col min="10" max="10" width="25.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F1" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="J1" s="78" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="2" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F2" s="37">
+        <v>44958</v>
+      </c>
+      <c r="G2" s="107" t="s">
+        <v>905</v>
+      </c>
+      <c r="H2" s="107" t="s">
+        <v>906</v>
+      </c>
+      <c r="I2" s="108" t="s">
+        <v>907</v>
+      </c>
+      <c r="J2" s="107" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="3" spans="6:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="37">
+        <v>44959</v>
+      </c>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="107"/>
+    </row>
+    <row r="4" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F4" s="37">
+        <v>44960</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F5" s="37">
+        <v>44961</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F6" s="37">
+        <v>44962</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F7" s="37">
+        <v>44963</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F8" s="37">
+        <v>44964</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F9" s="37">
+        <v>44965</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F10" s="37">
+        <v>44966</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F11" s="37">
+        <v>44967</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F12" s="37">
+        <v>44968</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F13" s="37">
+        <v>44969</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F14" s="37">
+        <v>44970</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F15" s="37">
+        <v>44971</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F16" s="37">
+        <v>44972</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F17" s="37">
+        <v>44973</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F18" s="37">
+        <v>44974</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F19" s="37">
+        <v>44975</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F20" s="37">
+        <v>44976</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F21" s="37">
+        <v>44977</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F22" s="37">
+        <v>44978</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F23" s="37">
+        <v>44979</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F24" s="37">
+        <v>44980</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F25" s="37">
+        <v>44981</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F26" s="37">
+        <v>44982</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F27" s="37">
+        <v>44983</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F28" s="37">
+        <v>44984</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F29" s="37">
+        <v>44985</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C589C0-B05A-4DDE-965C-9ED5A6D2080F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C4:F35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="37.77734375" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C5" s="8">
+        <v>44774</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="C6" s="8">
+        <v>44775</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C7" s="8">
+        <v>44776</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C8" s="8">
+        <v>44777</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C9" s="8">
+        <v>44778</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C10" s="8">
+        <v>44779</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C11" s="8">
+        <v>44780</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C12" s="8">
+        <v>44781</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C13" s="8">
+        <v>44782</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C14" s="8">
+        <v>44783</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C15" s="8">
+        <v>44784</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C16" s="8">
+        <v>44785</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C17" s="8">
+        <v>44786</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C18" s="8">
+        <v>44787</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C19" s="8">
+        <v>44788</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C20" s="8">
+        <v>44789</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C21" s="8">
+        <v>44790</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="C22" s="8">
+        <v>44791</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C23" s="8">
+        <v>44792</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C24" s="8">
+        <v>44793</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="8">
+        <v>44794</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C26" s="8">
+        <v>44795</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="8">
+        <v>44796</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="8">
+        <v>44797</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C29" s="8">
+        <v>44798</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C30" s="8">
+        <v>44799</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C31" s="8">
+        <v>44800</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C32" s="8">
+        <v>44801</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="C33" s="8">
+        <v>44802</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="C34" s="8">
+        <v>44803</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C35" s="8">
+        <v>44804</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB56A91C-BB34-4FBE-9778-8C93E26D0355}">
   <dimension ref="B4:H34"/>
   <sheetViews>
@@ -4808,10 +6921,10 @@
       </c>
     </row>
     <row r="30" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B30" s="94" t="s">
+      <c r="B30" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="94" t="s">
+      <c r="C30" s="109" t="s">
         <v>152</v>
       </c>
       <c r="D30" s="8">
@@ -4829,8 +6942,8 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
       <c r="D31" s="8">
         <v>44831</v>
       </c>
@@ -4846,8 +6959,8 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="109"/>
       <c r="D32" s="8">
         <v>44832</v>
       </c>
@@ -4863,8 +6976,8 @@
       </c>
     </row>
     <row r="33" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
       <c r="D33" s="8">
         <v>44833</v>
       </c>
@@ -4878,8 +6991,8 @@
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="2:8" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
       <c r="D34" s="8">
         <v>44834</v>
       </c>
@@ -4907,7 +7020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C650BB2-D140-403B-8898-95FB90824DA8}">
   <dimension ref="C3:L34"/>
   <sheetViews>
@@ -5393,7 +7506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0711C60-6686-40C5-A9B5-057F5E0CC9FE}">
   <dimension ref="E1:I31"/>
   <sheetViews>
@@ -5637,7 +7750,7 @@
         <v>44879</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>526</v>
@@ -5652,10 +7765,10 @@
         <v>44880</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>359</v>
@@ -5669,10 +7782,10 @@
         <v>44881</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>555</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>556</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>359</v>
@@ -5686,7 +7799,7 @@
         <v>44882</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -5699,13 +7812,13 @@
         <v>44883</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>560</v>
       </c>
       <c r="I19" s="9">
         <v>1</v>
@@ -5716,7 +7829,7 @@
         <v>44884</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -5729,11 +7842,11 @@
         <v>44885</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I21" s="9">
         <v>2</v>
@@ -5744,7 +7857,7 @@
         <v>44886</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -5757,7 +7870,7 @@
         <v>44887</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -5770,7 +7883,7 @@
         <v>44888</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -5783,11 +7896,11 @@
         <v>44889</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I25" s="9">
         <v>2</v>
@@ -5798,11 +7911,11 @@
         <v>44890</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I26" s="9">
         <v>1</v>
@@ -5813,7 +7926,7 @@
         <v>44891</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -5826,11 +7939,11 @@
         <v>44892</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I28" s="9">
         <v>2</v>
@@ -5841,7 +7954,7 @@
         <v>44893</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -5854,7 +7967,7 @@
         <v>44894</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -5867,7 +7980,7 @@
         <v>44895</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4" t="s">
@@ -5883,7 +7996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5A071E-9330-4862-B422-922D31A2128F}">
   <dimension ref="E1:I32"/>
   <sheetViews>
@@ -5922,13 +8035,13 @@
         <v>44896</v>
       </c>
       <c r="F2" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>589</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>590</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>591</v>
       </c>
       <c r="I2" s="10">
         <v>2</v>
@@ -5939,13 +8052,13 @@
         <v>44897</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I3" s="9">
         <v>1</v>
@@ -5956,11 +8069,11 @@
         <v>44898</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I4" s="9">
         <v>2</v>
@@ -5971,11 +8084,11 @@
         <v>44899</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I5" s="9">
         <v>2</v>
@@ -5986,13 +8099,13 @@
         <v>44900</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I6" s="9">
         <v>2</v>
@@ -6003,10 +8116,10 @@
         <v>44901</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="9">
@@ -6018,13 +8131,13 @@
         <v>44902</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I8" s="9">
         <v>2</v>
@@ -6035,7 +8148,7 @@
         <v>44903</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -6048,11 +8161,11 @@
         <v>44904</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="16" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="I10" s="9">
         <v>2</v>
@@ -6063,10 +8176,10 @@
         <v>44905</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="9">
@@ -6078,7 +8191,7 @@
         <v>44906</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
@@ -6091,7 +8204,7 @@
         <v>44907</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -6104,10 +8217,10 @@
         <v>44908</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="9">
@@ -6119,7 +8232,7 @@
         <v>44909</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -6129,12 +8242,12 @@
       <c r="E16" s="69">
         <v>44910</v>
       </c>
-      <c r="F16" s="98" t="s">
-        <v>629</v>
-      </c>
-      <c r="G16" s="99"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="95">
+      <c r="F16" s="110" t="s">
+        <v>626</v>
+      </c>
+      <c r="G16" s="111"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="104">
         <v>2</v>
       </c>
     </row>
@@ -6142,144 +8255,144 @@
       <c r="E17" s="69">
         <v>44911</v>
       </c>
-      <c r="F17" s="101"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="96"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="105"/>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E18" s="69">
         <v>44912</v>
       </c>
-      <c r="F18" s="101"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="96"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="105"/>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E19" s="69">
         <v>44913</v>
       </c>
-      <c r="F19" s="101"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="96"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="105"/>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E20" s="69">
         <v>44914</v>
       </c>
-      <c r="F20" s="101"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="96"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="105"/>
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E21" s="69">
         <v>44915</v>
       </c>
-      <c r="F21" s="101"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="96"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="105"/>
     </row>
     <row r="22" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E22" s="69">
         <v>44916</v>
       </c>
-      <c r="F22" s="101"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="96"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="105"/>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E23" s="69">
         <v>44917</v>
       </c>
-      <c r="F23" s="101"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="96"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="105"/>
     </row>
     <row r="24" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E24" s="69">
         <v>44918</v>
       </c>
-      <c r="F24" s="101"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="96"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="105"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E25" s="69">
         <v>44919</v>
       </c>
-      <c r="F25" s="101"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="96"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="105"/>
     </row>
     <row r="26" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E26" s="69">
         <v>44920</v>
       </c>
-      <c r="F26" s="101"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="96"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="105"/>
     </row>
     <row r="27" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E27" s="69">
         <v>44921</v>
       </c>
-      <c r="F27" s="101"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="97"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="106"/>
     </row>
     <row r="28" spans="5:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E28" s="69">
         <v>44922</v>
       </c>
-      <c r="F28" s="101"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="103"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="115"/>
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E29" s="69">
         <v>44923</v>
       </c>
-      <c r="F29" s="101"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="103"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="115"/>
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E30" s="69">
         <v>44924</v>
       </c>
-      <c r="F30" s="101"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="103"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="115"/>
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E31" s="69">
         <v>44925</v>
       </c>
-      <c r="F31" s="101"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="103"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="115"/>
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E32" s="69">
         <v>44926</v>
       </c>
-      <c r="F32" s="104"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="106"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="118"/>
       <c r="I32" s="9"/>
     </row>
   </sheetData>
@@ -6292,11 +8405,626 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECF412D-838F-4C12-A7DC-B4E32B510569}">
+  <dimension ref="C3:M45"/>
+  <sheetViews>
+    <sheetView topLeftCell="E5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="4" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D4" s="87">
+        <v>1</v>
+      </c>
+      <c r="E4" s="87">
+        <v>2</v>
+      </c>
+      <c r="F4" s="87">
+        <v>3</v>
+      </c>
+      <c r="I4" s="89" t="s">
+        <v>698</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="L4" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="I5" s="89" t="s">
+        <v>206</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="I6" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="I7" s="89" t="s">
+        <v>752</v>
+      </c>
+      <c r="J7" s="88" t="s">
+        <v>771</v>
+      </c>
+      <c r="K7" s="88" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="I8" s="89" t="s">
+        <v>753</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="88" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="23" t="s">
+        <v>751</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="88" t="s">
+        <v>793</v>
+      </c>
+      <c r="M9" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>787</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>780</v>
+      </c>
+      <c r="G11" t="s">
+        <v>785</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D12" s="70" t="s">
+        <v>866</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>835</v>
+      </c>
+      <c r="G12" t="s">
+        <v>786</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="13" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="G13" t="s">
+        <v>788</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>909</v>
+      </c>
+      <c r="G14" t="s">
+        <v>789</v>
+      </c>
+      <c r="H14" s="28"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="4:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D15" s="23" t="s">
+        <v>864</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>865</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="16" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H17" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H18" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>784</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="I19" t="s">
+        <v>780</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H20" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="23" t="s">
+        <v>777</v>
+      </c>
+      <c r="M20" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="J21" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>779</v>
+      </c>
+      <c r="M21" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J22" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="K22" s="90" t="s">
+        <v>796</v>
+      </c>
+      <c r="M22" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H23" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H24" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="J25" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="J26" s="23" t="s">
+        <v>797</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="G28" s="92" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="G29" t="s">
+        <v>836</v>
+      </c>
+      <c r="I29" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C30" s="9">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="G30" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C31" s="9">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="G31" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C32" s="9">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C33" s="9">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="G33" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C34" s="91">
+        <v>6</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>756</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>810</v>
+      </c>
+      <c r="G34" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C35" s="91">
+        <v>7</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>816</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C36" s="91">
+        <v>8</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>818</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C37" s="91">
+        <v>9</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C38" s="91">
+        <v>10</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>821</v>
+      </c>
+      <c r="G38" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C39" s="91">
+        <v>11</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>822</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>823</v>
+      </c>
+      <c r="G39" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C40" s="91">
+        <v>12</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>716</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>824</v>
+      </c>
+      <c r="G40" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C41" s="91">
+        <v>13</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>826</v>
+      </c>
+      <c r="G41" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C42" s="91">
+        <v>14</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>827</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>828</v>
+      </c>
+      <c r="G42" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C43" s="91">
+        <v>15</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>829</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="G43" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C44" s="91">
+        <v>16</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>831</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="G44" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C45" s="91">
+        <v>17</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="G45" t="s">
+        <v>854</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8B13EF-0307-4B27-B53B-332018186558}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6347,19 +9075,19 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="87"/>
-      <c r="G2" s="87" t="s">
+      <c r="E2" s="97"/>
+      <c r="G2" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="87"/>
+      <c r="H2" s="97"/>
       <c r="J2" s="5" t="s">
         <v>135</v>
       </c>
@@ -6402,12 +9130,8 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="B3" s="4">
-        <v>62000</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
       <c r="D3" s="42" t="s">
         <v>13</v>
       </c>
@@ -6498,11 +9222,9 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="B5" s="4">
-        <v>30000</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="B5" s="4"/>
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
@@ -6548,11 +9270,9 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="B6" s="4">
-        <v>15000</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="B6" s="4"/>
       <c r="D6" s="43" t="s">
         <v>23</v>
       </c>
@@ -6597,11 +9317,9 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="B7" s="4">
-        <v>150000</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="B7" s="4"/>
       <c r="D7" s="43" t="s">
         <v>246</v>
       </c>
@@ -6649,9 +9367,7 @@
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="4">
-        <v>10000</v>
-      </c>
+      <c r="B8" s="4"/>
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
@@ -6670,7 +9386,9 @@
       <c r="K8" s="4">
         <v>20000</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>869</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="O8"/>
       <c r="P8"/>
@@ -6692,11 +9410,9 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="B9" s="4">
-        <v>3800</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
@@ -6736,7 +9452,7 @@
       </c>
       <c r="B10" s="56">
         <f>SUM(B3:B9)</f>
-        <v>270800</v>
+        <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>19</v>
@@ -6792,10 +9508,10 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="80" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B12" s="80" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>21</v>
@@ -6826,9 +9542,11 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="B13" s="4"/>
+        <v>733</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5000</v>
+      </c>
       <c r="D13" s="4" t="s">
         <v>22</v>
       </c>
@@ -6864,11 +9582,13 @@
         <v>33532</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="B14" s="4"/>
+        <v>858</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10000</v>
+      </c>
       <c r="D14" s="4" t="s">
         <v>24</v>
       </c>
@@ -6905,8 +9625,12 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="B15" s="4">
+        <v>80000</v>
+      </c>
       <c r="D15" s="4" t="s">
         <v>26</v>
       </c>
@@ -7025,7 +9749,7 @@
     </row>
     <row r="19" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="83" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>30</v>
@@ -7172,12 +9896,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793109CE-B9DA-4197-A068-6AFB5BC24F21}">
   <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView topLeftCell="B82" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7195,30 +9919,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="100" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="F1" s="90" t="s">
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="F1" s="100" t="s">
         <v>211</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="I1" s="89" t="s">
+      <c r="G1" s="100"/>
+      <c r="I1" s="99" t="s">
         <v>195</v>
       </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="M1" s="89" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="M1" s="99" t="s">
         <v>215</v>
       </c>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="Q1" s="90" t="s">
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="Q1" s="100" t="s">
         <v>232</v>
       </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
@@ -7499,11 +10223,11 @@
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="100" t="s">
         <v>213</v>
       </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
       <c r="Q10" s="7">
         <v>8</v>
       </c>
@@ -7623,11 +10347,11 @@
       <c r="S14" s="17"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="101" t="s">
         <v>214</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
       <c r="I15" s="30">
         <v>44568</v>
       </c>
@@ -7662,7 +10386,7 @@
         <v>44935</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>318</v>
@@ -7706,13 +10430,13 @@
         <v>14</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="T17" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="18" spans="2:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -7748,10 +10472,10 @@
       </c>
       <c r="R18" s="17"/>
       <c r="S18" s="18" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
@@ -7903,11 +10627,11 @@
       <c r="S23" s="17"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="100" t="s">
         <v>216</v>
       </c>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
       <c r="I24" s="31">
         <v>44595</v>
       </c>
@@ -8364,11 +11088,11 @@
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="88" t="s">
-        <v>635</v>
-      </c>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
+      <c r="B44" s="98" t="s">
+        <v>631</v>
+      </c>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
       <c r="I44" s="35">
         <v>44719</v>
       </c>
@@ -8401,16 +11125,16 @@
     </row>
     <row r="46" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="I46" s="35">
         <v>44728</v>
@@ -8424,7 +11148,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>311</v>
@@ -8458,13 +11182,13 @@
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="I49" s="35">
         <v>44735</v>
@@ -8492,7 +11216,7 @@
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -8506,11 +11230,11 @@
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="I52" s="36">
         <v>44743</v>
@@ -8538,11 +11262,11 @@
     </row>
     <row r="54" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="18" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="I54" s="36">
         <v>44756</v>
@@ -8554,10 +11278,10 @@
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D55" s="1"/>
       <c r="I55" s="36">
@@ -8572,11 +11296,11 @@
     </row>
     <row r="56" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="18" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="I56" s="36">
         <v>44762</v>
@@ -9042,7 +11766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431CB8B3-805D-4853-8F85-77D36BE0E0D7}">
   <dimension ref="D2:O83"/>
   <sheetViews>
@@ -10158,12 +12882,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C100BFCA-CA2F-46D4-AF8F-8BF6353EE367}">
-  <dimension ref="B2:D18"/>
+  <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10220,6 +12944,19 @@
         <v>451</v>
       </c>
     </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>738</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="20" t="s">
+        <v>740</v>
+      </c>
+    </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
         <v>13</v>
@@ -10244,36 +12981,97 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>692</v>
-      </c>
       <c r="D15" s="20" t="s">
-        <v>693</v>
+        <v>872</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>688</v>
+      </c>
       <c r="D16" s="20" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D17" s="20" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>718</v>
-      </c>
       <c r="D18" s="20" t="s">
-        <v>719</v>
+        <v>692</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>709</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>867</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>873</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>891</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>916</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>918</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>920</v>
+      </c>
+      <c r="D25" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>923</v>
+      </c>
+      <c r="D26" t="s">
+        <v>924</v>
       </c>
     </row>
   </sheetData>
@@ -10285,23 +13083,405 @@
     <hyperlink ref="D6" r:id="rId5" xr:uid="{68E1FACF-12E0-4D48-9588-121A64C4EB3A}"/>
     <hyperlink ref="D7" r:id="rId6" xr:uid="{2501302D-5586-4EA9-A3FA-FB85B21B74AE}"/>
     <hyperlink ref="D14" r:id="rId7" display="https://www.amazon.in/D-Link-DIR-825-Dual-Band-Gigabit-Router/dp/B078L5J7G1/ref=asc_df_B078L5J7G1/?tag=googleshopdes-21&amp;linkCode=df0&amp;hvadid=396985973511&amp;hvpos=&amp;hvnetw=g&amp;hvrand=14444461617105573477&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=1007740&amp;hvtargid=pla-404895146134&amp;psc=1&amp;ext_vrnc=hi" xr:uid="{059CD93E-26EC-4B35-BDA3-83A22B50BB06}"/>
-    <hyperlink ref="D15" r:id="rId8" xr:uid="{725F97B8-9229-485E-835A-426B29F22FBE}"/>
-    <hyperlink ref="D16" r:id="rId9" xr:uid="{3AEDD54A-784B-4CA9-BADA-29B6107615DF}"/>
-    <hyperlink ref="D17" r:id="rId10" xr:uid="{CBFAC2C6-A9B2-4AC1-B441-5841B36C8EB6}"/>
-    <hyperlink ref="D18" r:id="rId11" xr:uid="{3AA62F54-919A-40F6-BD4A-568E14809B71}"/>
+    <hyperlink ref="D16" r:id="rId8" xr:uid="{725F97B8-9229-485E-835A-426B29F22FBE}"/>
+    <hyperlink ref="D17" r:id="rId9" xr:uid="{3AEDD54A-784B-4CA9-BADA-29B6107615DF}"/>
+    <hyperlink ref="D18" r:id="rId10" xr:uid="{CBFAC2C6-A9B2-4AC1-B441-5841B36C8EB6}"/>
+    <hyperlink ref="D19" r:id="rId11" xr:uid="{3AA62F54-919A-40F6-BD4A-568E14809B71}"/>
+    <hyperlink ref="D8" r:id="rId12" xr:uid="{C2115C7D-48BD-424C-965D-4300890E26DD}"/>
+    <hyperlink ref="D9" r:id="rId13" xr:uid="{6B730972-FD9A-485E-95D3-7BE7B4E6BE19}"/>
+    <hyperlink ref="D20" r:id="rId14" xr:uid="{93E8605A-D634-4152-85F7-E1F94A0865CD}"/>
+    <hyperlink ref="D15" r:id="rId15" display="https://www.amazon.in/D-Link-DIR-825-Dual-Band-Gigabit-Router/dp/B078L5J7G1/ref=asc_df_B078L5J7G1/?tag=googleshopdes-21&amp;linkCode=df0&amp;hvadid=396985973511&amp;hvpos=&amp;hvnetw=g&amp;hvrand=11436147904742700520&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=1007740&amp;hvtargid=pla-404895146134&amp;psc=1&amp;ext_vrnc=hi" xr:uid="{140E0555-B109-4534-923A-ADA53044BFBD}"/>
+    <hyperlink ref="D21" r:id="rId16" xr:uid="{0FD3FD3D-ED61-47EE-AC01-48386F911213}"/>
+    <hyperlink ref="D22" r:id="rId17" xr:uid="{BDAFFB36-74DB-467D-A350-FD7529069152}"/>
+    <hyperlink ref="D23" r:id="rId18" display="https://www.amazon.in/OnePlus-Nord-Shadow-128GB-Storage/dp/B0B3CQBRB4/ref=asc_df_B0B3CQBRB4/?tag=googleshopdes-21&amp;linkCode=df0&amp;hvadid=586198248675&amp;hvpos=&amp;hvnetw=g&amp;hvrand=11816686330448814823&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=1007740&amp;hvtargid=pla-1696124459228&amp;th=1" xr:uid="{8F6D8FA5-1AC8-4B13-B0C4-A3E9ABAB3A70}"/>
+    <hyperlink ref="D24" r:id="rId19" xr:uid="{C4716BC6-F972-4AB5-B63D-94A5B9637764}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId12"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId20"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BA6B1F-1FBB-4756-A5C7-08E7AF27CF36}">
+  <dimension ref="B4:J25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="109" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F5" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>876</v>
+      </c>
+      <c r="G6" s="19">
+        <v>2000</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="17" t="s">
+        <v>885</v>
+      </c>
+      <c r="C7" s="17">
+        <v>5000000</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>877</v>
+      </c>
+      <c r="G7" s="19">
+        <v>15000</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="17" t="s">
+        <v>886</v>
+      </c>
+      <c r="C8" s="17">
+        <v>5000000</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="G8" s="19">
+        <v>2000</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="C9" s="17">
+        <v>14000000</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>873</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>879</v>
+      </c>
+      <c r="G10" s="19">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="F11" s="17" t="s">
+        <v>880</v>
+      </c>
+      <c r="G11" s="19">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="F12" s="17" t="s">
+        <v>911</v>
+      </c>
+      <c r="G12" s="19">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="F13" s="94" t="s">
+        <v>881</v>
+      </c>
+      <c r="G13" s="7">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="F14" s="94" t="s">
+        <v>910</v>
+      </c>
+      <c r="G14" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="F15" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="95">
+        <f>SUM(G6:G14)</f>
+        <v>142450</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="E17" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="G17" s="9">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="87">
+        <f>SUM(C7:C17)</f>
+        <v>25500000</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E19" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E21" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E22" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="1">
+        <f>SUM(H17:H24)</f>
+        <v>83690</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4ED268-2BEE-4565-9E37-CED6F6EC62DD}">
+  <dimension ref="D6:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D7" s="9">
+        <v>2023</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D8" s="9"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D9" s="9"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D10" s="9"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D11" s="9"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="9"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3169022D-0A20-40B2-9AEC-EE2156DA248A}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10318,16 +13498,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:7" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
-        <v>602</v>
+        <v>725</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>603</v>
-      </c>
+        <v>730</v>
+      </c>
+      <c r="D2" s="15"/>
       <c r="G2" s="13" t="s">
         <v>141</v>
       </c>
@@ -10343,7 +13521,7 @@
         <v>143</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -10382,10 +13560,10 @@
         <v>391</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="144" x14ac:dyDescent="0.3">
@@ -10393,13 +13571,13 @@
         <v>77</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.3">
@@ -10407,14 +13585,22 @@
         <v>78</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>604</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="17"/>
+        <v>601</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>728</v>
+      </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
     </row>
@@ -10441,1002 +13627,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B184FA5-A01E-46CA-B492-1B3A7AECB7A5}">
-  <dimension ref="D1:H14"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="3" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="41" customWidth="1"/>
-    <col min="5" max="5" width="45.109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="36.44140625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="35.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="31" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D1" s="70" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1" s="70" t="s">
-        <v>369</v>
-      </c>
-      <c r="F1" s="70" t="s">
-        <v>372</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="H1" s="70" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="2" spans="4:8" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="D2" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>368</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="H2" s="40"/>
-    </row>
-    <row r="3" spans="4:8" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="D3" s="41" t="s">
-        <v>381</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>368</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>382</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="4" spans="4:8" ht="360" x14ac:dyDescent="0.3">
-      <c r="D4" s="41" t="s">
-        <v>384</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>416</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>387</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="5" spans="4:8" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="D5" s="41" t="s">
-        <v>418</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>420</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>452</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>419</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="6" spans="4:8" ht="266.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="41" t="s">
-        <v>454</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>456</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>541</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>455</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="7" spans="4:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="D7" s="41" t="s">
-        <v>539</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>540</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>542</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="D8" s="41" t="s">
-        <v>544</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>546</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>564</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>545</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8" ht="144" x14ac:dyDescent="0.3">
-      <c r="D9" s="41" t="s">
-        <v>566</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>567</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>576</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="D10" s="41" t="s">
-        <v>577</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>578</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>599</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8" ht="144" x14ac:dyDescent="0.3">
-      <c r="D11" s="41" t="s">
-        <v>598</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>578</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>617</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>600</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="D12" s="41" t="s">
-        <v>619</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>620</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="D13" s="41" t="s">
-        <v>674</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>670</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>673</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>671</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D14" s="81" t="s">
-        <v>675</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>676</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>677</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108951A9-5574-4450-9E88-2E035139CCFB}">
-  <dimension ref="E1:I32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="8.88671875" style="41"/>
-    <col min="6" max="6" width="25.6640625" style="79" customWidth="1"/>
-    <col min="7" max="7" width="35.109375" style="79" customWidth="1"/>
-    <col min="8" max="9" width="28.5546875" style="79" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E1" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="78" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" s="78" t="s">
-        <v>665</v>
-      </c>
-      <c r="I1" s="78" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="2" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E2" s="8">
-        <v>44927</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>632</v>
-      </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E3" s="8">
-        <v>44928</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>632</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>634</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E4" s="8">
-        <v>44929</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>655</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>633</v>
-      </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E5" s="8">
-        <v>44930</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>654</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>653</v>
-      </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E6" s="8">
-        <v>44931</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>662</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>661</v>
-      </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E7" s="8">
-        <v>44932</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>664</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="5:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="E8" s="8">
-        <v>44933</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>668</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="9" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E9" s="8">
-        <v>44934</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>678</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17" t="s">
-        <v>679</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="10" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E10" s="8">
-        <v>44935</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>682</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>688</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>689</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="11" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E11" s="8">
-        <v>44936</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>690</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>691</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E12" s="8">
-        <v>44937</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>700</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>701</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E13" s="8">
-        <v>44938</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>702</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>703</v>
-      </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" spans="5:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="E14" s="8">
-        <v>44939</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>712</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E15" s="8">
-        <v>44940</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17" t="s">
-        <v>717</v>
-      </c>
-      <c r="I15" s="17"/>
-    </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E16" s="8">
-        <v>44941</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E17" s="8">
-        <v>44942</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E18" s="8">
-        <v>44943</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E19" s="8">
-        <v>44944</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E20" s="8">
-        <v>44945</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E21" s="8">
-        <v>44946</v>
-      </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E22" s="8">
-        <v>44947</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E23" s="8">
-        <v>44948</v>
-      </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E24" s="8">
-        <v>44949</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E25" s="8">
-        <v>44950</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-    </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E26" s="8">
-        <v>44951</v>
-      </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-    </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E27" s="8">
-        <v>44952</v>
-      </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-    </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E28" s="8">
-        <v>44953</v>
-      </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-    </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E29" s="8">
-        <v>44954</v>
-      </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-    </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E30" s="8">
-        <v>44955</v>
-      </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-    </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E31" s="8">
-        <v>44956</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-    </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E32" s="8">
-        <v>44957</v>
-      </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:F35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="37.77734375" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C5" s="8">
-        <v>44774</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="3:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="C6" s="8">
-        <v>44775</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C7" s="8">
-        <v>44776</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="C8" s="8">
-        <v>44777</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C9" s="8">
-        <v>44778</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C10" s="8">
-        <v>44779</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C11" s="8">
-        <v>44780</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C12" s="8">
-        <v>44781</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C13" s="8">
-        <v>44782</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C14" s="8">
-        <v>44783</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C15" s="8">
-        <v>44784</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C16" s="8">
-        <v>44785</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C17" s="8">
-        <v>44786</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C18" s="8">
-        <v>44787</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C19" s="8">
-        <v>44788</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="8">
-        <v>44789</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="3:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C21" s="8">
-        <v>44790</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="3:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="C22" s="8">
-        <v>44791</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C23" s="8">
-        <v>44792</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C24" s="8">
-        <v>44793</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="8">
-        <v>44794</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C26" s="8">
-        <v>44795</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="8">
-        <v>44796</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C28" s="8">
-        <v>44797</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="8">
-        <v>44798</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C30" s="8">
-        <v>44799</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C31" s="8">
-        <v>44800</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F31" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C32" s="8">
-        <v>44801</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="C33" s="8">
-        <v>44802</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="C34" s="8">
-        <v>44803</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C35" s="8">
-        <v>44804</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F35" s="9">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/4_Daily Schedule/Daily_Schedule_2022.xlsx
+++ b/4_Daily Schedule/Daily_Schedule_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adponlineind-my.sharepoint.com/personal/gangigua_es_ad_adp_com/Documents/Documents/2022/Amar_2022/4_Daily Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3760" documentId="13_ncr:1_{37DFCD91-C40D-4851-A7FF-D1781FDB40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38E75F72-7EF9-41BC-BFB9-A6D5877483B4}"/>
+  <xr:revisionPtr revIDLastSave="3789" documentId="13_ncr:1_{37DFCD91-C40D-4851-A7FF-D1781FDB40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1305D919-3E16-45DA-A978-38DD68B99874}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="978">
   <si>
     <t>Date</t>
   </si>
@@ -3500,9 +3500,6 @@
     <t>item</t>
   </si>
   <si>
-    <t>Hand brake</t>
-  </si>
-  <si>
     <t>https://www.amazon.in/D-Link-DIR-825-Dual-Band-Gigabit-Router/dp/B078L5J7G1/ref=asc_df_B078L5J7G1/?tag=googleshopdes-21&amp;linkCode=df0&amp;hvadid=396985973511&amp;hvpos=&amp;hvnetw=g&amp;hvrand=11436147904742700520&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=1007740&amp;hvtargid=pla-404895146134&amp;psc=1&amp;ext_vrnc=hi</t>
   </si>
   <si>
@@ -3843,9 +3840,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sivaram Maddy </t>
-  </si>
-  <si>
-    <t>ACT Plan</t>
   </si>
   <si>
     <t>Energy</t>
@@ -3952,6 +3946,46 @@
   </si>
   <si>
     <t>Naval Ravikant Video</t>
+  </si>
+  <si>
+    <t>Client central - API testing</t>
+  </si>
+  <si>
+    <t>Scaler - DBMS
+Java Revise</t>
+  </si>
+  <si>
+    <t>connector</t>
+  </si>
+  <si>
+    <t>ACT - A max 1325</t>
+  </si>
+  <si>
+    <t>Scaler DBMS - Topics</t>
+  </si>
+  <si>
+    <t>Clutch plate</t>
+  </si>
+  <si>
+    <t>Savings/Month</t>
+  </si>
+  <si>
+    <t>Car expenses</t>
+  </si>
+  <si>
+    <t>Assigned to filter - performance
+Q4 tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scaler - DBMS- Schema Design
+Scaler - AM </t>
+  </si>
+  <si>
+    <t>Scaler class - DBMS
+Scaler topics - DBMS</t>
+  </si>
+  <si>
+    <t>Hana testing estimates</t>
   </si>
 </sst>
 </file>
@@ -4326,7 +4360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4625,6 +4659,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5035,7 +5072,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G6" s="19">
         <v>5</v>
@@ -5099,7 +5136,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="4"/>
@@ -5109,13 +5146,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D11" s="19">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -5256,7 +5293,7 @@
         <v>182</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -5270,7 +5307,7 @@
         <v>204</v>
       </c>
       <c r="H21" s="84" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -5286,7 +5323,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -5294,7 +5331,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -5302,7 +5339,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
   </sheetData>
@@ -5321,7 +5358,7 @@
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5561,24 +5598,24 @@
     </row>
     <row r="15" spans="4:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="D15" s="36" t="s">
+        <v>887</v>
+      </c>
+      <c r="E15" s="35" t="s">
         <v>888</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="G15" s="35" t="s">
         <v>889</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="16" spans="4:8" ht="72" x14ac:dyDescent="0.3">
       <c r="D16" s="36" t="s">
+        <v>957</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>958</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>959</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>960</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>961</v>
       </c>
     </row>
   </sheetData>
@@ -6062,16 +6099,16 @@
         <v>44958</v>
       </c>
       <c r="G2" s="101" t="s">
+        <v>851</v>
+      </c>
+      <c r="H2" s="101" t="s">
         <v>852</v>
       </c>
-      <c r="H2" s="101" t="s">
+      <c r="I2" s="102" t="s">
         <v>853</v>
       </c>
-      <c r="I2" s="102" t="s">
+      <c r="J2" s="101" t="s">
         <v>854</v>
-      </c>
-      <c r="J2" s="101" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -6130,42 +6167,42 @@
     </row>
     <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F9" s="33">
         <v>44965</v>
       </c>
       <c r="G9" s="16" t="s">
+        <v>867</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>868</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="I9" s="17" t="s">
         <v>869</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="J9" s="16" t="s">
         <v>870</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F10" s="33">
         <v>44966</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6173,16 +6210,16 @@
         <v>44967</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H11" s="16" t="s">
+        <v>880</v>
+      </c>
+      <c r="I11" s="17" t="s">
         <v>881</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="J11" s="17" t="s">
         <v>882</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -6190,12 +6227,12 @@
         <v>44968</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6203,14 +6240,14 @@
         <v>44969</v>
       </c>
       <c r="G13" s="16" t="s">
+        <v>890</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>891</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>892</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -6218,12 +6255,12 @@
         <v>44970</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6231,14 +6268,14 @@
         <v>44971</v>
       </c>
       <c r="G15" s="16" t="s">
+        <v>897</v>
+      </c>
+      <c r="H15" s="16" t="s">
         <v>898</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>899</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6247,11 +6284,11 @@
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="16" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="17" spans="6:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -6260,11 +6297,11 @@
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="16" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="17" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.3">
@@ -6390,8 +6427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7F667B-AC46-4A5B-9E68-DFF7990E7E64}">
   <dimension ref="G3:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6429,7 +6466,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -6556,7 +6593,7 @@
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="3" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -6567,7 +6604,7 @@
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="3" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -6578,7 +6615,7 @@
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="3" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -6607,7 +6644,7 @@
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="3" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -6618,7 +6655,7 @@
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="3" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -6629,7 +6666,7 @@
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="19" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -6639,10 +6676,10 @@
         <v>45008</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -6652,10 +6689,10 @@
         <v>45009</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -6678,12 +6715,16 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G30" s="8">
         <v>45012</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="H30" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>966</v>
+      </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
@@ -6691,8 +6732,12 @@
       <c r="G31" s="8">
         <v>45013</v>
       </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="H31" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>966</v>
+      </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
@@ -6705,21 +6750,29 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G33" s="8">
         <v>45015</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="H33" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>974</v>
+      </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G34" s="8">
         <v>45016</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="H34" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>977</v>
+      </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
@@ -9008,7 +9061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECF412D-838F-4C12-A7DC-B4E32B510569}">
   <dimension ref="C3:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="C24" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -9225,7 +9278,7 @@
         <v>831</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G14" t="s">
         <v>757</v>
@@ -9623,7 +9676,7 @@
   <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9730,7 +9783,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B3" s="4">
         <v>12000</v>
@@ -9787,7 +9840,7 @@
         <v>40000</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H4" s="4">
         <v>72000</v>
@@ -9833,7 +9886,7 @@
         <v>20000</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H5" s="4">
         <v>3000</v>
@@ -9918,7 +9971,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E7" s="4">
         <v>10000</v>
@@ -9969,8 +10022,12 @@
       <c r="E8" s="4">
         <v>500</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
+      <c r="G8" s="76" t="s">
+        <v>973</v>
+      </c>
+      <c r="H8" s="76">
+        <v>10000</v>
+      </c>
       <c r="J8" s="4" t="s">
         <v>444</v>
       </c>
@@ -9978,9 +10035,11 @@
         <v>20000</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="N8" s="4"/>
+        <v>971</v>
+      </c>
+      <c r="N8" s="4">
+        <v>9600</v>
+      </c>
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8" s="4" t="s">
@@ -10021,7 +10080,7 @@
       </c>
       <c r="N9" s="41">
         <f>SUM(N3:N8)</f>
-        <v>69000</v>
+        <v>78600</v>
       </c>
       <c r="O9"/>
       <c r="P9"/>
@@ -10153,7 +10212,7 @@
       </c>
       <c r="K13" s="65">
         <f>SUM(H18+K12)</f>
-        <v>272389.33333333337</v>
+        <v>261222.66666666666</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>495</v>
@@ -10185,7 +10244,7 @@
         <v>5000</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H14" s="4">
         <v>8000</v>
@@ -10195,7 +10254,7 @@
       </c>
       <c r="K14" s="43">
         <f>K13/0.6</f>
-        <v>453982.22222222231</v>
+        <v>435371.11111111112</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>496</v>
@@ -10236,7 +10295,7 @@
       </c>
       <c r="K15" s="65">
         <f>(K14/0.88)*12</f>
-        <v>6190666.6666666679</v>
+        <v>5936878.7878787881</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>498</v>
@@ -10269,7 +10328,7 @@
       </c>
       <c r="H16" s="45">
         <f>SUM(H6:H15)</f>
-        <v>117856</v>
+        <v>127856</v>
       </c>
       <c r="I16" s="66" t="s">
         <v>472</v>
@@ -10300,7 +10359,7 @@
       </c>
       <c r="H17" s="47">
         <f>(H16/12)</f>
-        <v>9821.3333333333339</v>
+        <v>10654.666666666666</v>
       </c>
       <c r="I17" s="66"/>
       <c r="J17" s="4" t="s">
@@ -10324,7 +10383,7 @@
       </c>
       <c r="H18" s="49">
         <f>SUM(H17,E21)</f>
-        <v>142389.33333333334</v>
+        <v>131222.66666666666</v>
       </c>
       <c r="I18" s="66"/>
       <c r="J18" s="4"/>
@@ -10334,7 +10393,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="75" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>29</v>
@@ -10348,7 +10407,7 @@
       </c>
       <c r="K19" s="51">
         <f>SUM(K13+K16+K18+K17)</f>
-        <v>872389.33333333337</v>
+        <v>861222.66666666663</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>497</v>
@@ -10362,12 +10421,8 @@
       <c r="A20" s="74">
         <v>44935</v>
       </c>
-      <c r="D20" s="52" t="s">
-        <v>909</v>
-      </c>
-      <c r="E20" s="52">
-        <v>12000</v>
-      </c>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
       <c r="G20" s="4" t="s">
         <v>37</v>
       </c>
@@ -10380,7 +10435,7 @@
       </c>
       <c r="K20" s="61">
         <f>(K19/0.6)</f>
-        <v>1453982.2222222222</v>
+        <v>1435371.111111111</v>
       </c>
       <c r="M20" s="41" t="s">
         <v>15</v>
@@ -10399,7 +10454,7 @@
       </c>
       <c r="E21" s="47">
         <f>SUM(E4:E20)</f>
-        <v>132568</v>
+        <v>120568</v>
       </c>
       <c r="G21" s="52" t="s">
         <v>36</v>
@@ -10413,7 +10468,7 @@
       </c>
       <c r="K21" s="51">
         <f>(K20/0.88)*12</f>
-        <v>19827030.303030305</v>
+        <v>19573242.424242422</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10439,7 +10494,7 @@
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J23" s="4" t="s">
         <v>455</v>
       </c>
@@ -10449,7 +10504,14 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="54" t="s">
+        <v>972</v>
+      </c>
+      <c r="H24" s="113">
+        <f>(H22-H18)</f>
+        <v>884.33333333334303</v>
+      </c>
       <c r="J24" s="57"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -10579,7 +10641,7 @@
         <v>182</v>
       </c>
       <c r="T2" s="90" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10668,7 +10730,7 @@
         <v>165</v>
       </c>
       <c r="S4" s="88" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="T4" s="88"/>
     </row>
@@ -10713,7 +10775,7 @@
         <v>170</v>
       </c>
       <c r="S5" s="88" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="T5" s="88"/>
     </row>
@@ -10742,7 +10804,7 @@
         <v>4</v>
       </c>
       <c r="R6" s="87" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="S6" s="88" t="s">
         <v>186</v>
@@ -10767,10 +10829,10 @@
         <v>5</v>
       </c>
       <c r="R7" s="87" t="s">
+        <v>922</v>
+      </c>
+      <c r="S7" s="88" t="s">
         <v>923</v>
-      </c>
-      <c r="S7" s="88" t="s">
-        <v>924</v>
       </c>
       <c r="T7" s="88"/>
     </row>
@@ -10848,7 +10910,7 @@
         <v>9</v>
       </c>
       <c r="R11" s="87" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="S11" s="88" t="s">
         <v>211</v>
@@ -10869,10 +10931,10 @@
         <v>10</v>
       </c>
       <c r="R12" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="S12" s="88" t="s">
         <v>926</v>
-      </c>
-      <c r="S12" s="88" t="s">
-        <v>927</v>
       </c>
       <c r="T12" s="88"/>
     </row>
@@ -10908,7 +10970,7 @@
         <v>11</v>
       </c>
       <c r="R13" s="87" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="S13" s="88" t="s">
         <v>212</v>
@@ -10941,7 +11003,7 @@
         <v>12</v>
       </c>
       <c r="R14" s="87" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="S14" s="88" t="s">
         <v>212</v>
@@ -10958,13 +11020,13 @@
         <v>44933</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>955</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>957</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -10972,10 +11034,10 @@
         <v>13</v>
       </c>
       <c r="R15" s="87" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="S15" s="88" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="T15" s="88"/>
     </row>
@@ -10993,19 +11055,19 @@
         <v>299</v>
       </c>
       <c r="M16" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>911</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>912</v>
       </c>
       <c r="Q16" s="86">
         <v>14</v>
       </c>
       <c r="R16" s="87" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="S16" s="88" t="s">
         <v>216</v>
@@ -11026,7 +11088,7 @@
         <v>44572</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>299</v>
@@ -11080,7 +11142,7 @@
         <v>168</v>
       </c>
       <c r="S18" s="88" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="T18" s="88"/>
     </row>
@@ -11114,7 +11176,7 @@
         <v>17</v>
       </c>
       <c r="R19" s="87" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="S19" s="88" t="s">
         <v>210</v>
@@ -11149,7 +11211,7 @@
         <v>18</v>
       </c>
       <c r="R20" s="87" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="S20" s="88" t="s">
         <v>210</v>
@@ -11172,7 +11234,7 @@
         <v>299</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>231</v>
@@ -11215,7 +11277,7 @@
         <v>20</v>
       </c>
       <c r="R22" s="87" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="S22" s="88" t="s">
         <v>215</v>
@@ -11243,10 +11305,10 @@
         <v>21</v>
       </c>
       <c r="R23" s="87" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="S23" s="88" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="T23" s="88"/>
     </row>
@@ -11276,7 +11338,7 @@
         <v>22</v>
       </c>
       <c r="R24" s="87" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="S24" s="88" t="s">
         <v>213</v>
@@ -13515,7 +13577,7 @@
   <dimension ref="B2:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13617,7 +13679,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D15" s="20" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -13648,71 +13710,71 @@
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
+        <v>836</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>837</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
+        <v>859</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>860</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
+        <v>861</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>862</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
+        <v>863</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>864</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="24" spans="3:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
+        <v>865</v>
+      </c>
+      <c r="D24" t="s">
         <v>866</v>
-      </c>
-      <c r="D24" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="25" spans="3:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
+        <v>913</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>914</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D28" s="20" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
   </sheetData>
@@ -13750,7 +13812,7 @@
   <dimension ref="B4:M19"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="109" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13767,7 +13829,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
@@ -13781,15 +13843,15 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F6" s="17" t="s">
-        <v>941</v>
+        <v>969</v>
       </c>
       <c r="G6" s="19">
-        <v>3000</v>
+        <v>15640</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>783</v>
@@ -13799,7 +13861,7 @@
         <v>2</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
@@ -13810,7 +13872,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G7" s="19">
         <v>2000</v>
@@ -13819,33 +13881,33 @@
         <v>613</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="L7" s="7">
         <v>3</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C8" s="4">
         <v>5000000</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G8" s="19">
         <v>30000</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="L8" s="7">
         <v>4</v>
@@ -13856,13 +13918,13 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C9" s="4">
         <v>5000000</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G9" s="19">
         <v>2000</v>
@@ -13873,18 +13935,18 @@
         <v>5</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C10" s="4">
         <v>17000000</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G10" s="19">
         <v>1700</v>
@@ -13898,7 +13960,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="F11" s="17" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G11" s="19">
         <v>1250</v>
@@ -13911,8 +13973,12 @@
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="19"/>
+      <c r="F12" s="17" t="s">
+        <v>968</v>
+      </c>
+      <c r="G12" s="19">
+        <v>8000</v>
+      </c>
       <c r="L12" s="7"/>
       <c r="M12" s="1"/>
     </row>
@@ -13948,7 +14014,7 @@
       </c>
       <c r="G16" s="83">
         <f>SUM(G6:G15)</f>
-        <v>39950</v>
+        <v>60590</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="1"/>
@@ -13997,19 +14063,19 @@
   <sheetData>
     <row r="6" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D6" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>849</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="7" spans="4:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -14017,7 +14083,7 @@
         <v>2023</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -14191,18 +14257,18 @@
         <v>696</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>

--- a/4_Daily Schedule/Daily_Schedule_2022.xlsx
+++ b/4_Daily Schedule/Daily_Schedule_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adponlineind-my.sharepoint.com/personal/gangigua_es_ad_adp_com/Documents/Documents/2022/Amar_2022/4_Daily Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3789" documentId="13_ncr:1_{37DFCD91-C40D-4851-A7FF-D1781FDB40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1305D919-3E16-45DA-A978-38DD68B99874}"/>
+  <xr:revisionPtr revIDLastSave="3819" documentId="13_ncr:1_{37DFCD91-C40D-4851-A7FF-D1781FDB40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13DC84A4-1DB1-4D03-8A64-F89BD3F7F2AD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principles" sheetId="2" r:id="rId1"/>
@@ -25,23 +25,23 @@
     <sheet name="Bi_Weekly_check" sheetId="11" r:id="rId10"/>
     <sheet name="January" sheetId="14" state="hidden" r:id="rId11"/>
     <sheet name="February" sheetId="19" state="hidden" r:id="rId12"/>
-    <sheet name="March" sheetId="20" r:id="rId13"/>
-    <sheet name="Sheet1" sheetId="15" state="hidden" r:id="rId14"/>
-    <sheet name="August" sheetId="1" state="hidden" r:id="rId15"/>
-    <sheet name="September" sheetId="5" state="hidden" r:id="rId16"/>
-    <sheet name="October" sheetId="10" state="hidden" r:id="rId17"/>
-    <sheet name="November" sheetId="12" state="hidden" r:id="rId18"/>
-    <sheet name="December" sheetId="13" state="hidden" r:id="rId19"/>
+    <sheet name="March" sheetId="20" state="hidden" r:id="rId13"/>
+    <sheet name="April" sheetId="21" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="15" state="hidden" r:id="rId15"/>
+    <sheet name="August" sheetId="1" state="hidden" r:id="rId16"/>
+    <sheet name="September" sheetId="5" state="hidden" r:id="rId17"/>
+    <sheet name="October" sheetId="10" state="hidden" r:id="rId18"/>
+    <sheet name="November" sheetId="12" state="hidden" r:id="rId19"/>
+    <sheet name="December" sheetId="13" state="hidden" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Family_Dates!$D$2:$F$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Network!$I$13:$K$95</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">November!$F$1:$I$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">October!$H$3:$L$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">September!$D$4:$H$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">November!$F$1:$I$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">October!$H$3:$L$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">September!$D$4:$H$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="986">
   <si>
     <t>Date</t>
   </si>
@@ -3917,11 +3917,6 @@
 LinkedIn writing</t>
   </si>
   <si>
-    <t>Progress on client central testing
-Complete Q3 user stories
-Mentor/Delegate work to Tarak,Aravind</t>
-  </si>
-  <si>
     <t>April</t>
   </si>
   <si>
@@ -3986,6 +3981,38 @@
   </si>
   <si>
     <t>Hana testing estimates</t>
+  </si>
+  <si>
+    <t>Scaler Topic DBMS
+Scaler class - CRUD
+Met Family</t>
+  </si>
+  <si>
+    <t>Progress on client central testing
+Complete Q3 user stories
+Mentor/Delegate work to Tarak,Aravind,Swetha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scaler class - CRUD </t>
+  </si>
+  <si>
+    <t>Scaler class - CRUD 
+Scaler topics - DBMS</t>
+  </si>
+  <si>
+    <t>Q4 estimations</t>
+  </si>
+  <si>
+    <t>https://www.greetingsisland.com/design/invitations/butterfly/631-22837</t>
+  </si>
+  <si>
+    <t>Naming ceremony</t>
+  </si>
+  <si>
+    <t>Font</t>
+  </si>
+  <si>
+    <t>Arimo</t>
   </si>
 </sst>
 </file>
@@ -4594,6 +4621,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4659,9 +4689,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5356,9 +5383,9 @@
   <dimension ref="D1:H16"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5615,7 +5642,7 @@
         <v>958</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>959</v>
+        <v>978</v>
       </c>
     </row>
   </sheetData>
@@ -5959,16 +5986,16 @@
       <c r="E25" s="8">
         <v>44950</v>
       </c>
-      <c r="F25" s="98" t="s">
+      <c r="F25" s="99" t="s">
         <v>805</v>
       </c>
-      <c r="G25" s="98" t="s">
+      <c r="G25" s="99" t="s">
         <v>824</v>
       </c>
-      <c r="H25" s="98" t="s">
+      <c r="H25" s="99" t="s">
         <v>805</v>
       </c>
-      <c r="I25" s="98" t="s">
+      <c r="I25" s="99" t="s">
         <v>684</v>
       </c>
     </row>
@@ -5976,34 +6003,34 @@
       <c r="E26" s="8">
         <v>44951</v>
       </c>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
     </row>
     <row r="27" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E27" s="8">
         <v>44952</v>
       </c>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
     </row>
     <row r="28" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E28" s="8">
         <v>44953</v>
       </c>
-      <c r="F28" s="98" t="s">
+      <c r="F28" s="99" t="s">
         <v>827</v>
       </c>
-      <c r="G28" s="98" t="s">
+      <c r="G28" s="99" t="s">
         <v>805</v>
       </c>
-      <c r="H28" s="98" t="s">
+      <c r="H28" s="99" t="s">
         <v>828</v>
       </c>
-      <c r="I28" s="98" t="s">
+      <c r="I28" s="99" t="s">
         <v>684</v>
       </c>
     </row>
@@ -6011,28 +6038,28 @@
       <c r="E29" s="8">
         <v>44954</v>
       </c>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
     </row>
     <row r="30" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E30" s="8">
         <v>44955</v>
       </c>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
     </row>
     <row r="31" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E31" s="8">
         <v>44956</v>
       </c>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="101"/>
     </row>
     <row r="32" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E32" s="8">
@@ -6098,16 +6125,16 @@
       <c r="F2" s="33">
         <v>44958</v>
       </c>
-      <c r="G2" s="101" t="s">
+      <c r="G2" s="102" t="s">
         <v>851</v>
       </c>
-      <c r="H2" s="101" t="s">
+      <c r="H2" s="102" t="s">
         <v>852</v>
       </c>
-      <c r="I2" s="102" t="s">
+      <c r="I2" s="103" t="s">
         <v>853</v>
       </c>
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="102" t="s">
         <v>854</v>
       </c>
     </row>
@@ -6115,10 +6142,10 @@
       <c r="F3" s="33">
         <v>44959</v>
       </c>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="101"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F4" s="33">
@@ -6427,8 +6454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7F667B-AC46-4A5B-9E68-DFF7990E7E64}">
   <dimension ref="G3:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6666,7 +6693,7 @@
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="19" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -6676,10 +6703,10 @@
         <v>45008</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -6689,10 +6716,10 @@
         <v>45009</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -6720,10 +6747,10 @@
         <v>45012</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -6733,10 +6760,10 @@
         <v>45013</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -6755,10 +6782,10 @@
         <v>45015</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -6768,10 +6795,10 @@
         <v>45016</v>
       </c>
       <c r="H34" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>976</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>977</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -6782,6 +6809,322 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCF6E82-368C-4B58-8240-7BC3DC7FE1EF}">
+  <dimension ref="G3:K33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="37.44140625" customWidth="1"/>
+    <col min="9" max="9" width="36" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G3" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="71" t="s">
+        <v>639</v>
+      </c>
+      <c r="K3" s="71" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="4" spans="7:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>977</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="7:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G9" s="1">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G10" s="1">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G11" s="1">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G12" s="1">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G14" s="1">
+        <v>11</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G15" s="1">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G16" s="1">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G17" s="1">
+        <v>14</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G18" s="1">
+        <v>15</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G19" s="1">
+        <v>16</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G20" s="1">
+        <v>17</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G21" s="1">
+        <v>18</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G22" s="1">
+        <v>19</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G23" s="1">
+        <v>20</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G24" s="1">
+        <v>21</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G25" s="1">
+        <v>22</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G26" s="1">
+        <v>23</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G27" s="1">
+        <v>24</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G28" s="1">
+        <v>25</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G29" s="1">
+        <v>26</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G30" s="1">
+        <v>27</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G31" s="1">
+        <v>28</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G32" s="1">
+        <v>29</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G33" s="1">
+        <v>30</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C589C0-B05A-4DDE-965C-9ED5A6D2080F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6795,7 +7138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:F35"/>
   <sheetViews>
@@ -7172,7 +7515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB56A91C-BB34-4FBE-9778-8C93E26D0355}">
   <dimension ref="B4:H34"/>
   <sheetViews>
@@ -7574,10 +7917,10 @@
       </c>
     </row>
     <row r="30" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="103" t="s">
+      <c r="C30" s="104" t="s">
         <v>146</v>
       </c>
       <c r="D30" s="8">
@@ -7595,8 +7938,8 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
       <c r="D31" s="8">
         <v>44831</v>
       </c>
@@ -7612,8 +7955,8 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
       <c r="D32" s="8">
         <v>44832</v>
       </c>
@@ -7629,8 +7972,8 @@
       </c>
     </row>
     <row r="33" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="104"/>
       <c r="D33" s="8">
         <v>44833</v>
       </c>
@@ -7644,8 +7987,8 @@
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="2:8" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="104"/>
       <c r="D34" s="8">
         <v>44834</v>
       </c>
@@ -7673,7 +8016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C650BB2-D140-403B-8898-95FB90824DA8}">
   <dimension ref="C3:L34"/>
   <sheetViews>
@@ -8159,7 +8502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0711C60-6686-40C5-A9B5-057F5E0CC9FE}">
   <dimension ref="E1:I31"/>
   <sheetViews>
@@ -8645,414 +8988,6 @@
     </row>
   </sheetData>
   <autoFilter ref="F1:I31" xr:uid="{B0711C60-6686-40C5-A9B5-057F5E0CC9FE}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5A071E-9330-4862-B422-922D31A2128F}">
-  <dimension ref="E1:I32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="24.5546875" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="63" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E2" s="62">
-        <v>44896</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>569</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>570</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>571</v>
-      </c>
-      <c r="I2" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E3" s="62">
-        <v>44897</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>573</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>572</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>571</v>
-      </c>
-      <c r="I3" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E4" s="62">
-        <v>44898</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>574</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="16" t="s">
-        <v>575</v>
-      </c>
-      <c r="I4" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E5" s="62">
-        <v>44899</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="16" t="s">
-        <v>575</v>
-      </c>
-      <c r="I5" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E6" s="62">
-        <v>44900</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>584</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="I6" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E7" s="62">
-        <v>44901</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>587</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>586</v>
-      </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E8" s="62">
-        <v>44902</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>589</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>548</v>
-      </c>
-      <c r="I8" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E9" s="62">
-        <v>44903</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E10" s="62">
-        <v>44904</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>591</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="I10" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E11" s="62">
-        <v>44905</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>594</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>593</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E12" s="62">
-        <v>44906</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>600</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E13" s="62">
-        <v>44907</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>601</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E14" s="62">
-        <v>44908</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>603</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E15" s="62">
-        <v>44909</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E16" s="62">
-        <v>44910</v>
-      </c>
-      <c r="F16" s="104" t="s">
-        <v>607</v>
-      </c>
-      <c r="G16" s="105"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E17" s="62">
-        <v>44911</v>
-      </c>
-      <c r="F17" s="107"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="99"/>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E18" s="62">
-        <v>44912</v>
-      </c>
-      <c r="F18" s="107"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="99"/>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E19" s="62">
-        <v>44913</v>
-      </c>
-      <c r="F19" s="107"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="99"/>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E20" s="62">
-        <v>44914</v>
-      </c>
-      <c r="F20" s="107"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="99"/>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E21" s="62">
-        <v>44915</v>
-      </c>
-      <c r="F21" s="107"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="99"/>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E22" s="62">
-        <v>44916</v>
-      </c>
-      <c r="F22" s="107"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="99"/>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E23" s="62">
-        <v>44917</v>
-      </c>
-      <c r="F23" s="107"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="99"/>
-    </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E24" s="62">
-        <v>44918</v>
-      </c>
-      <c r="F24" s="107"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="99"/>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E25" s="62">
-        <v>44919</v>
-      </c>
-      <c r="F25" s="107"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="99"/>
-    </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E26" s="62">
-        <v>44920</v>
-      </c>
-      <c r="F26" s="107"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="99"/>
-    </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E27" s="62">
-        <v>44921</v>
-      </c>
-      <c r="F27" s="107"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="100"/>
-    </row>
-    <row r="28" spans="5:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="62">
-        <v>44922</v>
-      </c>
-      <c r="F28" s="107"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E29" s="62">
-        <v>44923</v>
-      </c>
-      <c r="F29" s="107"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E30" s="62">
-        <v>44924</v>
-      </c>
-      <c r="F30" s="107"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E31" s="62">
-        <v>44925</v>
-      </c>
-      <c r="F31" s="107"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E32" s="62">
-        <v>44926</v>
-      </c>
-      <c r="F32" s="110"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="I16:I27"/>
-    <mergeCell ref="F16:H32"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9671,12 +9606,420 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5A071E-9330-4862-B422-922D31A2128F}">
+  <dimension ref="E1:I32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E2" s="62">
+        <v>44896</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="I2" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E3" s="62">
+        <v>44897</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E4" s="62">
+        <v>44898</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="16" t="s">
+        <v>575</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E5" s="62">
+        <v>44899</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="16" t="s">
+        <v>575</v>
+      </c>
+      <c r="I5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E6" s="62">
+        <v>44900</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="I6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E7" s="62">
+        <v>44901</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>587</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E8" s="62">
+        <v>44902</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="I8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E9" s="62">
+        <v>44903</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E10" s="62">
+        <v>44904</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="I10" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E11" s="62">
+        <v>44905</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E12" s="62">
+        <v>44906</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E13" s="62">
+        <v>44907</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E14" s="62">
+        <v>44908</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E15" s="62">
+        <v>44909</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E16" s="62">
+        <v>44910</v>
+      </c>
+      <c r="F16" s="105" t="s">
+        <v>607</v>
+      </c>
+      <c r="G16" s="106"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E17" s="62">
+        <v>44911</v>
+      </c>
+      <c r="F17" s="108"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="100"/>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E18" s="62">
+        <v>44912</v>
+      </c>
+      <c r="F18" s="108"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="100"/>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E19" s="62">
+        <v>44913</v>
+      </c>
+      <c r="F19" s="108"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="100"/>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E20" s="62">
+        <v>44914</v>
+      </c>
+      <c r="F20" s="108"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="100"/>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E21" s="62">
+        <v>44915</v>
+      </c>
+      <c r="F21" s="108"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="100"/>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E22" s="62">
+        <v>44916</v>
+      </c>
+      <c r="F22" s="108"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="100"/>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E23" s="62">
+        <v>44917</v>
+      </c>
+      <c r="F23" s="108"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="100"/>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E24" s="62">
+        <v>44918</v>
+      </c>
+      <c r="F24" s="108"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="100"/>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E25" s="62">
+        <v>44919</v>
+      </c>
+      <c r="F25" s="108"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="100"/>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E26" s="62">
+        <v>44920</v>
+      </c>
+      <c r="F26" s="108"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="100"/>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E27" s="62">
+        <v>44921</v>
+      </c>
+      <c r="F27" s="108"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="101"/>
+    </row>
+    <row r="28" spans="5:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="62">
+        <v>44922</v>
+      </c>
+      <c r="F28" s="108"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E29" s="62">
+        <v>44923</v>
+      </c>
+      <c r="F29" s="108"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E30" s="62">
+        <v>44924</v>
+      </c>
+      <c r="F30" s="108"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E31" s="62">
+        <v>44925</v>
+      </c>
+      <c r="F31" s="108"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E32" s="62">
+        <v>44926</v>
+      </c>
+      <c r="F32" s="111"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I16:I27"/>
+    <mergeCell ref="F16:H32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8B13EF-0307-4B27-B53B-332018186558}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9732,14 +10075,14 @@
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="91"/>
-      <c r="G2" s="91" t="s">
+      <c r="E2" s="92"/>
+      <c r="G2" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="91"/>
+      <c r="H2" s="92"/>
       <c r="J2" s="5" t="s">
         <v>129</v>
       </c>
@@ -10023,7 +10366,7 @@
         <v>500</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H8" s="76">
         <v>10000</v>
@@ -10035,7 +10378,7 @@
         <v>20000</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="N8" s="4">
         <v>9600</v>
@@ -10106,7 +10449,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="4">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>33</v>
@@ -10212,7 +10555,7 @@
       </c>
       <c r="K13" s="65">
         <f>SUM(H18+K12)</f>
-        <v>261222.66666666666</v>
+        <v>261322.66666666666</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>495</v>
@@ -10254,7 +10597,7 @@
       </c>
       <c r="K14" s="43">
         <f>K13/0.6</f>
-        <v>435371.11111111112</v>
+        <v>435537.77777777775</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>496</v>
@@ -10295,7 +10638,7 @@
       </c>
       <c r="K15" s="65">
         <f>(K14/0.88)*12</f>
-        <v>5936878.7878787881</v>
+        <v>5939151.5151515147</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>498</v>
@@ -10383,7 +10726,7 @@
       </c>
       <c r="H18" s="49">
         <f>SUM(H17,E21)</f>
-        <v>131222.66666666666</v>
+        <v>131322.66666666666</v>
       </c>
       <c r="I18" s="66"/>
       <c r="J18" s="4"/>
@@ -10407,7 +10750,7 @@
       </c>
       <c r="K19" s="51">
         <f>SUM(K13+K16+K18+K17)</f>
-        <v>861222.66666666663</v>
+        <v>861322.66666666663</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>497</v>
@@ -10435,7 +10778,7 @@
       </c>
       <c r="K20" s="61">
         <f>(K19/0.6)</f>
-        <v>1435371.111111111</v>
+        <v>1435537.7777777778</v>
       </c>
       <c r="M20" s="41" t="s">
         <v>15</v>
@@ -10454,7 +10797,7 @@
       </c>
       <c r="E21" s="47">
         <f>SUM(E4:E20)</f>
-        <v>120568</v>
+        <v>120668</v>
       </c>
       <c r="G21" s="52" t="s">
         <v>36</v>
@@ -10468,7 +10811,7 @@
       </c>
       <c r="K21" s="51">
         <f>(K20/0.88)*12</f>
-        <v>19573242.424242422</v>
+        <v>19575515.151515152</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10506,11 +10849,11 @@
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="54" t="s">
-        <v>972</v>
-      </c>
-      <c r="H24" s="113">
+        <v>971</v>
+      </c>
+      <c r="H24" s="91">
         <f>(H22-H18)</f>
-        <v>884.33333333334303</v>
+        <v>784.33333333334303</v>
       </c>
       <c r="J24" s="57"/>
       <c r="M24" s="4"/>
@@ -10572,30 +10915,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="F1" s="94" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="F1" s="95" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="I1" s="93" t="s">
+      <c r="G1" s="95"/>
+      <c r="I1" s="94" t="s">
         <v>184</v>
       </c>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="M1" s="93" t="s">
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="M1" s="94" t="s">
         <v>202</v>
       </c>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="Q1" s="94" t="s">
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="Q1" s="95" t="s">
         <v>214</v>
       </c>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
     </row>
     <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
@@ -10880,11 +11223,11 @@
       <c r="T9" s="88"/>
     </row>
     <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="95" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
       <c r="Q10" s="86">
         <v>8</v>
       </c>
@@ -11011,11 +11354,11 @@
       <c r="T14" s="88"/>
     </row>
     <row r="15" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="98"/>
       <c r="I15" s="26">
         <v>44933</v>
       </c>
@@ -11313,11 +11656,11 @@
       <c r="T23" s="88"/>
     </row>
     <row r="24" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="94" t="s">
+      <c r="B24" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
       <c r="I24" s="27">
         <v>44595</v>
       </c>
@@ -11778,11 +12121,11 @@
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="92" t="s">
+      <c r="B44" s="93" t="s">
         <v>612</v>
       </c>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
       <c r="I44" s="31">
         <v>44719</v>
       </c>
@@ -13574,10 +13917,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C100BFCA-CA2F-46D4-AF8F-8BF6353EE367}">
-  <dimension ref="B2:D28"/>
+  <dimension ref="B2:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13586,7 +13929,7 @@
     <col min="4" max="4" width="71.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C2" s="21" t="s">
         <v>118</v>
       </c>
@@ -13594,7 +13937,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>120</v>
       </c>
@@ -13602,7 +13945,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>413</v>
       </c>
@@ -13610,7 +13953,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>414</v>
       </c>
@@ -13618,7 +13961,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>430</v>
       </c>
@@ -13626,7 +13969,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>431</v>
       </c>
@@ -13634,7 +13977,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>706</v>
       </c>
@@ -13642,12 +13985,26 @@
         <v>707</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D9" s="20" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>983</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>982</v>
+      </c>
+      <c r="E10" t="s">
+        <v>984</v>
+      </c>
+      <c r="F10" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
         <v>12</v>
       </c>
@@ -13658,7 +14015,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>424</v>
       </c>
@@ -13669,7 +14026,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>634</v>
       </c>
@@ -13677,12 +14034,12 @@
         <v>633</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D15" s="20" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>661</v>
       </c>
@@ -13801,9 +14158,10 @@
     <hyperlink ref="D23" r:id="rId20" display="https://www.amazon.in/FEDUS-Extension-Computer-Protectors-Organizer/dp/B08B62HPHD/ref=d_pd_sbs_sccl_4_7/262-2219199-9920453?pd_rd_w=ycVyW&amp;content-id=amzn1.sym.e2ce9e2f-6d12-4c08-abc6-a5b1e7e9208f&amp;pf_rd_p=e2ce9e2f-6d12-4c08-abc6-a5b1e7e9208f&amp;pf_rd_r=MNEB8ZH9MS5P7N5PJK7Z&amp;pd_rd_wg=vsFNq&amp;pd_rd_r=df9e94e4-c116-4f4f-90ca-45185dba5de6&amp;pd_rd_i=B08B62HPHD&amp;psc=1" xr:uid="{271A097C-FD3E-418D-B17C-F9DAEE067097}"/>
     <hyperlink ref="D27" r:id="rId21" xr:uid="{A22A4C4E-56AF-466E-96AC-C9EBA932B1D6}"/>
     <hyperlink ref="D28" r:id="rId22" xr:uid="{95BEC685-2AA1-446B-930C-1D0FDEBF7F97}"/>
+    <hyperlink ref="D10" r:id="rId23" xr:uid="{96AE525F-2FB0-49EE-BEC9-AC1DF2E21DEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId23"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -13848,10 +14206,10 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F6" s="17" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="G6" s="19">
-        <v>15640</v>
+        <v>1564</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>783</v>
@@ -13875,7 +14233,7 @@
         <v>839</v>
       </c>
       <c r="G7" s="19">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>613</v>
@@ -13974,7 +14332,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="F12" s="17" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G12" s="19">
         <v>8000</v>
@@ -14014,7 +14372,7 @@
       </c>
       <c r="G16" s="83">
         <f>SUM(G6:G15)</f>
-        <v>60590</v>
+        <v>46614</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="1"/>
@@ -14134,7 +14492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3169022D-0A20-40B2-9AEC-EE2156DA248A}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -14265,10 +14623,10 @@
     </row>
     <row r="11" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
+        <v>959</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>960</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>961</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>

--- a/4_Daily Schedule/Daily_Schedule_2022.xlsx
+++ b/4_Daily Schedule/Daily_Schedule_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adponlineind-my.sharepoint.com/personal/gangigua_es_ad_adp_com/Documents/Documents/2022/Amar_2022/4_Daily Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3819" documentId="13_ncr:1_{37DFCD91-C40D-4851-A7FF-D1781FDB40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13DC84A4-1DB1-4D03-8A64-F89BD3F7F2AD}"/>
+  <xr:revisionPtr revIDLastSave="3846" documentId="13_ncr:1_{37DFCD91-C40D-4851-A7FF-D1781FDB40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DA62895-2425-4198-B6AE-C3D6AD8C9756}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principles" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="994">
   <si>
     <t>Date</t>
   </si>
@@ -2148,9 +2148,6 @@
     <t>College CBIT</t>
   </si>
   <si>
-    <t>Job - courses</t>
-  </si>
-  <si>
     <t>Books - study</t>
   </si>
   <si>
@@ -4013,6 +4010,33 @@
   </si>
   <si>
     <t>Arimo</t>
+  </si>
+  <si>
+    <t>Scaler class</t>
+  </si>
+  <si>
+    <t>Client central - performance</t>
+  </si>
+  <si>
+    <t>Scaler class - joins</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ULTRINA-Cylinder-Compressor-Motorbike-tubeless/dp/B0BS449WTY/ref=sr_1_8?keywords=air+pump+for+cycle+and+bike&amp;qid=1681528826&amp;sprefix=air+pump+%2Caps%2C377&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t>Air pump</t>
+  </si>
+  <si>
+    <t>Printer catridge</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Print-Star-Single-Color-Cartridge/dp/B07D5C3GKV/ref=sr_1_3?crid=2PMSRKT0ZREFG&amp;keywords=samsung+3201g+printer+cartridge&amp;qid=1681465088&amp;sprefix=samsung+printer+cartridge+3201G%2Caps%2C677&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>29/03/2023</t>
+  </si>
+  <si>
+    <t>Scaler - courses</t>
   </si>
 </sst>
 </file>
@@ -4387,7 +4411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4688,6 +4712,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5039,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G3" s="19">
         <v>2</v>
@@ -5059,7 +5086,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="77" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G4" s="19">
         <v>3</v>
@@ -5079,7 +5106,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="77" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G5" s="19">
         <v>4</v>
@@ -5099,7 +5126,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G6" s="19">
         <v>5</v>
@@ -5113,13 +5140,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D7" s="19">
         <v>4</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G7" s="19">
         <v>6</v>
@@ -5139,7 +5166,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G8" s="19">
         <v>7</v>
@@ -5153,7 +5180,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="4"/>
@@ -5163,7 +5190,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="4"/>
@@ -5173,13 +5200,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D11" s="19">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -5207,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -5215,19 +5242,19 @@
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G14" s="19">
         <v>2</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -5241,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G15" s="19">
         <v>3</v>
@@ -5255,13 +5282,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D16" s="19">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G16" s="19">
         <v>4</v>
@@ -5314,13 +5341,13 @@
         <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>182</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -5328,13 +5355,13 @@
         <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>204</v>
       </c>
       <c r="H21" s="84" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -5342,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="81" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -5350,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -5358,7 +5385,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -5366,7 +5393,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
   </sheetData>
@@ -5385,7 +5412,7 @@
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5487,162 +5514,162 @@
         <v>437</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>436</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="4:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="D7" s="36" t="s">
+        <v>519</v>
+      </c>
+      <c r="E7" s="35" t="s">
         <v>520</v>
       </c>
-      <c r="E7" s="35" t="s">
-        <v>521</v>
-      </c>
       <c r="F7" s="35" t="s">
+        <v>522</v>
+      </c>
+      <c r="H7" s="35" t="s">
         <v>523</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="8" spans="4:8" ht="201.6" x14ac:dyDescent="0.3">
       <c r="D8" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>526</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>543</v>
+      </c>
+      <c r="G8" s="35" t="s">
         <v>525</v>
       </c>
-      <c r="E8" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="F8" s="35" t="s">
+      <c r="H8" s="6" t="s">
         <v>544</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>526</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="9" spans="4:8" ht="144" x14ac:dyDescent="0.3">
       <c r="D9" s="36" t="s">
+        <v>545</v>
+      </c>
+      <c r="E9" s="35" t="s">
         <v>546</v>
       </c>
-      <c r="E9" s="35" t="s">
-        <v>547</v>
-      </c>
       <c r="F9" s="35" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="4:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="D10" s="36" t="s">
+        <v>556</v>
+      </c>
+      <c r="E10" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="E10" s="35" t="s">
-        <v>558</v>
-      </c>
       <c r="F10" s="35" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11" spans="4:8" ht="144" x14ac:dyDescent="0.3">
       <c r="D11" s="36" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F11" s="35" t="s">
+        <v>594</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="H11" s="35" t="s">
         <v>595</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>580</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="12" spans="4:8" ht="172.8" x14ac:dyDescent="0.3">
       <c r="D12" s="36" t="s">
+        <v>596</v>
+      </c>
+      <c r="E12" s="35" t="s">
         <v>597</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="G12" s="35" t="s">
         <v>598</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="13" spans="4:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="D13" s="36" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E13" s="35" t="s">
+        <v>643</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>646</v>
+      </c>
+      <c r="G13" s="35" t="s">
         <v>644</v>
       </c>
-      <c r="F13" s="35" t="s">
-        <v>647</v>
-      </c>
-      <c r="G13" s="35" t="s">
+      <c r="H13" s="6" t="s">
         <v>645</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="14" spans="4:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D14" s="73" t="s">
+        <v>648</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>649</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="F14" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="G14" s="35" t="s">
         <v>650</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>691</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>651</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="15" spans="4:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="D15" s="36" t="s">
+        <v>886</v>
+      </c>
+      <c r="E15" s="35" t="s">
         <v>887</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="G15" s="35" t="s">
         <v>888</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="16" spans="4:8" ht="72" x14ac:dyDescent="0.3">
       <c r="D16" s="36" t="s">
+        <v>956</v>
+      </c>
+      <c r="E16" s="35" t="s">
         <v>957</v>
       </c>
-      <c r="E16" s="35" t="s">
-        <v>958</v>
-      </c>
       <c r="G16" s="35" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
   </sheetData>
@@ -5679,10 +5706,10 @@
         <v>145</v>
       </c>
       <c r="H1" s="71" t="s">
+        <v>638</v>
+      </c>
+      <c r="I1" s="71" t="s">
         <v>639</v>
-      </c>
-      <c r="I1" s="71" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="2" spans="5:9" x14ac:dyDescent="0.3">
@@ -5690,7 +5717,7 @@
         <v>44927</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -5701,10 +5728,10 @@
         <v>44928</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -5714,10 +5741,10 @@
         <v>44929</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
@@ -5727,10 +5754,10 @@
         <v>44930</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
@@ -5740,10 +5767,10 @@
         <v>44931</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -5753,7 +5780,7 @@
         <v>44932</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -5764,14 +5791,14 @@
         <v>44933</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="16" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="9" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -5779,14 +5806,14 @@
         <v>44934</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="I9" s="17" t="s">
         <v>653</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="10" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -5794,16 +5821,16 @@
         <v>44935</v>
       </c>
       <c r="F10" s="16" t="s">
+        <v>655</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>656</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="H10" s="17" t="s">
         <v>657</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>658</v>
-      </c>
       <c r="I10" s="16" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="11" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -5811,10 +5838,10 @@
         <v>44936</v>
       </c>
       <c r="F11" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>659</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>660</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -5824,10 +5851,10 @@
         <v>44937</v>
       </c>
       <c r="F12" s="17" t="s">
+        <v>666</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>667</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>668</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -5837,10 +5864,10 @@
         <v>44938</v>
       </c>
       <c r="F13" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>669</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>670</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -5850,7 +5877,7 @@
         <v>44939</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
@@ -5861,11 +5888,11 @@
         <v>44940</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I15" s="17"/>
     </row>
@@ -5874,14 +5901,14 @@
         <v>44941</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17" t="s">
+        <v>682</v>
+      </c>
+      <c r="I16" s="17" t="s">
         <v>683</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="17" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -5889,7 +5916,7 @@
         <v>44942</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -5900,7 +5927,7 @@
         <v>44943</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
@@ -5911,7 +5938,7 @@
         <v>44944</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
@@ -5922,10 +5949,10 @@
         <v>44945</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -5935,12 +5962,12 @@
         <v>44946</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="22" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -5948,7 +5975,7 @@
         <v>44947</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
@@ -5959,14 +5986,14 @@
         <v>44948</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="24" spans="5:9" x14ac:dyDescent="0.3">
@@ -5974,11 +6001,11 @@
         <v>44949</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I24" s="17"/>
     </row>
@@ -5987,16 +6014,16 @@
         <v>44950</v>
       </c>
       <c r="F25" s="99" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G25" s="99" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H25" s="99" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I25" s="99" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="26" spans="5:9" x14ac:dyDescent="0.3">
@@ -6022,16 +6049,16 @@
         <v>44953</v>
       </c>
       <c r="F28" s="99" t="s">
+        <v>826</v>
+      </c>
+      <c r="G28" s="99" t="s">
+        <v>804</v>
+      </c>
+      <c r="H28" s="99" t="s">
         <v>827</v>
       </c>
-      <c r="G28" s="99" t="s">
-        <v>805</v>
-      </c>
-      <c r="H28" s="99" t="s">
-        <v>828</v>
-      </c>
       <c r="I28" s="99" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="29" spans="5:9" x14ac:dyDescent="0.3">
@@ -6066,7 +6093,7 @@
         <v>44957</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
@@ -6115,10 +6142,10 @@
         <v>145</v>
       </c>
       <c r="I1" s="71" t="s">
+        <v>638</v>
+      </c>
+      <c r="J1" s="71" t="s">
         <v>639</v>
-      </c>
-      <c r="J1" s="71" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -6126,16 +6153,16 @@
         <v>44958</v>
       </c>
       <c r="G2" s="102" t="s">
+        <v>850</v>
+      </c>
+      <c r="H2" s="102" t="s">
         <v>851</v>
       </c>
-      <c r="H2" s="102" t="s">
+      <c r="I2" s="103" t="s">
         <v>852</v>
       </c>
-      <c r="I2" s="103" t="s">
+      <c r="J2" s="102" t="s">
         <v>853</v>
-      </c>
-      <c r="J2" s="102" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -6194,42 +6221,42 @@
     </row>
     <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F9" s="33">
         <v>44965</v>
       </c>
       <c r="G9" s="16" t="s">
+        <v>866</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>867</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="I9" s="17" t="s">
         <v>868</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="J9" s="16" t="s">
         <v>869</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F10" s="33">
         <v>44966</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6237,16 +6264,16 @@
         <v>44967</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H11" s="16" t="s">
+        <v>879</v>
+      </c>
+      <c r="I11" s="17" t="s">
         <v>880</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="J11" s="17" t="s">
         <v>881</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -6254,12 +6281,12 @@
         <v>44968</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6267,14 +6294,14 @@
         <v>44969</v>
       </c>
       <c r="G13" s="16" t="s">
+        <v>889</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>890</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>891</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -6282,12 +6309,12 @@
         <v>44970</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6295,14 +6322,14 @@
         <v>44971</v>
       </c>
       <c r="G15" s="16" t="s">
+        <v>896</v>
+      </c>
+      <c r="H15" s="16" t="s">
         <v>897</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>898</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6311,11 +6338,11 @@
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="16" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="17" spans="6:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -6324,11 +6351,11 @@
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="16" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.3">
@@ -6480,10 +6507,10 @@
         <v>145</v>
       </c>
       <c r="J3" s="71" t="s">
+        <v>638</v>
+      </c>
+      <c r="K3" s="71" t="s">
         <v>639</v>
-      </c>
-      <c r="K3" s="71" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="4" spans="7:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6493,7 +6520,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -6620,7 +6647,7 @@
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -6631,7 +6658,7 @@
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -6642,7 +6669,7 @@
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -6671,7 +6698,7 @@
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -6682,7 +6709,7 @@
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -6693,7 +6720,7 @@
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="19" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -6703,10 +6730,10 @@
         <v>45008</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -6716,10 +6743,10 @@
         <v>45009</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -6747,10 +6774,10 @@
         <v>45012</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -6760,10 +6787,10 @@
         <v>45013</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -6782,10 +6809,10 @@
         <v>45015</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -6795,10 +6822,10 @@
         <v>45016</v>
       </c>
       <c r="H34" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>975</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>976</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -6812,8 +6839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCF6E82-368C-4B58-8240-7BC3DC7FE1EF}">
   <dimension ref="G3:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6835,10 +6862,10 @@
         <v>145</v>
       </c>
       <c r="J3" s="71" t="s">
+        <v>638</v>
+      </c>
+      <c r="K3" s="71" t="s">
         <v>639</v>
-      </c>
-      <c r="K3" s="71" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="4" spans="7:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -6846,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -6857,7 +6884,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -6877,10 +6904,10 @@
         <v>4</v>
       </c>
       <c r="H7" s="18" t="s">
+        <v>979</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>980</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>981</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -6898,8 +6925,12 @@
       <c r="G9" s="1">
         <v>6</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>986</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
@@ -6907,8 +6938,12 @@
       <c r="G10" s="1">
         <v>7</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="18" t="s">
+        <v>987</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>986</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
@@ -8594,11 +8629,11 @@
         <v>44869</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I5" s="9">
         <v>1</v>
@@ -8609,11 +8644,11 @@
         <v>44870</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I6" s="9">
         <v>2</v>
@@ -8624,11 +8659,11 @@
         <v>44871</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I7" s="9">
         <v>2</v>
@@ -8639,10 +8674,10 @@
         <v>44872</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>506</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>507</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="9">
@@ -8654,10 +8689,10 @@
         <v>44873</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>508</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>509</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="9">
@@ -8669,10 +8704,10 @@
         <v>44874</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>510</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>511</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="9">
@@ -8684,11 +8719,11 @@
         <v>44875</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I11" s="9">
         <v>1</v>
@@ -8699,13 +8734,13 @@
         <v>44876</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I12" s="9">
         <v>2</v>
@@ -8716,11 +8751,11 @@
         <v>44877</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I13" s="9">
         <v>2</v>
@@ -8731,11 +8766,11 @@
         <v>44878</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I14" s="9">
         <v>1</v>
@@ -8746,10 +8781,10 @@
         <v>44879</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="9">
@@ -8761,10 +8796,10 @@
         <v>44880</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>340</v>
@@ -8778,10 +8813,10 @@
         <v>44881</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>535</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>536</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>340</v>
@@ -8795,7 +8830,7 @@
         <v>44882</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -8808,13 +8843,13 @@
         <v>44883</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>540</v>
       </c>
       <c r="I19" s="9">
         <v>1</v>
@@ -8825,7 +8860,7 @@
         <v>44884</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -8838,11 +8873,11 @@
         <v>44885</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I21" s="9">
         <v>2</v>
@@ -8853,7 +8888,7 @@
         <v>44886</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -8866,7 +8901,7 @@
         <v>44887</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -8879,7 +8914,7 @@
         <v>44888</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -8892,11 +8927,11 @@
         <v>44889</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I25" s="9">
         <v>2</v>
@@ -8907,11 +8942,11 @@
         <v>44890</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I26" s="9">
         <v>1</v>
@@ -8922,7 +8957,7 @@
         <v>44891</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -8935,11 +8970,11 @@
         <v>44892</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I28" s="9">
         <v>2</v>
@@ -8950,7 +8985,7 @@
         <v>44893</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -8963,7 +8998,7 @@
         <v>44894</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -8976,7 +9011,7 @@
         <v>44895</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4" t="s">
@@ -8996,7 +9031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECF412D-838F-4C12-A7DC-B4E32B510569}">
   <dimension ref="C3:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -9015,7 +9050,7 @@
     <row r="3" spans="4:13" x14ac:dyDescent="0.3">
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.3">
@@ -9029,165 +9064,165 @@
         <v>3</v>
       </c>
       <c r="I4" s="80" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="L4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="5" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D5" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I5" s="80" t="s">
         <v>195</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="6" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D6" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I6" s="80" t="s">
         <v>29</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="7" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D7" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I7" s="80" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="8" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I8" s="80" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="9" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="M9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="10" spans="4:13" x14ac:dyDescent="0.3">
       <c r="G10" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>729</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>730</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="11" spans="4:13" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G11" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="L11">
         <v>2</v>
       </c>
       <c r="M11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="12" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D12" s="63" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G12" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="L12">
         <v>3</v>
       </c>
       <c r="M12" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="13" spans="4:13" x14ac:dyDescent="0.3">
@@ -9195,163 +9230,163 @@
         <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G13" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="14" spans="4:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D14" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="15" spans="4:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D15" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>832</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>833</v>
-      </c>
       <c r="J15" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>733</v>
-      </c>
       <c r="M15" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="16" spans="4:13" x14ac:dyDescent="0.3">
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="H17" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="M17" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="H18" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="G19" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I19" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>737</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="H20" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="M20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="J21" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>747</v>
-      </c>
       <c r="M21" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="22" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="J22" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="M22" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="H23" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="H24" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="J25" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>762</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="J26" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.3">
@@ -9359,13 +9394,13 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>774</v>
-      </c>
       <c r="G28" s="21" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.3">
@@ -9373,16 +9408,16 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G29" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I29" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.3">
@@ -9390,13 +9425,13 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>776</v>
-      </c>
       <c r="G30" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.3">
@@ -9404,13 +9439,13 @@
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G31" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.3">
@@ -9418,13 +9453,13 @@
         <v>4</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.3">
@@ -9432,13 +9467,13 @@
         <v>5</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>783</v>
-      </c>
       <c r="G33" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.3">
@@ -9446,13 +9481,13 @@
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G34" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.3">
@@ -9460,10 +9495,10 @@
         <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>784</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.3">
@@ -9471,10 +9506,10 @@
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>786</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.3">
@@ -9485,7 +9520,7 @@
         <v>494</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.3">
@@ -9496,10 +9531,10 @@
         <v>195</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G38" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.3">
@@ -9507,13 +9542,13 @@
         <v>11</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>791</v>
-      </c>
       <c r="G39" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.3">
@@ -9521,13 +9556,13 @@
         <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G40" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.3">
@@ -9535,13 +9570,13 @@
         <v>13</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>794</v>
-      </c>
       <c r="G41" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.3">
@@ -9549,13 +9584,13 @@
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>796</v>
-      </c>
       <c r="G42" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.3">
@@ -9563,13 +9598,13 @@
         <v>15</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>798</v>
-      </c>
       <c r="G43" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.3">
@@ -9577,13 +9612,13 @@
         <v>16</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>800</v>
-      </c>
       <c r="G44" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.3">
@@ -9591,13 +9626,13 @@
         <v>17</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>802</v>
-      </c>
       <c r="G45" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
   </sheetData>
@@ -9645,13 +9680,13 @@
         <v>44896</v>
       </c>
       <c r="F2" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>570</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>571</v>
       </c>
       <c r="I2" s="10">
         <v>2</v>
@@ -9662,13 +9697,13 @@
         <v>44897</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I3" s="9">
         <v>1</v>
@@ -9679,11 +9714,11 @@
         <v>44898</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I4" s="9">
         <v>2</v>
@@ -9694,11 +9729,11 @@
         <v>44899</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I5" s="9">
         <v>2</v>
@@ -9709,13 +9744,13 @@
         <v>44900</v>
       </c>
       <c r="F6" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>583</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="H6" s="16" t="s">
         <v>584</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>585</v>
       </c>
       <c r="I6" s="9">
         <v>2</v>
@@ -9726,10 +9761,10 @@
         <v>44901</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="9">
@@ -9741,13 +9776,13 @@
         <v>44902</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I8" s="9">
         <v>2</v>
@@ -9758,7 +9793,7 @@
         <v>44903</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -9771,11 +9806,11 @@
         <v>44904</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I10" s="9">
         <v>2</v>
@@ -9786,10 +9821,10 @@
         <v>44905</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="9">
@@ -9801,7 +9836,7 @@
         <v>44906</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
@@ -9814,7 +9849,7 @@
         <v>44907</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -9827,10 +9862,10 @@
         <v>44908</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="9">
@@ -9842,7 +9877,7 @@
         <v>44909</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -9853,7 +9888,7 @@
         <v>44910</v>
       </c>
       <c r="F16" s="105" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G16" s="106"/>
       <c r="H16" s="107"/>
@@ -10019,7 +10054,7 @@
   <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10035,7 +10070,9 @@
     <col min="11" max="11" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" style="6"/>
     <col min="13" max="13" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="8.88671875" style="6"/>
+    <col min="14" max="14" width="8.88671875" style="6"/>
+    <col min="15" max="15" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="6"/>
     <col min="17" max="17" width="20.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.77734375" style="6" customWidth="1"/>
     <col min="19" max="19" width="8.88671875" style="6"/>
@@ -10070,7 +10107,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
@@ -10095,7 +10132,9 @@
       <c r="N2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="O2"/>
+      <c r="O2" s="114" t="s">
+        <v>0</v>
+      </c>
       <c r="P2"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="59" t="s">
@@ -10126,7 +10165,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B3" s="4">
         <v>12000</v>
@@ -10155,7 +10194,9 @@
       <c r="N3" s="4">
         <v>24000</v>
       </c>
-      <c r="O3"/>
+      <c r="O3" s="9">
+        <v>2020</v>
+      </c>
       <c r="P3"/>
       <c r="Q3" s="4" t="s">
         <v>469</v>
@@ -10183,7 +10224,7 @@
         <v>40000</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H4" s="4">
         <v>72000</v>
@@ -10200,7 +10241,9 @@
       <c r="N4" s="4">
         <v>8000</v>
       </c>
-      <c r="O4"/>
+      <c r="O4" s="9">
+        <v>2021</v>
+      </c>
       <c r="P4"/>
       <c r="Q4" s="4" t="s">
         <v>481</v>
@@ -10229,7 +10272,7 @@
         <v>20000</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H5" s="4">
         <v>3000</v>
@@ -10246,7 +10289,9 @@
       <c r="N5" s="4">
         <v>14000</v>
       </c>
-      <c r="O5"/>
+      <c r="O5" s="9">
+        <v>2022</v>
+      </c>
       <c r="P5"/>
       <c r="Q5" s="4" t="s">
         <v>481</v>
@@ -10292,7 +10337,9 @@
       <c r="N6" s="4">
         <v>15000</v>
       </c>
-      <c r="O6"/>
+      <c r="O6" s="9">
+        <v>2022</v>
+      </c>
       <c r="P6"/>
       <c r="Q6" s="4" t="s">
         <v>467</v>
@@ -10314,7 +10361,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E7" s="4">
         <v>10000</v>
@@ -10338,7 +10385,9 @@
       <c r="N7" s="4">
         <v>8000</v>
       </c>
-      <c r="O7"/>
+      <c r="O7" s="9">
+        <v>2021</v>
+      </c>
       <c r="P7"/>
       <c r="Q7" s="56" t="s">
         <v>465</v>
@@ -10366,7 +10415,7 @@
         <v>500</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H8" s="76">
         <v>10000</v>
@@ -10378,12 +10427,14 @@
         <v>20000</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="N8" s="4">
         <v>9600</v>
       </c>
-      <c r="O8"/>
+      <c r="O8" s="33" t="s">
+        <v>992</v>
+      </c>
       <c r="P8"/>
       <c r="Q8" s="4" t="s">
         <v>482</v>
@@ -10425,7 +10476,7 @@
         <f>SUM(N3:N8)</f>
         <v>78600</v>
       </c>
-      <c r="O9"/>
+      <c r="O9" s="1"/>
       <c r="P9"/>
       <c r="Q9" s="4" t="s">
         <v>466</v>
@@ -10499,10 +10550,10 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>20</v>
@@ -10533,7 +10584,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B13" s="4">
         <v>5000</v>
@@ -10575,7 +10626,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B14" s="4">
         <v>10000</v>
@@ -10587,7 +10638,7 @@
         <v>5000</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H14" s="4">
         <v>8000</v>
@@ -10641,7 +10692,7 @@
         <v>5939151.5151515147</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N15" s="4">
         <f>(18*1000)</f>
@@ -10683,7 +10734,7 @@
         <v>350000</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N16" s="4">
         <f>(40*400)</f>
@@ -10736,7 +10787,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="75" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>29</v>
@@ -10753,7 +10804,7 @@
         <v>861322.66666666663</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>497</v>
+        <v>993</v>
       </c>
       <c r="N19" s="4">
         <f>(50000+300000+45*500)</f>
@@ -10849,7 +10900,7 @@
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="54" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H24" s="91">
         <f>(H22-H18)</f>
@@ -10984,7 +11035,7 @@
         <v>182</v>
       </c>
       <c r="T2" s="90" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11073,7 +11124,7 @@
         <v>165</v>
       </c>
       <c r="S4" s="88" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="T4" s="88"/>
     </row>
@@ -11118,7 +11169,7 @@
         <v>170</v>
       </c>
       <c r="S5" s="88" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="T5" s="88"/>
     </row>
@@ -11147,7 +11198,7 @@
         <v>4</v>
       </c>
       <c r="R6" s="87" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="S6" s="88" t="s">
         <v>186</v>
@@ -11172,10 +11223,10 @@
         <v>5</v>
       </c>
       <c r="R7" s="87" t="s">
+        <v>921</v>
+      </c>
+      <c r="S7" s="88" t="s">
         <v>922</v>
-      </c>
-      <c r="S7" s="88" t="s">
-        <v>923</v>
       </c>
       <c r="T7" s="88"/>
     </row>
@@ -11253,7 +11304,7 @@
         <v>9</v>
       </c>
       <c r="R11" s="87" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="S11" s="88" t="s">
         <v>211</v>
@@ -11274,10 +11325,10 @@
         <v>10</v>
       </c>
       <c r="R12" s="87" t="s">
+        <v>924</v>
+      </c>
+      <c r="S12" s="88" t="s">
         <v>925</v>
-      </c>
-      <c r="S12" s="88" t="s">
-        <v>926</v>
       </c>
       <c r="T12" s="88"/>
     </row>
@@ -11313,7 +11364,7 @@
         <v>11</v>
       </c>
       <c r="R13" s="87" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="S13" s="88" t="s">
         <v>212</v>
@@ -11346,7 +11397,7 @@
         <v>12</v>
       </c>
       <c r="R14" s="87" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="S14" s="88" t="s">
         <v>212</v>
@@ -11363,13 +11414,13 @@
         <v>44933</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>299</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -11377,10 +11428,10 @@
         <v>13</v>
       </c>
       <c r="R15" s="87" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="S15" s="88" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="T15" s="88"/>
     </row>
@@ -11392,25 +11443,25 @@
         <v>44935</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>299</v>
       </c>
       <c r="M16" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>910</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>911</v>
       </c>
       <c r="Q16" s="86">
         <v>14</v>
       </c>
       <c r="R16" s="87" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="S16" s="88" t="s">
         <v>216</v>
@@ -11431,7 +11482,7 @@
         <v>44572</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>299</v>
@@ -11485,7 +11536,7 @@
         <v>168</v>
       </c>
       <c r="S18" s="88" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="T18" s="88"/>
     </row>
@@ -11519,7 +11570,7 @@
         <v>17</v>
       </c>
       <c r="R19" s="87" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="S19" s="88" t="s">
         <v>210</v>
@@ -11554,7 +11605,7 @@
         <v>18</v>
       </c>
       <c r="R20" s="87" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="S20" s="88" t="s">
         <v>210</v>
@@ -11577,7 +11628,7 @@
         <v>299</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>231</v>
@@ -11620,7 +11671,7 @@
         <v>20</v>
       </c>
       <c r="R22" s="87" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="S22" s="88" t="s">
         <v>215</v>
@@ -11648,10 +11699,10 @@
         <v>21</v>
       </c>
       <c r="R23" s="87" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="S23" s="88" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="T23" s="88"/>
     </row>
@@ -11681,7 +11732,7 @@
         <v>22</v>
       </c>
       <c r="R24" s="87" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="S24" s="88" t="s">
         <v>213</v>
@@ -12122,7 +12173,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B44" s="93" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C44" s="93"/>
       <c r="D44" s="93"/>
@@ -12158,16 +12209,16 @@
     </row>
     <row r="46" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>612</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="18" t="s">
         <v>614</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="D46" s="18" t="s">
         <v>615</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>616</v>
       </c>
       <c r="I46" s="31">
         <v>44728</v>
@@ -12181,7 +12232,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>292</v>
@@ -12215,13 +12266,13 @@
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>620</v>
       </c>
       <c r="I49" s="31">
         <v>44735</v>
@@ -12249,7 +12300,7 @@
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -12263,11 +12314,11 @@
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I52" s="32">
         <v>44743</v>
@@ -12295,11 +12346,11 @@
     </row>
     <row r="54" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I54" s="32">
         <v>44756</v>
@@ -12311,10 +12362,10 @@
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>626</v>
       </c>
       <c r="D55" s="1"/>
       <c r="I55" s="32">
@@ -12329,11 +12380,11 @@
     </row>
     <row r="56" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I56" s="32">
         <v>44762</v>
@@ -13917,10 +13968,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C100BFCA-CA2F-46D4-AF8F-8BF6353EE367}">
-  <dimension ref="B2:F28"/>
+  <dimension ref="B2:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13979,29 +14030,29 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
+        <v>705</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>706</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D9" s="20" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
+        <v>982</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>981</v>
+      </c>
+      <c r="E10" t="s">
         <v>983</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>982</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>984</v>
-      </c>
-      <c r="F10" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
@@ -14028,110 +14079,126 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D15" s="20" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
+        <v>660</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>661</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D17" s="20" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="18" spans="3:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="D18" s="20" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
+        <v>679</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>680</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
+        <v>835</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>836</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
+        <v>858</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>859</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
+        <v>860</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>861</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
+        <v>862</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>863</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="24" spans="3:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
+        <v>864</v>
+      </c>
+      <c r="D24" t="s">
         <v>865</v>
-      </c>
-      <c r="D24" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="25" spans="3:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
+        <v>912</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>913</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
+        <v>943</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>944</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D28" s="20" t="s">
-        <v>946</v>
+        <v>945</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>989</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>990</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>991</v>
       </c>
     </row>
   </sheetData>
@@ -14159,9 +14226,11 @@
     <hyperlink ref="D27" r:id="rId21" xr:uid="{A22A4C4E-56AF-466E-96AC-C9EBA932B1D6}"/>
     <hyperlink ref="D28" r:id="rId22" xr:uid="{95BEC685-2AA1-446B-930C-1D0FDEBF7F97}"/>
     <hyperlink ref="D10" r:id="rId23" xr:uid="{96AE525F-2FB0-49EE-BEC9-AC1DF2E21DEE}"/>
+    <hyperlink ref="D29" r:id="rId24" xr:uid="{58CFC55D-7DBC-451F-A59A-8ECA38350B4A}"/>
+    <hyperlink ref="D30" r:id="rId25" xr:uid="{83EDBA5F-B014-4BC0-8778-B25567F013E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId24"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId26"/>
 </worksheet>
 </file>
 
@@ -14187,7 +14256,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
@@ -14195,31 +14264,31 @@
         <v>12</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L5" s="7">
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F6" s="17" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G6" s="19">
         <v>1564</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J6" s="1"/>
       <c r="L6" s="7">
         <v>2</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
@@ -14230,59 +14299,59 @@
         <v>11</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G7" s="19">
         <v>2100</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L7" s="7">
         <v>3</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C8" s="4">
         <v>5000000</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G8" s="19">
         <v>30000</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L8" s="7">
         <v>4</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C9" s="4">
         <v>5000000</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G9" s="19">
         <v>2000</v>
@@ -14293,18 +14362,18 @@
         <v>5</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C10" s="4">
         <v>17000000</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G10" s="19">
         <v>1700</v>
@@ -14318,7 +14387,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="F11" s="17" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G11" s="19">
         <v>1250</v>
@@ -14332,7 +14401,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="F12" s="17" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G12" s="19">
         <v>8000</v>
@@ -14421,19 +14490,19 @@
   <sheetData>
     <row r="6" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D6" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>848</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="7" spans="4:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -14441,7 +14510,7 @@
         <v>2023</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -14492,7 +14561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3169022D-0A20-40B2-9AEC-EE2156DA248A}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -14513,10 +14582,10 @@
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:7" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D2" s="15"/>
       <c r="G2" s="13" t="s">
@@ -14534,7 +14603,7 @@
         <v>137</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -14573,10 +14642,10 @@
         <v>372</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="144" x14ac:dyDescent="0.3">
@@ -14584,13 +14653,13 @@
         <v>72</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.3">
@@ -14598,35 +14667,35 @@
         <v>73</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>695</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>696</v>
-      </c>
       <c r="C10" s="16" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>959</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>960</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>

--- a/4_Daily Schedule/Daily_Schedule_2022.xlsx
+++ b/4_Daily Schedule/Daily_Schedule_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adponlineind-my.sharepoint.com/personal/gangigua_es_ad_adp_com/Documents/Documents/2022/Amar_2022/4_Daily Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3846" documentId="13_ncr:1_{37DFCD91-C40D-4851-A7FF-D1781FDB40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DA62895-2425-4198-B6AE-C3D6AD8C9756}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="14_{FB116758-B9B5-462E-BDDC-02E6CF788C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21F42D80-8063-4AE3-B993-3E93E3ACF50D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principles" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="1005">
   <si>
     <t>Date</t>
   </si>
@@ -4037,6 +4037,50 @@
   </si>
   <si>
     <t>Scaler - courses</t>
+  </si>
+  <si>
+    <t>Wires organizer</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/NWSL-Cable-Purpose-Organizer-Holder/dp/B0C16PBQWC/ref=sr_1_14?keywords=wires+holder+for+table&amp;qid=1681704206&amp;sprefix=wires+holder+%2Caps%2C403&amp;sr=8-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance testing
+Triaging SRs
+Ownership on compass deliverables
+Automation testing follow up
+</t>
+  </si>
+  <si>
+    <t>Scaler - up to date
+Java - Programming 
+Problem solving - take you forward</t>
+  </si>
+  <si>
+    <t>Scaler
+Java Programming
+SRs
+Ownership on compass and Automation</t>
+  </si>
+  <si>
+    <t>GOALS</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>client central - performance
+QA meeting
+SR RCA - IHUB errors</t>
+  </si>
+  <si>
+    <t>Dell 130w charger</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Laprite-Watt-Type-Charger-Laptop/dp/B0C1N8NKR6/ref=sr_1_1_sspa?crid=J8KWIV6WN4UW&amp;keywords=dell+laptop+charger+130w+type+c&amp;qid=1681915577&amp;sprefix=%2Caps%2C462&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
+  </si>
+  <si>
+    <t>power cable</t>
   </si>
 </sst>
 </file>
@@ -4648,6 +4692,9 @@
     <xf numFmtId="3" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4714,9 +4761,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4739,10 +4783,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5410,7 +5450,7 @@
   <dimension ref="D1:H16"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
@@ -6013,16 +6053,16 @@
       <c r="E25" s="8">
         <v>44950</v>
       </c>
-      <c r="F25" s="99" t="s">
+      <c r="F25" s="100" t="s">
         <v>804</v>
       </c>
-      <c r="G25" s="99" t="s">
+      <c r="G25" s="100" t="s">
         <v>823</v>
       </c>
-      <c r="H25" s="99" t="s">
+      <c r="H25" s="100" t="s">
         <v>804</v>
       </c>
-      <c r="I25" s="99" t="s">
+      <c r="I25" s="100" t="s">
         <v>683</v>
       </c>
     </row>
@@ -6030,34 +6070,34 @@
       <c r="E26" s="8">
         <v>44951</v>
       </c>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
     </row>
     <row r="27" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E27" s="8">
         <v>44952</v>
       </c>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
     </row>
     <row r="28" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E28" s="8">
         <v>44953</v>
       </c>
-      <c r="F28" s="99" t="s">
+      <c r="F28" s="100" t="s">
         <v>826</v>
       </c>
-      <c r="G28" s="99" t="s">
+      <c r="G28" s="100" t="s">
         <v>804</v>
       </c>
-      <c r="H28" s="99" t="s">
+      <c r="H28" s="100" t="s">
         <v>827</v>
       </c>
-      <c r="I28" s="99" t="s">
+      <c r="I28" s="100" t="s">
         <v>683</v>
       </c>
     </row>
@@ -6065,28 +6105,28 @@
       <c r="E29" s="8">
         <v>44954</v>
       </c>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="100"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
     </row>
     <row r="30" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E30" s="8">
         <v>44955</v>
       </c>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="100"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
     </row>
     <row r="31" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E31" s="8">
         <v>44956</v>
       </c>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
     </row>
     <row r="32" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E32" s="8">
@@ -6152,16 +6192,16 @@
       <c r="F2" s="33">
         <v>44958</v>
       </c>
-      <c r="G2" s="102" t="s">
+      <c r="G2" s="103" t="s">
         <v>850</v>
       </c>
-      <c r="H2" s="102" t="s">
+      <c r="H2" s="103" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="103" t="s">
+      <c r="I2" s="104" t="s">
         <v>852</v>
       </c>
-      <c r="J2" s="102" t="s">
+      <c r="J2" s="103" t="s">
         <v>853</v>
       </c>
     </row>
@@ -6169,10 +6209,10 @@
       <c r="F3" s="33">
         <v>44959</v>
       </c>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="102"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="103"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F4" s="33">
@@ -6837,10 +6877,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCF6E82-368C-4B58-8240-7BC3DC7FE1EF}">
-  <dimension ref="G3:K33"/>
+  <dimension ref="G2:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6851,40 +6892,57 @@
     <col min="11" max="11" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G3" s="63" t="s">
+    <row r="2" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G2" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="3" spans="7:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="G3" s="1"/>
+      <c r="H3" s="16" t="s">
+        <v>997</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>996</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="16" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="4" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H4" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I4" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J4" s="71" t="s">
         <v>638</v>
       </c>
-      <c r="K3" s="71" t="s">
+      <c r="K4" s="71" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="4" spans="7:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="G4" s="1">
+    <row r="5" spans="7:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H5" s="18" t="s">
         <v>976</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>978</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -6892,54 +6950,52 @@
     </row>
     <row r="6" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G6" s="1">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>978</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="7:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G7" s="1">
-        <v>4</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>979</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>980</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="7:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G8" s="1">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>979</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>980</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G9" s="1">
-        <v>6</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>986</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G10" s="1">
-        <v>7</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>987</v>
+        <v>6</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>985</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>986</v>
@@ -6949,16 +7005,20 @@
     </row>
     <row r="11" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G11" s="1">
-        <v>8</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>987</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>986</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G12" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -6967,7 +7027,7 @@
     </row>
     <row r="13" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G13" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -6976,7 +7036,7 @@
     </row>
     <row r="14" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -6985,7 +7045,7 @@
     </row>
     <row r="15" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G15" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -6994,7 +7054,7 @@
     </row>
     <row r="16" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G16" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -7003,7 +7063,7 @@
     </row>
     <row r="17" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G17" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -7012,7 +7072,7 @@
     </row>
     <row r="18" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G18" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -7021,7 +7081,7 @@
     </row>
     <row r="19" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G19" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -7030,7 +7090,7 @@
     </row>
     <row r="20" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G20" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -7039,25 +7099,27 @@
     </row>
     <row r="21" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G21" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="G22" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="18" t="s">
+        <v>1001</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G23" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -7066,7 +7128,7 @@
     </row>
     <row r="24" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G24" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -7075,7 +7137,7 @@
     </row>
     <row r="25" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G25" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -7084,7 +7146,7 @@
     </row>
     <row r="26" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G26" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -7093,7 +7155,7 @@
     </row>
     <row r="27" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G27" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -7102,7 +7164,7 @@
     </row>
     <row r="28" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G28" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -7111,7 +7173,7 @@
     </row>
     <row r="29" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G29" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -7120,7 +7182,7 @@
     </row>
     <row r="30" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G30" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -7129,7 +7191,7 @@
     </row>
     <row r="31" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G31" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -7138,7 +7200,7 @@
     </row>
     <row r="32" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G32" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -7147,15 +7209,25 @@
     </row>
     <row r="33" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G33" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G34" s="1">
+        <v>30</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7952,10 +8024,10 @@
       </c>
     </row>
     <row r="30" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B30" s="104" t="s">
+      <c r="B30" s="105" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="104" t="s">
+      <c r="C30" s="105" t="s">
         <v>146</v>
       </c>
       <c r="D30" s="8">
@@ -7973,8 +8045,8 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="105"/>
       <c r="D31" s="8">
         <v>44831</v>
       </c>
@@ -7990,8 +8062,8 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="104"/>
-      <c r="C32" s="104"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
       <c r="D32" s="8">
         <v>44832</v>
       </c>
@@ -8007,8 +8079,8 @@
       </c>
     </row>
     <row r="33" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
       <c r="D33" s="8">
         <v>44833</v>
       </c>
@@ -8022,8 +8094,8 @@
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="2:8" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="104"/>
-      <c r="C34" s="104"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
       <c r="D34" s="8">
         <v>44834</v>
       </c>
@@ -9887,12 +9959,12 @@
       <c r="E16" s="62">
         <v>44910</v>
       </c>
-      <c r="F16" s="105" t="s">
+      <c r="F16" s="106" t="s">
         <v>606</v>
       </c>
-      <c r="G16" s="106"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="99">
+      <c r="G16" s="107"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="100">
         <v>2</v>
       </c>
     </row>
@@ -9900,144 +9972,144 @@
       <c r="E17" s="62">
         <v>44911</v>
       </c>
-      <c r="F17" s="108"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="100"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="101"/>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E18" s="62">
         <v>44912</v>
       </c>
-      <c r="F18" s="108"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="100"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="101"/>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E19" s="62">
         <v>44913</v>
       </c>
-      <c r="F19" s="108"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="100"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="101"/>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E20" s="62">
         <v>44914</v>
       </c>
-      <c r="F20" s="108"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="100"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="101"/>
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E21" s="62">
         <v>44915</v>
       </c>
-      <c r="F21" s="108"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="100"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="101"/>
     </row>
     <row r="22" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E22" s="62">
         <v>44916</v>
       </c>
-      <c r="F22" s="108"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="100"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="101"/>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E23" s="62">
         <v>44917</v>
       </c>
-      <c r="F23" s="108"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="100"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="101"/>
     </row>
     <row r="24" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E24" s="62">
         <v>44918</v>
       </c>
-      <c r="F24" s="108"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="100"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="101"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E25" s="62">
         <v>44919</v>
       </c>
-      <c r="F25" s="108"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="100"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="101"/>
     </row>
     <row r="26" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E26" s="62">
         <v>44920</v>
       </c>
-      <c r="F26" s="108"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="100"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="101"/>
     </row>
     <row r="27" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E27" s="62">
         <v>44921</v>
       </c>
-      <c r="F27" s="108"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="101"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="102"/>
     </row>
     <row r="28" spans="5:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E28" s="62">
         <v>44922</v>
       </c>
-      <c r="F28" s="108"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="110"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="111"/>
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E29" s="62">
         <v>44923</v>
       </c>
-      <c r="F29" s="108"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="110"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="111"/>
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E30" s="62">
         <v>44924</v>
       </c>
-      <c r="F30" s="108"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="110"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="111"/>
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E31" s="62">
         <v>44925</v>
       </c>
-      <c r="F31" s="108"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="110"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="111"/>
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E32" s="62">
         <v>44926</v>
       </c>
-      <c r="F32" s="111"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="113"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="114"/>
       <c r="I32" s="9"/>
     </row>
   </sheetData>
@@ -10054,7 +10126,7 @@
   <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10112,14 +10184,14 @@
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="92"/>
-      <c r="G2" s="92" t="s">
+      <c r="E2" s="93"/>
+      <c r="G2" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="92"/>
+      <c r="H2" s="93"/>
       <c r="J2" s="5" t="s">
         <v>129</v>
       </c>
@@ -10132,7 +10204,7 @@
       <c r="N2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="114" t="s">
+      <c r="O2" s="92" t="s">
         <v>0</v>
       </c>
       <c r="P2"/>
@@ -10966,30 +11038,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="96" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="F1" s="95" t="s">
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="F1" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="95"/>
-      <c r="I1" s="94" t="s">
+      <c r="G1" s="96"/>
+      <c r="I1" s="95" t="s">
         <v>184</v>
       </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="M1" s="94" t="s">
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="M1" s="95" t="s">
         <v>202</v>
       </c>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="Q1" s="95" t="s">
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="Q1" s="96" t="s">
         <v>214</v>
       </c>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
     </row>
     <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
@@ -11274,11 +11346,11 @@
       <c r="T9" s="88"/>
     </row>
     <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="96" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
       <c r="Q10" s="86">
         <v>8</v>
       </c>
@@ -11405,11 +11477,11 @@
       <c r="T14" s="88"/>
     </row>
     <row r="15" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="97" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="99"/>
       <c r="I15" s="26">
         <v>44933</v>
       </c>
@@ -11707,11 +11779,11 @@
       <c r="T23" s="88"/>
     </row>
     <row r="24" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="95" t="s">
+      <c r="B24" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
       <c r="I24" s="27">
         <v>44595</v>
       </c>
@@ -12172,11 +12244,11 @@
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="93" t="s">
+      <c r="B44" s="94" t="s">
         <v>611</v>
       </c>
-      <c r="C44" s="93"/>
-      <c r="D44" s="93"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="94"/>
       <c r="I44" s="31">
         <v>44719</v>
       </c>
@@ -13968,10 +14040,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C100BFCA-CA2F-46D4-AF8F-8BF6353EE367}">
-  <dimension ref="B2:F30"/>
+  <dimension ref="B2:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14199,6 +14271,22 @@
       </c>
       <c r="D30" s="20" t="s">
         <v>991</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>994</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>1003</v>
       </c>
     </row>
   </sheetData>
@@ -14228,9 +14316,11 @@
     <hyperlink ref="D10" r:id="rId23" xr:uid="{96AE525F-2FB0-49EE-BEC9-AC1DF2E21DEE}"/>
     <hyperlink ref="D29" r:id="rId24" xr:uid="{58CFC55D-7DBC-451F-A59A-8ECA38350B4A}"/>
     <hyperlink ref="D30" r:id="rId25" xr:uid="{83EDBA5F-B014-4BC0-8778-B25567F013E4}"/>
+    <hyperlink ref="D31" r:id="rId26" xr:uid="{B62EAA7D-16DD-43D9-B90F-B15C01D65A4F}"/>
+    <hyperlink ref="D32" r:id="rId27" xr:uid="{3B806FE4-5DEE-4345-9612-381A34EA70A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId26"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -14239,7 +14329,7 @@
   <dimension ref="B4:M19"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="109" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14278,7 +14368,7 @@
         <v>967</v>
       </c>
       <c r="G6" s="19">
-        <v>1564</v>
+        <v>15640</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>782</v>
@@ -14404,7 +14494,7 @@
         <v>966</v>
       </c>
       <c r="G12" s="19">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="1"/>
@@ -14412,8 +14502,12 @@
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="19"/>
+      <c r="F13" s="17" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G13" s="19">
+        <v>5000</v>
+      </c>
       <c r="L13" s="7"/>
       <c r="M13" s="1"/>
     </row>
@@ -14441,7 +14535,7 @@
       </c>
       <c r="G16" s="83">
         <f>SUM(G6:G15)</f>
-        <v>46614</v>
+        <v>68690</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="1"/>
@@ -14562,7 +14656,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
